--- a/exports/yield_files/LO-HP 6.xlsx
+++ b/exports/yield_files/LO-HP 6.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve">Test</t>
   </si>
@@ -80,22 +80,13 @@
     <t xml:space="preserve">LO-HP 6</t>
   </si>
   <si>
-    <t xml:space="preserve">PLY</t>
+    <t xml:space="preserve">CAS</t>
   </si>
   <si>
     <t xml:space="preserve">N19-0076</t>
   </si>
   <si>
-    <t xml:space="preserve">w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t</t>
-  </si>
-  <si>
     <t xml:space="preserve">N19-0269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p</t>
   </si>
   <si>
     <t xml:space="preserve">N19-0323</t>
@@ -105,12 +96,6 @@
   </si>
   <si>
     <t xml:space="preserve">N19-0435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g</t>
   </si>
   <si>
     <t xml:space="preserve">N19-0672</t>
@@ -132,9 +117,6 @@
   </si>
   <si>
     <t xml:space="preserve">RM19-3863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brown and yellow seeds</t>
   </si>
   <si>
     <t xml:space="preserve">RM19-3867</t>
@@ -159,6 +141,27 @@
   </si>
   <si>
     <t xml:space="preserve">Young</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brown and yellow seeds</t>
   </si>
 </sst>
 </file>
@@ -575,45 +578,23 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2" t="n">
-        <v>49</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="n">
-        <v>35</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20.38</v>
-      </c>
-      <c r="P2" t="n">
-        <v>48.18</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>68.56</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2005.4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
       <c r="U2" t="n">
-        <v>58</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="3">
@@ -636,45 +617,23 @@
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3" t="n">
-        <v>49</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="n">
-        <v>37</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="P3" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>68.49</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2027.9</v>
-      </c>
-      <c r="S3" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
       <c r="U3" t="n">
-        <v>57.2</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="4">
@@ -697,32 +656,20 @@
         <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
+      <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
-      <c r="O4" t="n">
-        <v>18.99</v>
-      </c>
-      <c r="P4" t="n">
-        <v>49.28</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>68.27</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1828</v>
-      </c>
-      <c r="S4" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
       <c r="T4"/>
       <c r="U4" t="n">
         <v>57.4</v>
@@ -748,29 +695,23 @@
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
+      <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5" t="n">
-        <v>1790.6</v>
-      </c>
-      <c r="S5" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="R5"/>
+      <c r="S5"/>
       <c r="T5"/>
       <c r="U5" t="n">
-        <v>57.6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -784,7 +725,7 @@
         <v>2021</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -797,41 +738,19 @@
       </c>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="J6" t="n">
-        <v>46</v>
-      </c>
-      <c r="K6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" t="n">
-        <v>23</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>20.57</v>
-      </c>
-      <c r="P6" t="n">
-        <v>47.69</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>68.26</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1545.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>14</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
       <c r="U6" t="n">
-        <v>58.7</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="7">
@@ -845,7 +764,7 @@
         <v>2021</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -858,41 +777,19 @@
       </c>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" t="n">
-        <v>44</v>
-      </c>
-      <c r="K7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" t="n">
-        <v>22</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>20.19</v>
-      </c>
-      <c r="P7" t="n">
-        <v>47.61</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1625.2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
       <c r="U7" t="n">
-        <v>58.5</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="8">
@@ -906,7 +803,7 @@
         <v>2021</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -915,35 +812,23 @@
         <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
-      <c r="K8" t="s">
-        <v>27</v>
-      </c>
+      <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
-      <c r="O8" t="n">
-        <v>20.77</v>
-      </c>
-      <c r="P8" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>67.47</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1285.1</v>
-      </c>
-      <c r="S8" t="n">
-        <v>13</v>
-      </c>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
       <c r="T8"/>
       <c r="U8" t="n">
-        <v>57.6</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="9">
@@ -957,7 +842,7 @@
         <v>2021</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -971,24 +856,18 @@
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9" t="s">
-        <v>27</v>
-      </c>
+      <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9" t="n">
-        <v>975.8</v>
-      </c>
-      <c r="S9" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="R9"/>
+      <c r="S9"/>
       <c r="T9"/>
       <c r="U9" t="n">
-        <v>58.4</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="10">
@@ -1002,7 +881,7 @@
         <v>2021</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -1011,45 +890,23 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10" t="n">
-        <v>44</v>
-      </c>
-      <c r="K10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" t="n">
-        <v>34</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>20.06</v>
-      </c>
-      <c r="P10" t="n">
-        <v>46.97</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>67.03</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2456.2</v>
-      </c>
-      <c r="S10" t="n">
-        <v>14</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
       <c r="U10" t="n">
-        <v>58.2</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="11">
@@ -1063,7 +920,7 @@
         <v>2021</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -1072,45 +929,23 @@
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11" t="n">
-        <v>43</v>
-      </c>
-      <c r="K11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" t="n">
-        <v>35</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>20.18</v>
-      </c>
-      <c r="P11" t="n">
-        <v>46.19</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2346.3</v>
-      </c>
-      <c r="S11" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
       <c r="U11" t="n">
-        <v>58.6</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="12">
@@ -1124,7 +959,7 @@
         <v>2021</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -1133,35 +968,23 @@
         <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
-      <c r="K12" t="s">
-        <v>24</v>
-      </c>
+      <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12"/>
-      <c r="O12" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="P12" t="n">
-        <v>46.49</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>66.79</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1999.7</v>
-      </c>
-      <c r="S12" t="n">
-        <v>14.4</v>
-      </c>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
       <c r="T12"/>
       <c r="U12" t="n">
-        <v>58.6</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="13">
@@ -1175,7 +998,7 @@
         <v>2021</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -1184,29 +1007,23 @@
         <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
-      <c r="K13" t="s">
-        <v>24</v>
-      </c>
+      <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
-      <c r="R13" t="n">
-        <v>1951.6</v>
-      </c>
-      <c r="S13" t="n">
-        <v>13</v>
-      </c>
+      <c r="R13"/>
+      <c r="S13"/>
       <c r="T13"/>
       <c r="U13" t="n">
-        <v>58.4</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="14">
@@ -1220,7 +1037,7 @@
         <v>2021</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1229,43 +1046,21 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14" t="n">
-        <v>45</v>
-      </c>
-      <c r="K14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" t="n">
-        <v>32</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" t="n">
-        <v>20.81</v>
-      </c>
-      <c r="P14" t="n">
-        <v>45.05</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>65.86</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2106.9</v>
-      </c>
-      <c r="S14" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
       <c r="U14" t="n">
         <v>57.4</v>
       </c>
@@ -1281,7 +1076,7 @@
         <v>2021</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1290,45 +1085,23 @@
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
-      <c r="J15" t="n">
-        <v>44</v>
-      </c>
-      <c r="K15" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" t="n">
-        <v>31</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="P15" t="n">
-        <v>46.22</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>66.02</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2183.9</v>
-      </c>
-      <c r="S15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
       <c r="U15" t="n">
-        <v>57.9</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="16">
@@ -1342,7 +1115,7 @@
         <v>2021</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1351,35 +1124,23 @@
         <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
-      <c r="K16" t="s">
-        <v>24</v>
-      </c>
+      <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
       <c r="N16"/>
-      <c r="O16" t="n">
-        <v>20.01</v>
-      </c>
-      <c r="P16" t="n">
-        <v>46.21</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>66.22</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1855.2</v>
-      </c>
-      <c r="S16" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
       <c r="T16"/>
       <c r="U16" t="n">
-        <v>58.1</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="17">
@@ -1393,7 +1154,7 @@
         <v>2021</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1402,29 +1163,23 @@
         <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
-      <c r="K17" t="s">
-        <v>24</v>
-      </c>
+      <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
-      <c r="R17" t="n">
-        <v>1623.7</v>
-      </c>
-      <c r="S17" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="R17"/>
+      <c r="S17"/>
       <c r="T17"/>
       <c r="U17" t="n">
-        <v>58.7</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="18">
@@ -1438,7 +1193,7 @@
         <v>2021</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1447,45 +1202,23 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18" t="n">
-        <v>48</v>
-      </c>
-      <c r="K18" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" t="n">
-        <v>41</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>20.64</v>
-      </c>
-      <c r="P18" t="n">
-        <v>45.83</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>66.47</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1705.8</v>
-      </c>
-      <c r="S18" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
       <c r="U18" t="n">
-        <v>58.2</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="19">
@@ -1499,7 +1232,7 @@
         <v>2021</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1508,45 +1241,23 @@
         <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
-      <c r="J19" t="n">
-        <v>47</v>
-      </c>
-      <c r="K19" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" t="n">
-        <v>43</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2</v>
-      </c>
-      <c r="O19" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="P19" t="n">
-        <v>46.61</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>67.21</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2139.9</v>
-      </c>
-      <c r="S19" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
       <c r="U19" t="n">
-        <v>58.3</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="20">
@@ -1560,7 +1271,7 @@
         <v>2021</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1569,35 +1280,23 @@
         <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
-      <c r="K20" t="s">
-        <v>31</v>
-      </c>
+      <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
-      <c r="O20" t="n">
-        <v>21.14</v>
-      </c>
-      <c r="P20" t="n">
-        <v>45.25</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>66.39</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1734.5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>13.7</v>
-      </c>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
       <c r="T20"/>
       <c r="U20" t="n">
-        <v>57.5</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="21">
@@ -1611,7 +1310,7 @@
         <v>2021</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1620,29 +1319,23 @@
         <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
-      <c r="K21" t="s">
-        <v>31</v>
-      </c>
+      <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
-      <c r="R21" t="n">
-        <v>1762.5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="R21"/>
+      <c r="S21"/>
       <c r="T21"/>
       <c r="U21" t="n">
-        <v>58</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="22">
@@ -1656,7 +1349,7 @@
         <v>2021</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E22" t="n">
         <v>6</v>
@@ -1665,45 +1358,23 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="J22" t="n">
-        <v>45</v>
-      </c>
-      <c r="K22" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" t="n">
-        <v>30</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O22" t="n">
-        <v>20.86</v>
-      </c>
-      <c r="P22" t="n">
-        <v>44.17</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>65.03</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2124.7</v>
-      </c>
-      <c r="S22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
       <c r="U22" t="n">
-        <v>56.8</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="23">
@@ -1717,7 +1388,7 @@
         <v>2021</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E23" t="n">
         <v>6</v>
@@ -1726,45 +1397,23 @@
         <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="J23" t="n">
-        <v>46</v>
-      </c>
-      <c r="K23" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" t="s">
-        <v>32</v>
-      </c>
-      <c r="M23" t="n">
-        <v>30</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" t="n">
-        <v>20.52</v>
-      </c>
-      <c r="P23" t="n">
-        <v>45.35</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>65.87</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2257.7</v>
-      </c>
-      <c r="S23" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
       <c r="U23" t="n">
-        <v>53.5</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="24">
@@ -1778,7 +1427,7 @@
         <v>2021</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E24" t="n">
         <v>6</v>
@@ -1787,35 +1436,23 @@
         <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
-      <c r="K24" t="s">
-        <v>27</v>
-      </c>
+      <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
       <c r="N24"/>
-      <c r="O24" t="n">
-        <v>20.73</v>
-      </c>
-      <c r="P24" t="n">
-        <v>44.06</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>64.79</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2167.6</v>
-      </c>
-      <c r="S24" t="n">
-        <v>12</v>
-      </c>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
       <c r="T24"/>
       <c r="U24" t="n">
-        <v>57.4</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="25">
@@ -1829,7 +1466,7 @@
         <v>2021</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E25" t="n">
         <v>6</v>
@@ -1838,29 +1475,23 @@
         <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
-      <c r="K25" t="s">
-        <v>27</v>
-      </c>
+      <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
-      <c r="R25" t="n">
-        <v>1688.9</v>
-      </c>
-      <c r="S25" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="R25"/>
+      <c r="S25"/>
       <c r="T25"/>
       <c r="U25" t="n">
-        <v>58</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="26">
@@ -1874,7 +1505,7 @@
         <v>2021</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
@@ -1883,45 +1514,23 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26" t="n">
-        <v>48</v>
-      </c>
-      <c r="K26" t="s">
-        <v>27</v>
-      </c>
-      <c r="L26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M26" t="n">
-        <v>31</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" t="n">
-        <v>19.63</v>
-      </c>
-      <c r="P26" t="n">
-        <v>47.53</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>67.16</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2333.7</v>
-      </c>
-      <c r="S26" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
       <c r="U26" t="n">
-        <v>55.9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1935,7 +1544,7 @@
         <v>2021</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
@@ -1944,45 +1553,23 @@
         <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
-      <c r="J27" t="n">
-        <v>48</v>
-      </c>
-      <c r="K27" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" t="s">
-        <v>32</v>
-      </c>
-      <c r="M27" t="n">
-        <v>30</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" t="n">
-        <v>20.46</v>
-      </c>
-      <c r="P27" t="n">
-        <v>47</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>67.46</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2310.2</v>
-      </c>
-      <c r="S27" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
       <c r="U27" t="n">
-        <v>55.9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -1996,54 +1583,32 @@
         <v>2021</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
-      <c r="J28" t="n">
-        <v>48</v>
-      </c>
-      <c r="K28" t="s">
-        <v>27</v>
-      </c>
-      <c r="L28" t="s">
-        <v>32</v>
-      </c>
-      <c r="M28" t="n">
-        <v>30</v>
-      </c>
-      <c r="N28" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" t="n">
-        <v>20.46</v>
-      </c>
-      <c r="P28" t="n">
-        <v>47</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>67.46</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2310.2</v>
-      </c>
-      <c r="S28" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
       <c r="U28" t="n">
-        <v>55.9</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="29">
@@ -2057,44 +1622,32 @@
         <v>2021</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
-      <c r="K29" t="s">
-        <v>27</v>
-      </c>
+      <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
-      <c r="O29" t="n">
-        <v>20.37</v>
-      </c>
-      <c r="P29" t="n">
-        <v>46.76</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>67.13</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2151.8</v>
-      </c>
-      <c r="S29" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
       <c r="T29"/>
       <c r="U29" t="n">
-        <v>55.9</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="30">
@@ -2108,38 +1661,32 @@
         <v>2021</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
-      <c r="K30" t="s">
-        <v>27</v>
-      </c>
+      <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
       <c r="N30"/>
       <c r="O30"/>
       <c r="P30"/>
       <c r="Q30"/>
-      <c r="R30" t="n">
-        <v>2023.9</v>
-      </c>
-      <c r="S30" t="n">
-        <v>16</v>
-      </c>
+      <c r="R30"/>
+      <c r="S30"/>
       <c r="T30"/>
       <c r="U30" t="n">
-        <v>56.4</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="31">
@@ -2153,53 +1700,33 @@
         <v>2021</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
-      <c r="J31" t="n">
-        <v>46</v>
-      </c>
-      <c r="K31" t="s">
-        <v>24</v>
-      </c>
-      <c r="L31" t="s">
-        <v>25</v>
-      </c>
-      <c r="M31" t="n">
-        <v>36</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O31" t="n">
-        <v>19.16</v>
-      </c>
-      <c r="P31" t="n">
-        <v>48.22</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>67.38</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1734.3</v>
-      </c>
-      <c r="S31" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31" t="n">
+        <v>55.9</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -2212,53 +1739,33 @@
         <v>2021</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
-      <c r="J32" t="n">
-        <v>48</v>
-      </c>
-      <c r="K32" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" t="s">
-        <v>25</v>
-      </c>
-      <c r="M32" t="n">
-        <v>33</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O32" t="n">
-        <v>18.86</v>
-      </c>
-      <c r="P32" t="n">
-        <v>50.07</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>68.93</v>
-      </c>
-      <c r="R32" t="n">
-        <v>2225.5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32" t="n">
+        <v>55.8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -2271,43 +1778,33 @@
         <v>2021</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G33" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
-      <c r="K33" t="s">
-        <v>24</v>
-      </c>
+      <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
       <c r="N33"/>
-      <c r="O33" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="P33" t="n">
-        <v>48.69</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>67.34</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1861.2</v>
-      </c>
-      <c r="S33" t="n">
-        <v>13</v>
-      </c>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
       <c r="T33"/>
-      <c r="U33"/>
+      <c r="U33" t="n">
+        <v>56.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -2320,37 +1817,33 @@
         <v>2021</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
-      <c r="K34" t="s">
-        <v>24</v>
-      </c>
+      <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
-      <c r="R34" t="n">
-        <v>1728.6</v>
-      </c>
-      <c r="S34" t="n">
-        <v>13</v>
-      </c>
+      <c r="R34"/>
+      <c r="S34"/>
       <c r="T34"/>
-      <c r="U34"/>
+      <c r="U34" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -2363,54 +1856,32 @@
         <v>2021</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
-      <c r="J35" t="n">
-        <v>53</v>
-      </c>
-      <c r="K35" t="s">
-        <v>27</v>
-      </c>
-      <c r="L35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M35" t="n">
-        <v>63</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2</v>
-      </c>
-      <c r="O35" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="P35" t="n">
-        <v>42.29</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>65.49</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1686.4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
       <c r="U35" t="n">
-        <v>55</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="36">
@@ -2424,54 +1895,32 @@
         <v>2021</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H36"/>
       <c r="I36"/>
-      <c r="J36" t="n">
-        <v>51</v>
-      </c>
-      <c r="K36" t="s">
-        <v>27</v>
-      </c>
-      <c r="L36" t="s">
-        <v>32</v>
-      </c>
-      <c r="M36" t="n">
-        <v>60</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2</v>
-      </c>
-      <c r="O36" t="n">
-        <v>22.43</v>
-      </c>
-      <c r="P36" t="n">
-        <v>43.08</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>65.51</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2202.5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
       <c r="U36" t="n">
-        <v>54.9</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="37">
@@ -2485,41 +1934,29 @@
         <v>2021</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
-      <c r="K37" t="s">
-        <v>27</v>
-      </c>
+      <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37"/>
-      <c r="O37" t="n">
-        <v>22.33</v>
-      </c>
-      <c r="P37" t="n">
-        <v>43.57</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>65.9</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2063.4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>16.4</v>
-      </c>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
       <c r="T37"/>
       <c r="U37" t="n">
         <v>56</v>
@@ -2536,38 +1973,32 @@
         <v>2021</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
-      <c r="K38" t="s">
-        <v>27</v>
-      </c>
+      <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38"/>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
-      <c r="R38" t="n">
-        <v>2196.4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>15.9</v>
-      </c>
+      <c r="R38"/>
+      <c r="S38"/>
       <c r="T38"/>
       <c r="U38" t="n">
-        <v>55.8</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="39">
@@ -2581,54 +2012,32 @@
         <v>2021</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
-      <c r="J39" t="n">
-        <v>55</v>
-      </c>
-      <c r="K39" t="s">
-        <v>27</v>
-      </c>
-      <c r="L39" t="s">
-        <v>25</v>
-      </c>
-      <c r="M39" t="n">
-        <v>54</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2</v>
-      </c>
-      <c r="O39" t="n">
-        <v>21.62</v>
-      </c>
-      <c r="P39" t="n">
-        <v>43.82</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>65.44</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1236.4</v>
-      </c>
-      <c r="S39" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
       <c r="U39" t="n">
-        <v>57.8</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="40">
@@ -2642,54 +2051,32 @@
         <v>2021</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H40"/>
       <c r="I40"/>
-      <c r="J40" t="n">
-        <v>53</v>
-      </c>
-      <c r="K40" t="s">
-        <v>27</v>
-      </c>
-      <c r="L40" t="s">
-        <v>25</v>
-      </c>
-      <c r="M40" t="n">
-        <v>57</v>
-      </c>
-      <c r="N40" t="n">
-        <v>2</v>
-      </c>
-      <c r="O40" t="n">
-        <v>21.31</v>
-      </c>
-      <c r="P40" t="n">
-        <v>44.88</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>66.19</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1602.2</v>
-      </c>
-      <c r="S40" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
       <c r="U40" t="n">
-        <v>56.3</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="41">
@@ -2703,44 +2090,32 @@
         <v>2021</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
-      <c r="K41" t="s">
-        <v>27</v>
-      </c>
+      <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
       <c r="N41"/>
-      <c r="O41" t="n">
-        <v>21.78</v>
-      </c>
-      <c r="P41" t="n">
-        <v>45.05</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>66.83</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1479.5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
       <c r="T41"/>
       <c r="U41" t="n">
-        <v>56.3</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="42">
@@ -2754,38 +2129,32 @@
         <v>2021</v>
       </c>
       <c r="D42" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
-      <c r="K42" t="s">
-        <v>27</v>
-      </c>
+      <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42"/>
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42"/>
-      <c r="R42" t="n">
-        <v>1159.9</v>
-      </c>
-      <c r="S42" t="n">
-        <v>15.6</v>
-      </c>
+      <c r="R42"/>
+      <c r="S42"/>
       <c r="T42"/>
       <c r="U42" t="n">
-        <v>56.7</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="43">
@@ -2799,54 +2168,32 @@
         <v>2021</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E43" t="n">
         <v>11</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H43"/>
       <c r="I43"/>
-      <c r="J43" t="n">
-        <v>56</v>
-      </c>
-      <c r="K43" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" t="s">
-        <v>25</v>
-      </c>
-      <c r="M43" t="n">
-        <v>44</v>
-      </c>
-      <c r="N43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O43" t="n">
-        <v>20.42</v>
-      </c>
-      <c r="P43" t="n">
-        <v>44.07</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>64.49</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2205.1</v>
-      </c>
-      <c r="S43" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
       <c r="U43" t="n">
-        <v>58.1</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="44">
@@ -2860,54 +2207,32 @@
         <v>2021</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E44" t="n">
         <v>11</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
-      <c r="J44" t="n">
-        <v>56</v>
-      </c>
-      <c r="K44" t="s">
-        <v>24</v>
-      </c>
-      <c r="L44" t="s">
-        <v>25</v>
-      </c>
-      <c r="M44" t="n">
-        <v>47</v>
-      </c>
-      <c r="N44" t="n">
-        <v>1</v>
-      </c>
-      <c r="O44" t="n">
-        <v>20.45</v>
-      </c>
-      <c r="P44" t="n">
-        <v>44.71</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>65.16</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1819.5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
       <c r="U44" t="n">
-        <v>57.7</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="45">
@@ -2921,44 +2246,32 @@
         <v>2021</v>
       </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E45" t="n">
         <v>11</v>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G45" t="n">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
-      <c r="K45" t="s">
-        <v>24</v>
-      </c>
+      <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
       <c r="N45"/>
-      <c r="O45" t="n">
-        <v>20.42</v>
-      </c>
-      <c r="P45" t="n">
-        <v>44.32</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>64.74</v>
-      </c>
-      <c r="R45" t="n">
-        <v>2006.8</v>
-      </c>
-      <c r="S45" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
       <c r="T45"/>
       <c r="U45" t="n">
-        <v>58.1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46">
@@ -2972,37 +2285,33 @@
         <v>2021</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
-      <c r="K46" t="s">
-        <v>24</v>
-      </c>
+      <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
-      <c r="R46" t="n">
-        <v>1634.6</v>
-      </c>
-      <c r="S46" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="R46"/>
+      <c r="S46"/>
       <c r="T46"/>
-      <c r="U46"/>
+      <c r="U46" t="n">
+        <v>58.9</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -3015,55 +2324,33 @@
         <v>2021</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E47" t="n">
         <v>12</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H47"/>
-      <c r="I47" t="s">
-        <v>40</v>
-      </c>
-      <c r="J47" t="n">
-        <v>52</v>
-      </c>
-      <c r="K47" t="s">
-        <v>31</v>
-      </c>
-      <c r="L47" t="s">
-        <v>32</v>
-      </c>
-      <c r="M47" t="n">
-        <v>31</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2</v>
-      </c>
-      <c r="O47" t="n">
-        <v>19.66</v>
-      </c>
-      <c r="P47" t="n">
-        <v>47.36</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>67.02</v>
-      </c>
-      <c r="R47" t="n">
-        <v>929.4</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="T47" t="n">
-        <v>2</v>
-      </c>
-      <c r="U47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47" t="n">
+        <v>59.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -3076,55 +2363,33 @@
         <v>2021</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E48" t="n">
         <v>12</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H48"/>
-      <c r="I48" t="s">
-        <v>40</v>
-      </c>
-      <c r="J48" t="n">
-        <v>51</v>
-      </c>
-      <c r="K48" t="s">
-        <v>31</v>
-      </c>
-      <c r="L48" t="s">
-        <v>32</v>
-      </c>
-      <c r="M48" t="n">
-        <v>31</v>
-      </c>
-      <c r="N48" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O48" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="P48" t="n">
-        <v>44.51</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>63.25</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1006.5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T48" t="n">
-        <v>2</v>
-      </c>
-      <c r="U48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48" t="n">
+        <v>59.9</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -3137,45 +2402,33 @@
         <v>2021</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E49" t="n">
         <v>12</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G49" t="n">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="H49"/>
-      <c r="I49" t="s">
-        <v>40</v>
-      </c>
+      <c r="I49"/>
       <c r="J49"/>
-      <c r="K49" t="s">
-        <v>31</v>
-      </c>
+      <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
       <c r="N49"/>
-      <c r="O49" t="n">
-        <v>19.83</v>
-      </c>
-      <c r="P49" t="n">
-        <v>48.01</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>67.84</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1185.1</v>
-      </c>
-      <c r="S49" t="n">
-        <v>6.5</v>
-      </c>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
       <c r="T49"/>
-      <c r="U49"/>
+      <c r="U49" t="n">
+        <v>59.9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -3188,39 +2441,33 @@
         <v>2021</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="H50"/>
-      <c r="I50" t="s">
-        <v>40</v>
-      </c>
+      <c r="I50"/>
       <c r="J50"/>
-      <c r="K50" t="s">
-        <v>31</v>
-      </c>
+      <c r="K50"/>
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50"/>
       <c r="O50"/>
       <c r="P50"/>
       <c r="Q50"/>
-      <c r="R50" t="n">
-        <v>659.8</v>
-      </c>
-      <c r="S50" t="n">
-        <v>6.4</v>
-      </c>
+      <c r="R50"/>
+      <c r="S50"/>
       <c r="T50"/>
-      <c r="U50"/>
+      <c r="U50" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -3233,53 +2480,33 @@
         <v>2021</v>
       </c>
       <c r="D51" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="H51"/>
       <c r="I51"/>
-      <c r="J51" t="n">
-        <v>42</v>
-      </c>
-      <c r="K51" t="s">
-        <v>27</v>
-      </c>
-      <c r="L51" t="s">
-        <v>25</v>
-      </c>
-      <c r="M51" t="n">
-        <v>29</v>
-      </c>
-      <c r="N51" t="n">
-        <v>1</v>
-      </c>
-      <c r="O51" t="n">
-        <v>18.38</v>
-      </c>
-      <c r="P51" t="n">
-        <v>50.38</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>68.76</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1774.7</v>
-      </c>
-      <c r="S51" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="T51" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51" t="n">
+        <v>58.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -3292,53 +2519,33 @@
         <v>2021</v>
       </c>
       <c r="D52" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G52" t="n">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="H52"/>
       <c r="I52"/>
-      <c r="J52" t="n">
-        <v>43</v>
-      </c>
-      <c r="K52" t="s">
-        <v>27</v>
-      </c>
-      <c r="L52" t="s">
-        <v>25</v>
-      </c>
-      <c r="M52" t="n">
-        <v>30</v>
-      </c>
-      <c r="N52" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O52" t="n">
-        <v>18.22</v>
-      </c>
-      <c r="P52" t="n">
-        <v>51.44</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>69.66</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1766.9</v>
-      </c>
-      <c r="S52" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52" t="n">
+        <v>58.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -3351,43 +2558,33 @@
         <v>2021</v>
       </c>
       <c r="D53" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G53" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
-      <c r="K53" t="s">
-        <v>27</v>
-      </c>
+      <c r="K53"/>
       <c r="L53"/>
       <c r="M53"/>
       <c r="N53"/>
-      <c r="O53" t="n">
-        <v>18.08</v>
-      </c>
-      <c r="P53" t="n">
-        <v>51.99</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>70.07</v>
-      </c>
-      <c r="R53" t="n">
-        <v>1912.9</v>
-      </c>
-      <c r="S53" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
       <c r="T53"/>
-      <c r="U53"/>
+      <c r="U53" t="n">
+        <v>58.4</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -3400,37 +2597,33 @@
         <v>2021</v>
       </c>
       <c r="D54" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E54" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
-      <c r="K54" t="s">
-        <v>27</v>
-      </c>
+      <c r="K54"/>
       <c r="L54"/>
       <c r="M54"/>
       <c r="N54"/>
       <c r="O54"/>
       <c r="P54"/>
       <c r="Q54"/>
-      <c r="R54" t="n">
-        <v>1720.8</v>
-      </c>
-      <c r="S54" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="R54"/>
+      <c r="S54"/>
       <c r="T54"/>
-      <c r="U54"/>
+      <c r="U54" t="n">
+        <v>57.4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -3443,53 +2636,33 @@
         <v>2021</v>
       </c>
       <c r="D55" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E55" t="n">
         <v>14</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="H55"/>
       <c r="I55"/>
-      <c r="J55" t="n">
-        <v>48</v>
-      </c>
-      <c r="K55" t="s">
-        <v>27</v>
-      </c>
-      <c r="L55" t="s">
-        <v>25</v>
-      </c>
-      <c r="M55" t="n">
-        <v>41</v>
-      </c>
-      <c r="N55" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O55" t="n">
-        <v>19.94</v>
-      </c>
-      <c r="P55" t="n">
-        <v>46.97</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>66.91</v>
-      </c>
-      <c r="R55" t="n">
-        <v>1412.9</v>
-      </c>
-      <c r="S55" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="T55" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55" t="n">
+        <v>56.8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -3502,53 +2675,33 @@
         <v>2021</v>
       </c>
       <c r="D56" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E56" t="n">
         <v>14</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="H56"/>
       <c r="I56"/>
-      <c r="J56" t="n">
-        <v>49</v>
-      </c>
-      <c r="K56" t="s">
-        <v>27</v>
-      </c>
-      <c r="L56" t="s">
-        <v>25</v>
-      </c>
-      <c r="M56" t="n">
-        <v>39</v>
-      </c>
-      <c r="N56" t="n">
-        <v>2</v>
-      </c>
-      <c r="O56" t="n">
-        <v>19.72</v>
-      </c>
-      <c r="P56" t="n">
-        <v>46.88</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>66.6</v>
-      </c>
-      <c r="R56" t="n">
-        <v>2009.2</v>
-      </c>
-      <c r="S56" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="T56" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56" t="n">
+        <v>56.9</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -3561,43 +2714,33 @@
         <v>2021</v>
       </c>
       <c r="D57" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E57" t="n">
         <v>14</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G57" t="n">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
-      <c r="K57" t="s">
-        <v>27</v>
-      </c>
+      <c r="K57"/>
       <c r="L57"/>
       <c r="M57"/>
       <c r="N57"/>
-      <c r="O57" t="n">
-        <v>20.44</v>
-      </c>
-      <c r="P57" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>66.84</v>
-      </c>
-      <c r="R57" t="n">
-        <v>2009.4</v>
-      </c>
-      <c r="S57" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
       <c r="T57"/>
-      <c r="U57"/>
+      <c r="U57" t="n">
+        <v>56.7</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -3610,37 +2753,33 @@
         <v>2021</v>
       </c>
       <c r="D58" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E58" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
-      <c r="K58" t="s">
-        <v>27</v>
-      </c>
+      <c r="K58"/>
       <c r="L58"/>
       <c r="M58"/>
       <c r="N58"/>
       <c r="O58"/>
       <c r="P58"/>
       <c r="Q58"/>
-      <c r="R58" t="n">
-        <v>1732</v>
-      </c>
-      <c r="S58" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="R58"/>
+      <c r="S58"/>
       <c r="T58"/>
-      <c r="U58"/>
+      <c r="U58" t="n">
+        <v>56.5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -3653,53 +2792,33 @@
         <v>2021</v>
       </c>
       <c r="D59" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E59" t="n">
         <v>15</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H59"/>
       <c r="I59"/>
-      <c r="J59" t="n">
-        <v>47</v>
-      </c>
-      <c r="K59" t="s">
-        <v>24</v>
-      </c>
-      <c r="L59" t="s">
-        <v>25</v>
-      </c>
-      <c r="M59" t="n">
-        <v>36</v>
-      </c>
-      <c r="N59" t="n">
-        <v>2</v>
-      </c>
-      <c r="O59" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="P59" t="n">
-        <v>48.89</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>67.61</v>
-      </c>
-      <c r="R59" t="n">
-        <v>1864.6</v>
-      </c>
-      <c r="S59" t="n">
-        <v>15</v>
-      </c>
-      <c r="T59" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59" t="n">
+        <v>56.3</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
@@ -3712,53 +2831,33 @@
         <v>2021</v>
       </c>
       <c r="D60" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E60" t="n">
         <v>15</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H60"/>
       <c r="I60"/>
-      <c r="J60" t="n">
-        <v>48</v>
-      </c>
-      <c r="K60" t="s">
-        <v>24</v>
-      </c>
-      <c r="L60" t="s">
-        <v>25</v>
-      </c>
-      <c r="M60" t="n">
-        <v>35</v>
-      </c>
-      <c r="N60" t="n">
-        <v>2</v>
-      </c>
-      <c r="O60" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="P60" t="n">
-        <v>49.55</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>68.09</v>
-      </c>
-      <c r="R60" t="n">
-        <v>2073.8</v>
-      </c>
-      <c r="S60" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="T60" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60" t="n">
+        <v>56.2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -3771,43 +2870,33 @@
         <v>2021</v>
       </c>
       <c r="D61" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E61" t="n">
         <v>15</v>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G61" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
-      <c r="K61" t="s">
-        <v>24</v>
-      </c>
+      <c r="K61"/>
       <c r="L61"/>
       <c r="M61"/>
       <c r="N61"/>
-      <c r="O61" t="n">
-        <v>18.36</v>
-      </c>
-      <c r="P61" t="n">
-        <v>48.78</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>67.14</v>
-      </c>
-      <c r="R61" t="n">
-        <v>1683</v>
-      </c>
-      <c r="S61" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
       <c r="T61"/>
-      <c r="U61"/>
+      <c r="U61" t="n">
+        <v>56.1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -3820,37 +2909,33 @@
         <v>2021</v>
       </c>
       <c r="D62" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E62" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
-      <c r="K62" t="s">
-        <v>24</v>
-      </c>
+      <c r="K62"/>
       <c r="L62"/>
       <c r="M62"/>
       <c r="N62"/>
       <c r="O62"/>
       <c r="P62"/>
       <c r="Q62"/>
-      <c r="R62" t="n">
-        <v>2206.1</v>
-      </c>
-      <c r="S62" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="R62"/>
+      <c r="S62"/>
       <c r="T62"/>
-      <c r="U62"/>
+      <c r="U62" t="n">
+        <v>58.5</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -3863,53 +2948,33 @@
         <v>2021</v>
       </c>
       <c r="D63" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="H63"/>
       <c r="I63"/>
-      <c r="J63" t="n">
-        <v>50</v>
-      </c>
-      <c r="K63" t="s">
-        <v>27</v>
-      </c>
-      <c r="L63" t="s">
-        <v>32</v>
-      </c>
-      <c r="M63" t="n">
-        <v>42</v>
-      </c>
-      <c r="N63" t="n">
-        <v>2</v>
-      </c>
-      <c r="O63" t="n">
-        <v>20.31</v>
-      </c>
-      <c r="P63" t="n">
-        <v>46.52</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>66.83</v>
-      </c>
-      <c r="R63" t="n">
-        <v>1794.2</v>
-      </c>
-      <c r="S63" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="T63" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63" t="n">
+        <v>57.9</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -3922,53 +2987,33 @@
         <v>2021</v>
       </c>
       <c r="D64" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G64" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="H64"/>
       <c r="I64"/>
-      <c r="J64" t="n">
-        <v>49</v>
-      </c>
-      <c r="K64" t="s">
-        <v>27</v>
-      </c>
-      <c r="L64" t="s">
-        <v>32</v>
-      </c>
-      <c r="M64" t="n">
-        <v>41</v>
-      </c>
-      <c r="N64" t="n">
-        <v>2</v>
-      </c>
-      <c r="O64" t="n">
-        <v>19.71</v>
-      </c>
-      <c r="P64" t="n">
-        <v>47.13</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>66.84</v>
-      </c>
-      <c r="R64" t="n">
-        <v>2102.2</v>
-      </c>
-      <c r="S64" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="T64" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64" t="n">
+        <v>58.2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
@@ -3981,43 +3026,33 @@
         <v>2021</v>
       </c>
       <c r="D65" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G65" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
-      <c r="K65" t="s">
-        <v>27</v>
-      </c>
+      <c r="K65"/>
       <c r="L65"/>
       <c r="M65"/>
       <c r="N65"/>
-      <c r="O65" t="n">
-        <v>18.92</v>
-      </c>
-      <c r="P65" t="n">
-        <v>47.79</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>66.71</v>
-      </c>
-      <c r="R65" t="n">
-        <v>1717.6</v>
-      </c>
-      <c r="S65" t="n">
-        <v>13.1</v>
-      </c>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
       <c r="T65"/>
-      <c r="U65"/>
+      <c r="U65" t="n">
+        <v>57.7</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
@@ -4030,37 +3065,33 @@
         <v>2021</v>
       </c>
       <c r="D66" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E66" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
-      <c r="K66" t="s">
-        <v>27</v>
-      </c>
+      <c r="K66"/>
       <c r="L66"/>
       <c r="M66"/>
       <c r="N66"/>
       <c r="O66"/>
       <c r="P66"/>
       <c r="Q66"/>
-      <c r="R66" t="n">
-        <v>1773.4</v>
-      </c>
-      <c r="S66" t="n">
-        <v>13.7</v>
-      </c>
+      <c r="R66"/>
+      <c r="S66"/>
       <c r="T66"/>
-      <c r="U66"/>
+      <c r="U66" t="n">
+        <v>54.1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -4073,53 +3104,33 @@
         <v>2021</v>
       </c>
       <c r="D67" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E67" t="n">
         <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H67"/>
       <c r="I67"/>
-      <c r="J67" t="n">
-        <v>48</v>
-      </c>
-      <c r="K67" t="s">
-        <v>27</v>
-      </c>
-      <c r="L67" t="s">
-        <v>32</v>
-      </c>
-      <c r="M67" t="n">
-        <v>30</v>
-      </c>
-      <c r="N67" t="n">
-        <v>1</v>
-      </c>
-      <c r="O67" t="n">
-        <v>22.54</v>
-      </c>
-      <c r="P67" t="n">
-        <v>40.06</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>62.6</v>
-      </c>
-      <c r="R67" t="n">
-        <v>2733.9</v>
-      </c>
-      <c r="S67" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="T67" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67" t="n">
+        <v>53.9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
@@ -4132,51 +3143,33 @@
         <v>2021</v>
       </c>
       <c r="D68" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E68" t="n">
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H68"/>
       <c r="I68"/>
-      <c r="J68" t="n">
-        <v>47</v>
-      </c>
-      <c r="K68" t="s">
-        <v>27</v>
-      </c>
-      <c r="L68" t="s">
-        <v>32</v>
-      </c>
-      <c r="M68" t="n">
-        <v>32</v>
-      </c>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
       <c r="N68"/>
-      <c r="O68" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="P68" t="n">
-        <v>40.91</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="R68" t="n">
-        <v>2557.8</v>
-      </c>
-      <c r="S68" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="T68" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68" t="n">
+        <v>53.6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
@@ -4189,43 +3182,33 @@
         <v>2021</v>
       </c>
       <c r="D69" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E69" t="n">
         <v>17</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G69" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69"/>
-      <c r="K69" t="s">
-        <v>27</v>
-      </c>
+      <c r="K69"/>
       <c r="L69"/>
       <c r="M69"/>
       <c r="N69"/>
-      <c r="O69" t="n">
-        <v>22.58</v>
-      </c>
-      <c r="P69" t="n">
-        <v>40.95</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>63.53</v>
-      </c>
-      <c r="R69" t="n">
-        <v>2715.4</v>
-      </c>
-      <c r="S69" t="n">
-        <v>10.2</v>
-      </c>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
       <c r="T69"/>
-      <c r="U69"/>
+      <c r="U69" t="n">
+        <v>54.7</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
@@ -4238,37 +3221,33 @@
         <v>2021</v>
       </c>
       <c r="D70" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E70" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="H70"/>
       <c r="I70"/>
       <c r="J70"/>
-      <c r="K70" t="s">
-        <v>27</v>
-      </c>
+      <c r="K70"/>
       <c r="L70"/>
       <c r="M70"/>
       <c r="N70"/>
       <c r="O70"/>
       <c r="P70"/>
       <c r="Q70"/>
-      <c r="R70" t="n">
-        <v>2398</v>
-      </c>
-      <c r="S70" t="n">
-        <v>14.2</v>
-      </c>
+      <c r="R70"/>
+      <c r="S70"/>
       <c r="T70"/>
-      <c r="U70"/>
+      <c r="U70" t="n">
+        <v>56.7</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
@@ -4281,53 +3260,33 @@
         <v>2021</v>
       </c>
       <c r="D71" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E71" t="n">
         <v>18</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="J71" t="n">
-        <v>49</v>
-      </c>
-      <c r="K71" t="s">
-        <v>27</v>
-      </c>
-      <c r="L71" t="s">
-        <v>32</v>
-      </c>
-      <c r="M71" t="n">
-        <v>29</v>
-      </c>
-      <c r="N71" t="n">
-        <v>1</v>
-      </c>
-      <c r="O71" t="n">
-        <v>22.85</v>
-      </c>
-      <c r="P71" t="n">
-        <v>40.58</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>63.43</v>
-      </c>
-      <c r="R71" t="n">
-        <v>2426.5</v>
-      </c>
-      <c r="S71" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="T71" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71" t="n">
+        <v>56.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
@@ -4340,53 +3299,33 @@
         <v>2021</v>
       </c>
       <c r="D72" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E72" t="n">
         <v>18</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G72" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H72"/>
       <c r="I72"/>
-      <c r="J72" t="n">
-        <v>48</v>
-      </c>
-      <c r="K72" t="s">
-        <v>27</v>
-      </c>
-      <c r="L72" t="s">
-        <v>32</v>
-      </c>
-      <c r="M72" t="n">
-        <v>30</v>
-      </c>
-      <c r="N72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O72" t="n">
-        <v>23.14</v>
-      </c>
-      <c r="P72" t="n">
-        <v>41.33</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>64.47</v>
-      </c>
-      <c r="R72" t="n">
-        <v>1784.8</v>
-      </c>
-      <c r="S72" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="T72" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
@@ -4399,43 +3338,33 @@
         <v>2021</v>
       </c>
       <c r="D73" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E73" t="n">
         <v>18</v>
       </c>
       <c r="F73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G73" t="n">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73"/>
-      <c r="K73" t="s">
-        <v>27</v>
-      </c>
+      <c r="K73"/>
       <c r="L73"/>
       <c r="M73"/>
       <c r="N73"/>
-      <c r="O73" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="P73" t="n">
-        <v>42.48</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>65.88</v>
-      </c>
-      <c r="R73" t="n">
-        <v>2270</v>
-      </c>
-      <c r="S73" t="n">
-        <v>16.4</v>
-      </c>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
       <c r="T73"/>
-      <c r="U73"/>
+      <c r="U73" t="n">
+        <v>55.6</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
@@ -4448,37 +3377,33 @@
         <v>2021</v>
       </c>
       <c r="D74" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E74" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" t="n">
         <v>4</v>
-      </c>
-      <c r="G74" t="n">
-        <v>78</v>
       </c>
       <c r="H74"/>
       <c r="I74"/>
       <c r="J74"/>
-      <c r="K74" t="s">
-        <v>27</v>
-      </c>
+      <c r="K74"/>
       <c r="L74"/>
       <c r="M74"/>
       <c r="N74"/>
       <c r="O74"/>
       <c r="P74"/>
       <c r="Q74"/>
-      <c r="R74" t="n">
-        <v>1776.3</v>
-      </c>
-      <c r="S74" t="n">
-        <v>14.1</v>
-      </c>
+      <c r="R74"/>
+      <c r="S74"/>
       <c r="T74"/>
-      <c r="U74"/>
+      <c r="U74" t="n">
+        <v>55.8</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
@@ -4491,53 +3416,33 @@
         <v>2021</v>
       </c>
       <c r="D75" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E75" t="n">
         <v>19</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
-      <c r="J75" t="n">
-        <v>40</v>
-      </c>
-      <c r="K75" t="s">
-        <v>27</v>
-      </c>
-      <c r="L75" t="s">
-        <v>25</v>
-      </c>
-      <c r="M75" t="n">
-        <v>32</v>
-      </c>
-      <c r="N75" t="n">
-        <v>1</v>
-      </c>
-      <c r="O75" t="n">
-        <v>20.63</v>
-      </c>
-      <c r="P75" t="n">
-        <v>45.57</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="R75" t="n">
-        <v>2050.7</v>
-      </c>
-      <c r="S75" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="T75" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75" t="n">
+        <v>55.2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
@@ -4550,53 +3455,33 @@
         <v>2021</v>
       </c>
       <c r="D76" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E76" t="n">
         <v>19</v>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G76" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H76"/>
       <c r="I76"/>
-      <c r="J76" t="n">
-        <v>43</v>
-      </c>
-      <c r="K76" t="s">
-        <v>27</v>
-      </c>
-      <c r="L76" t="s">
-        <v>25</v>
-      </c>
-      <c r="M76" t="n">
-        <v>32</v>
-      </c>
-      <c r="N76" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O76" t="n">
-        <v>20.56</v>
-      </c>
-      <c r="P76" t="n">
-        <v>45.84</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>66.4</v>
-      </c>
-      <c r="R76" t="n">
-        <v>2304.5</v>
-      </c>
-      <c r="S76" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="T76" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76" t="n">
+        <v>55.8</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
@@ -4609,43 +3494,33 @@
         <v>2021</v>
       </c>
       <c r="D77" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E77" t="n">
         <v>19</v>
       </c>
       <c r="F77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G77" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77"/>
-      <c r="K77" t="s">
-        <v>27</v>
-      </c>
+      <c r="K77"/>
       <c r="L77"/>
       <c r="M77"/>
       <c r="N77"/>
-      <c r="O77" t="n">
-        <v>21.44</v>
-      </c>
-      <c r="P77" t="n">
-        <v>44.36</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="R77" t="n">
-        <v>2234</v>
-      </c>
-      <c r="S77" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
       <c r="T77"/>
-      <c r="U77"/>
+      <c r="U77" t="n">
+        <v>55.1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
@@ -4658,37 +3533,33 @@
         <v>2021</v>
       </c>
       <c r="D78" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E78" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78"/>
-      <c r="K78" t="s">
-        <v>27</v>
-      </c>
+      <c r="K78"/>
       <c r="L78"/>
       <c r="M78"/>
       <c r="N78"/>
       <c r="O78"/>
       <c r="P78"/>
       <c r="Q78"/>
-      <c r="R78" t="n">
-        <v>1843.2</v>
-      </c>
-      <c r="S78" t="n">
-        <v>12.9</v>
-      </c>
+      <c r="R78"/>
+      <c r="S78"/>
       <c r="T78"/>
-      <c r="U78"/>
+      <c r="U78" t="n">
+        <v>56.4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -4701,53 +3572,33 @@
         <v>2021</v>
       </c>
       <c r="D79" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E79" t="n">
         <v>20</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H79"/>
       <c r="I79"/>
-      <c r="J79" t="n">
-        <v>46</v>
-      </c>
-      <c r="K79" t="s">
-        <v>24</v>
-      </c>
-      <c r="L79" t="s">
-        <v>32</v>
-      </c>
-      <c r="M79" t="n">
-        <v>44</v>
-      </c>
-      <c r="N79" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O79" t="n">
-        <v>21.79</v>
-      </c>
-      <c r="P79" t="n">
-        <v>43.47</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>65.26</v>
-      </c>
-      <c r="R79" t="n">
-        <v>1934.4</v>
-      </c>
-      <c r="S79" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="T79" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79" t="n">
+        <v>56.3</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
@@ -4760,53 +3611,33 @@
         <v>2021</v>
       </c>
       <c r="D80" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E80" t="n">
         <v>20</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="H80"/>
       <c r="I80"/>
-      <c r="J80" t="n">
-        <v>47</v>
-      </c>
-      <c r="K80" t="s">
-        <v>24</v>
-      </c>
-      <c r="L80" t="s">
-        <v>32</v>
-      </c>
-      <c r="M80" t="n">
-        <v>45</v>
-      </c>
-      <c r="N80" t="n">
-        <v>2</v>
-      </c>
-      <c r="O80" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="P80" t="n">
-        <v>42.84</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>65.06</v>
-      </c>
-      <c r="R80" t="n">
-        <v>1634.5</v>
-      </c>
-      <c r="S80" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="T80" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80" t="n">
+        <v>55.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
@@ -4819,86 +3650,4378 @@
         <v>2021</v>
       </c>
       <c r="D81" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E81" t="n">
         <v>20</v>
       </c>
       <c r="F81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G81" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H81"/>
       <c r="I81"/>
       <c r="J81"/>
-      <c r="K81" t="s">
-        <v>24</v>
-      </c>
+      <c r="K81"/>
       <c r="L81"/>
       <c r="M81"/>
       <c r="N81"/>
-      <c r="O81" t="n">
-        <v>21.11</v>
-      </c>
-      <c r="P81" t="n">
-        <v>43.74</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>64.85</v>
-      </c>
-      <c r="R81" t="n">
-        <v>1603.5</v>
-      </c>
-      <c r="S81" t="n">
-        <v>13.1</v>
-      </c>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
       <c r="T81"/>
-      <c r="U81"/>
+      <c r="U81" t="n">
+        <v>55.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C82" t="n">
         <v>2021</v>
       </c>
       <c r="D82" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E82" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="H82"/>
       <c r="I82"/>
-      <c r="J82"/>
+      <c r="J82" t="n">
+        <v>49</v>
+      </c>
       <c r="K82" t="s">
+        <v>44</v>
+      </c>
+      <c r="L82" t="s">
+        <v>45</v>
+      </c>
+      <c r="M82" t="n">
+        <v>35</v>
+      </c>
+      <c r="N82" t="n">
+        <v>2</v>
+      </c>
+      <c r="O82" t="n">
+        <v>20.38</v>
+      </c>
+      <c r="P82" t="n">
+        <v>48.18</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>68.56</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2005.4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U82" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D83" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2</v>
+      </c>
+      <c r="G83" t="n">
+        <v>37</v>
+      </c>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83" t="n">
+        <v>49</v>
+      </c>
+      <c r="K83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L83" t="s">
+        <v>45</v>
+      </c>
+      <c r="M83" t="n">
+        <v>37</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O83" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="P83" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>68.49</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2027.9</v>
+      </c>
+      <c r="S83" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U83" t="n">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D84" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>3</v>
+      </c>
+      <c r="G84" t="n">
+        <v>51</v>
+      </c>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="P84" t="n">
+        <v>49.28</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>68.27</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1828</v>
+      </c>
+      <c r="S84" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T84"/>
+      <c r="U84" t="n">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D85" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>4</v>
+      </c>
+      <c r="G85" t="n">
+        <v>62</v>
+      </c>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85" t="s">
+        <v>44</v>
+      </c>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85" t="n">
+        <v>1790.6</v>
+      </c>
+      <c r="S85" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="T85"/>
+      <c r="U85" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D86" t="s">
         <v>24</v>
       </c>
-      <c r="L82"/>
-      <c r="M82"/>
-      <c r="N82"/>
-      <c r="O82"/>
-      <c r="P82"/>
-      <c r="Q82"/>
-      <c r="R82" t="n">
+      <c r="E86" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>6</v>
+      </c>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86" t="n">
+        <v>46</v>
+      </c>
+      <c r="K86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L86" t="s">
+        <v>45</v>
+      </c>
+      <c r="M86" t="n">
+        <v>23</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+      <c r="O86" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="P86" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>68.26</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1545.5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>14</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U86" t="n">
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D87" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2</v>
+      </c>
+      <c r="G87" t="n">
+        <v>40</v>
+      </c>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87" t="n">
+        <v>44</v>
+      </c>
+      <c r="K87" t="s">
+        <v>46</v>
+      </c>
+      <c r="L87" t="s">
+        <v>45</v>
+      </c>
+      <c r="M87" t="n">
+        <v>22</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+      <c r="O87" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="P87" t="n">
+        <v>47.61</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1625.2</v>
+      </c>
+      <c r="S87" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U87" t="n">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3</v>
+      </c>
+      <c r="G88" t="n">
+        <v>53</v>
+      </c>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88" t="s">
+        <v>46</v>
+      </c>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88" t="n">
+        <v>20.77</v>
+      </c>
+      <c r="P88" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>67.47</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1285.1</v>
+      </c>
+      <c r="S88" t="n">
+        <v>13</v>
+      </c>
+      <c r="T88"/>
+      <c r="U88" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D89" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4</v>
+      </c>
+      <c r="G89" t="n">
+        <v>63</v>
+      </c>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89" t="s">
+        <v>46</v>
+      </c>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
+      <c r="R89" t="n">
+        <v>975.8</v>
+      </c>
+      <c r="S89" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="T89"/>
+      <c r="U89" t="n">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D90" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="n">
+        <v>15</v>
+      </c>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90" t="n">
+        <v>44</v>
+      </c>
+      <c r="K90" t="s">
+        <v>44</v>
+      </c>
+      <c r="L90" t="s">
+        <v>45</v>
+      </c>
+      <c r="M90" t="n">
+        <v>34</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+      <c r="O90" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="P90" t="n">
+        <v>46.97</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>67.03</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2456.2</v>
+      </c>
+      <c r="S90" t="n">
+        <v>14</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U90" t="n">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2</v>
+      </c>
+      <c r="G91" t="n">
+        <v>30</v>
+      </c>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91" t="n">
+        <v>43</v>
+      </c>
+      <c r="K91" t="s">
+        <v>44</v>
+      </c>
+      <c r="L91" t="s">
+        <v>45</v>
+      </c>
+      <c r="M91" t="n">
+        <v>35</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+      <c r="O91" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="P91" t="n">
+        <v>46.19</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2346.3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U91" t="n">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D92" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3</v>
+      </c>
+      <c r="F92" t="n">
+        <v>3</v>
+      </c>
+      <c r="G92" t="n">
+        <v>59</v>
+      </c>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92" t="s">
+        <v>44</v>
+      </c>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="P92" t="n">
+        <v>46.49</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>66.79</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1999.7</v>
+      </c>
+      <c r="S92" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="T92"/>
+      <c r="U92" t="n">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" t="n">
+        <v>4</v>
+      </c>
+      <c r="G93" t="n">
+        <v>77</v>
+      </c>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93" t="s">
+        <v>44</v>
+      </c>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93" t="n">
+        <v>1951.6</v>
+      </c>
+      <c r="S93" t="n">
+        <v>13</v>
+      </c>
+      <c r="T93"/>
+      <c r="U93" t="n">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D94" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" t="n">
+        <v>4</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="n">
+        <v>19</v>
+      </c>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94" t="n">
+        <v>45</v>
+      </c>
+      <c r="K94" t="s">
+        <v>44</v>
+      </c>
+      <c r="L94" t="s">
+        <v>45</v>
+      </c>
+      <c r="M94" t="n">
+        <v>32</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+      <c r="O94" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="P94" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>65.86</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2106.9</v>
+      </c>
+      <c r="S94" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U94" t="n">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D95" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2</v>
+      </c>
+      <c r="G95" t="n">
+        <v>33</v>
+      </c>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95" t="n">
+        <v>44</v>
+      </c>
+      <c r="K95" t="s">
+        <v>44</v>
+      </c>
+      <c r="L95" t="s">
+        <v>45</v>
+      </c>
+      <c r="M95" t="n">
+        <v>31</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+      <c r="O95" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="P95" t="n">
+        <v>46.22</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>66.02</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2183.9</v>
+      </c>
+      <c r="S95" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U95" t="n">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D96" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3</v>
+      </c>
+      <c r="G96" t="n">
+        <v>49</v>
+      </c>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96" t="s">
+        <v>44</v>
+      </c>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="P96" t="n">
+        <v>46.21</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>66.22</v>
+      </c>
+      <c r="R96" t="n">
+        <v>1855.2</v>
+      </c>
+      <c r="S96" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="T96"/>
+      <c r="U96" t="n">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D97" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4</v>
+      </c>
+      <c r="F97" t="n">
+        <v>4</v>
+      </c>
+      <c r="G97" t="n">
+        <v>79</v>
+      </c>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97" t="s">
+        <v>44</v>
+      </c>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97" t="n">
+        <v>1623.7</v>
+      </c>
+      <c r="S97" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="T97"/>
+      <c r="U97" t="n">
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D98" t="s">
+        <v>27</v>
+      </c>
+      <c r="E98" t="n">
+        <v>5</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="n">
+        <v>11</v>
+      </c>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98" t="n">
+        <v>48</v>
+      </c>
+      <c r="K98" t="s">
+        <v>47</v>
+      </c>
+      <c r="L98" t="s">
+        <v>48</v>
+      </c>
+      <c r="M98" t="n">
+        <v>41</v>
+      </c>
+      <c r="N98" t="n">
+        <v>2</v>
+      </c>
+      <c r="O98" t="n">
+        <v>20.64</v>
+      </c>
+      <c r="P98" t="n">
+        <v>45.83</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>66.47</v>
+      </c>
+      <c r="R98" t="n">
+        <v>1705.8</v>
+      </c>
+      <c r="S98" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U98" t="n">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D99" t="s">
+        <v>27</v>
+      </c>
+      <c r="E99" t="n">
+        <v>5</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2</v>
+      </c>
+      <c r="G99" t="n">
+        <v>34</v>
+      </c>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99" t="n">
+        <v>47</v>
+      </c>
+      <c r="K99" t="s">
+        <v>47</v>
+      </c>
+      <c r="L99" t="s">
+        <v>48</v>
+      </c>
+      <c r="M99" t="n">
+        <v>43</v>
+      </c>
+      <c r="N99" t="n">
+        <v>2</v>
+      </c>
+      <c r="O99" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="P99" t="n">
+        <v>46.61</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>67.21</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2139.9</v>
+      </c>
+      <c r="S99" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U99" t="n">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D100" t="s">
+        <v>27</v>
+      </c>
+      <c r="E100" t="n">
+        <v>5</v>
+      </c>
+      <c r="F100" t="n">
+        <v>3</v>
+      </c>
+      <c r="G100" t="n">
+        <v>52</v>
+      </c>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100" t="s">
+        <v>47</v>
+      </c>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="P100" t="n">
+        <v>45.25</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>66.39</v>
+      </c>
+      <c r="R100" t="n">
+        <v>1734.5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="T100"/>
+      <c r="U100" t="n">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D101" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" t="n">
+        <v>5</v>
+      </c>
+      <c r="F101" t="n">
+        <v>4</v>
+      </c>
+      <c r="G101" t="n">
+        <v>75</v>
+      </c>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101" t="s">
+        <v>47</v>
+      </c>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
+      <c r="R101" t="n">
+        <v>1762.5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="T101"/>
+      <c r="U101" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" t="s">
+        <v>43</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D102" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102" t="n">
+        <v>6</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2</v>
+      </c>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102" t="n">
+        <v>45</v>
+      </c>
+      <c r="K102" t="s">
+        <v>46</v>
+      </c>
+      <c r="L102" t="s">
+        <v>48</v>
+      </c>
+      <c r="M102" t="n">
+        <v>30</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O102" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="P102" t="n">
+        <v>44.17</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>65.03</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2124.7</v>
+      </c>
+      <c r="S102" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U102" t="n">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" t="s">
+        <v>43</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103" t="n">
+        <v>6</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2</v>
+      </c>
+      <c r="G103" t="n">
+        <v>21</v>
+      </c>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103" t="n">
+        <v>46</v>
+      </c>
+      <c r="K103" t="s">
+        <v>46</v>
+      </c>
+      <c r="L103" t="s">
+        <v>48</v>
+      </c>
+      <c r="M103" t="n">
+        <v>30</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+      <c r="O103" t="n">
+        <v>20.52</v>
+      </c>
+      <c r="P103" t="n">
+        <v>45.35</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>65.87</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2257.7</v>
+      </c>
+      <c r="S103" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U103" t="n">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" t="s">
+        <v>43</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D104" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" t="n">
+        <v>6</v>
+      </c>
+      <c r="F104" t="n">
+        <v>3</v>
+      </c>
+      <c r="G104" t="n">
+        <v>60</v>
+      </c>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104" t="s">
+        <v>46</v>
+      </c>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="P104" t="n">
+        <v>44.06</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>64.79</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2167.6</v>
+      </c>
+      <c r="S104" t="n">
+        <v>12</v>
+      </c>
+      <c r="T104"/>
+      <c r="U104" t="n">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" t="s">
+        <v>43</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D105" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" t="n">
+        <v>6</v>
+      </c>
+      <c r="F105" t="n">
+        <v>4</v>
+      </c>
+      <c r="G105" t="n">
+        <v>73</v>
+      </c>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105" t="s">
+        <v>46</v>
+      </c>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105"/>
+      <c r="Q105"/>
+      <c r="R105" t="n">
+        <v>1688.9</v>
+      </c>
+      <c r="S105" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="T105"/>
+      <c r="U105" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" t="s">
+        <v>43</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D106" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106" t="n">
+        <v>7</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="n">
+        <v>20</v>
+      </c>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106" t="n">
+        <v>48</v>
+      </c>
+      <c r="K106" t="s">
+        <v>46</v>
+      </c>
+      <c r="L106" t="s">
+        <v>48</v>
+      </c>
+      <c r="M106" t="n">
+        <v>31</v>
+      </c>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+      <c r="O106" t="n">
+        <v>19.63</v>
+      </c>
+      <c r="P106" t="n">
+        <v>47.53</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>67.16</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2333.7</v>
+      </c>
+      <c r="S106" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U106" t="n">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" t="s">
+        <v>43</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D107" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" t="n">
+        <v>7</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2</v>
+      </c>
+      <c r="G107" t="n">
+        <v>39</v>
+      </c>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107" t="n">
+        <v>48</v>
+      </c>
+      <c r="K107" t="s">
+        <v>46</v>
+      </c>
+      <c r="L107" t="s">
+        <v>48</v>
+      </c>
+      <c r="M107" t="n">
+        <v>30</v>
+      </c>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+      <c r="O107" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="P107" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>67.46</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2310.2</v>
+      </c>
+      <c r="S107" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U107" t="n">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" t="s">
+        <v>43</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D108" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108" t="n">
+        <v>7</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2</v>
+      </c>
+      <c r="G108" t="n">
+        <v>39</v>
+      </c>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108" t="n">
+        <v>48</v>
+      </c>
+      <c r="K108" t="s">
+        <v>46</v>
+      </c>
+      <c r="L108" t="s">
+        <v>48</v>
+      </c>
+      <c r="M108" t="n">
+        <v>30</v>
+      </c>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+      <c r="O108" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="P108" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>67.46</v>
+      </c>
+      <c r="R108" t="n">
+        <v>2310.2</v>
+      </c>
+      <c r="S108" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U108" t="n">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" t="s">
+        <v>43</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D109" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109" t="n">
+        <v>7</v>
+      </c>
+      <c r="F109" t="n">
+        <v>3</v>
+      </c>
+      <c r="G109" t="n">
+        <v>41</v>
+      </c>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109" t="s">
+        <v>46</v>
+      </c>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="P109" t="n">
+        <v>46.76</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>67.13</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2151.8</v>
+      </c>
+      <c r="S109" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="T109"/>
+      <c r="U109" t="n">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" t="s">
+        <v>43</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D110" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" t="n">
+        <v>7</v>
+      </c>
+      <c r="F110" t="n">
+        <v>4</v>
+      </c>
+      <c r="G110" t="n">
+        <v>61</v>
+      </c>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110" t="s">
+        <v>46</v>
+      </c>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+      <c r="Q110"/>
+      <c r="R110" t="n">
+        <v>2023.9</v>
+      </c>
+      <c r="S110" t="n">
+        <v>16</v>
+      </c>
+      <c r="T110"/>
+      <c r="U110" t="n">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D111" t="s">
+        <v>30</v>
+      </c>
+      <c r="E111" t="n">
+        <v>8</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" t="n">
+        <v>3</v>
+      </c>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111" t="n">
+        <v>46</v>
+      </c>
+      <c r="K111" t="s">
+        <v>44</v>
+      </c>
+      <c r="L111" t="s">
+        <v>45</v>
+      </c>
+      <c r="M111" t="n">
+        <v>36</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O111" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="P111" t="n">
+        <v>48.22</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>67.38</v>
+      </c>
+      <c r="R111" t="n">
+        <v>1734.3</v>
+      </c>
+      <c r="S111" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U111"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" t="s">
+        <v>43</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D112" t="s">
+        <v>30</v>
+      </c>
+      <c r="E112" t="n">
+        <v>8</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2</v>
+      </c>
+      <c r="G112" t="n">
+        <v>26</v>
+      </c>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112" t="n">
+        <v>48</v>
+      </c>
+      <c r="K112" t="s">
+        <v>44</v>
+      </c>
+      <c r="L112" t="s">
+        <v>45</v>
+      </c>
+      <c r="M112" t="n">
+        <v>33</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O112" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="P112" t="n">
+        <v>50.07</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>68.93</v>
+      </c>
+      <c r="R112" t="n">
+        <v>2225.5</v>
+      </c>
+      <c r="S112" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U112"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D113" t="s">
+        <v>30</v>
+      </c>
+      <c r="E113" t="n">
+        <v>8</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3</v>
+      </c>
+      <c r="G113" t="n">
+        <v>58</v>
+      </c>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113" t="s">
+        <v>44</v>
+      </c>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="P113" t="n">
+        <v>48.69</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>67.34</v>
+      </c>
+      <c r="R113" t="n">
+        <v>1861.2</v>
+      </c>
+      <c r="S113" t="n">
+        <v>13</v>
+      </c>
+      <c r="T113"/>
+      <c r="U113"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>21</v>
+      </c>
+      <c r="B114" t="s">
+        <v>43</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D114" t="s">
+        <v>30</v>
+      </c>
+      <c r="E114" t="n">
+        <v>8</v>
+      </c>
+      <c r="F114" t="n">
+        <v>4</v>
+      </c>
+      <c r="G114" t="n">
+        <v>72</v>
+      </c>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114" t="s">
+        <v>44</v>
+      </c>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
+      <c r="R114" t="n">
+        <v>1728.6</v>
+      </c>
+      <c r="S114" t="n">
+        <v>13</v>
+      </c>
+      <c r="T114"/>
+      <c r="U114"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" t="s">
+        <v>43</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D115" t="s">
+        <v>31</v>
+      </c>
+      <c r="E115" t="n">
+        <v>9</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" t="n">
+        <v>14</v>
+      </c>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115" t="n">
+        <v>53</v>
+      </c>
+      <c r="K115" t="s">
+        <v>46</v>
+      </c>
+      <c r="L115" t="s">
+        <v>48</v>
+      </c>
+      <c r="M115" t="n">
+        <v>63</v>
+      </c>
+      <c r="N115" t="n">
+        <v>2</v>
+      </c>
+      <c r="O115" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="P115" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>65.49</v>
+      </c>
+      <c r="R115" t="n">
+        <v>1686.4</v>
+      </c>
+      <c r="S115" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U115" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" t="s">
+        <v>43</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D116" t="s">
+        <v>31</v>
+      </c>
+      <c r="E116" t="n">
+        <v>9</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2</v>
+      </c>
+      <c r="G116" t="n">
+        <v>36</v>
+      </c>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116" t="n">
+        <v>51</v>
+      </c>
+      <c r="K116" t="s">
+        <v>46</v>
+      </c>
+      <c r="L116" t="s">
+        <v>48</v>
+      </c>
+      <c r="M116" t="n">
+        <v>60</v>
+      </c>
+      <c r="N116" t="n">
+        <v>2</v>
+      </c>
+      <c r="O116" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="P116" t="n">
+        <v>43.08</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>65.51</v>
+      </c>
+      <c r="R116" t="n">
+        <v>2202.5</v>
+      </c>
+      <c r="S116" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U116" t="n">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117" t="s">
+        <v>43</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D117" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117" t="n">
+        <v>9</v>
+      </c>
+      <c r="F117" t="n">
+        <v>3</v>
+      </c>
+      <c r="G117" t="n">
+        <v>46</v>
+      </c>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117" t="s">
+        <v>46</v>
+      </c>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="P117" t="n">
+        <v>43.57</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>65.9</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2063.4</v>
+      </c>
+      <c r="S117" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="T117"/>
+      <c r="U117" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" t="s">
+        <v>43</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D118" t="s">
+        <v>31</v>
+      </c>
+      <c r="E118" t="n">
+        <v>9</v>
+      </c>
+      <c r="F118" t="n">
+        <v>4</v>
+      </c>
+      <c r="G118" t="n">
+        <v>65</v>
+      </c>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118" t="s">
+        <v>46</v>
+      </c>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+      <c r="P118"/>
+      <c r="Q118"/>
+      <c r="R118" t="n">
+        <v>2196.4</v>
+      </c>
+      <c r="S118" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="T118"/>
+      <c r="U118" t="n">
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" t="s">
+        <v>43</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D119" t="s">
+        <v>32</v>
+      </c>
+      <c r="E119" t="n">
+        <v>10</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" t="n">
+        <v>12</v>
+      </c>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119" t="n">
+        <v>55</v>
+      </c>
+      <c r="K119" t="s">
+        <v>46</v>
+      </c>
+      <c r="L119" t="s">
+        <v>45</v>
+      </c>
+      <c r="M119" t="n">
+        <v>54</v>
+      </c>
+      <c r="N119" t="n">
+        <v>2</v>
+      </c>
+      <c r="O119" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="P119" t="n">
+        <v>43.82</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="R119" t="n">
+        <v>1236.4</v>
+      </c>
+      <c r="S119" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U119" t="n">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>21</v>
+      </c>
+      <c r="B120" t="s">
+        <v>43</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D120" t="s">
+        <v>32</v>
+      </c>
+      <c r="E120" t="n">
+        <v>10</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2</v>
+      </c>
+      <c r="G120" t="n">
+        <v>32</v>
+      </c>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120" t="n">
+        <v>53</v>
+      </c>
+      <c r="K120" t="s">
+        <v>46</v>
+      </c>
+      <c r="L120" t="s">
+        <v>45</v>
+      </c>
+      <c r="M120" t="n">
+        <v>57</v>
+      </c>
+      <c r="N120" t="n">
+        <v>2</v>
+      </c>
+      <c r="O120" t="n">
+        <v>21.31</v>
+      </c>
+      <c r="P120" t="n">
+        <v>44.88</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>66.19</v>
+      </c>
+      <c r="R120" t="n">
+        <v>1602.2</v>
+      </c>
+      <c r="S120" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="T120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U120" t="n">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" t="s">
+        <v>43</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D121" t="s">
+        <v>32</v>
+      </c>
+      <c r="E121" t="n">
+        <v>10</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3</v>
+      </c>
+      <c r="G121" t="n">
+        <v>54</v>
+      </c>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121" t="s">
+        <v>46</v>
+      </c>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121" t="n">
+        <v>21.78</v>
+      </c>
+      <c r="P121" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>66.83</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1479.5</v>
+      </c>
+      <c r="S121" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="T121"/>
+      <c r="U121" t="n">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" t="s">
+        <v>43</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D122" t="s">
+        <v>32</v>
+      </c>
+      <c r="E122" t="n">
+        <v>10</v>
+      </c>
+      <c r="F122" t="n">
+        <v>4</v>
+      </c>
+      <c r="G122" t="n">
+        <v>71</v>
+      </c>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122" t="s">
+        <v>46</v>
+      </c>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+      <c r="O122"/>
+      <c r="P122"/>
+      <c r="Q122"/>
+      <c r="R122" t="n">
+        <v>1159.9</v>
+      </c>
+      <c r="S122" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="T122"/>
+      <c r="U122" t="n">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" t="s">
+        <v>43</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D123" t="s">
+        <v>33</v>
+      </c>
+      <c r="E123" t="n">
+        <v>11</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" t="n">
+        <v>13</v>
+      </c>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123" t="n">
+        <v>56</v>
+      </c>
+      <c r="K123" t="s">
+        <v>44</v>
+      </c>
+      <c r="L123" t="s">
+        <v>45</v>
+      </c>
+      <c r="M123" t="n">
+        <v>44</v>
+      </c>
+      <c r="N123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O123" t="n">
+        <v>20.42</v>
+      </c>
+      <c r="P123" t="n">
+        <v>44.07</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>64.49</v>
+      </c>
+      <c r="R123" t="n">
+        <v>2205.1</v>
+      </c>
+      <c r="S123" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U123" t="n">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" t="s">
+        <v>43</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D124" t="s">
+        <v>33</v>
+      </c>
+      <c r="E124" t="n">
+        <v>11</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2</v>
+      </c>
+      <c r="G124" t="n">
+        <v>38</v>
+      </c>
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124" t="n">
+        <v>56</v>
+      </c>
+      <c r="K124" t="s">
+        <v>44</v>
+      </c>
+      <c r="L124" t="s">
+        <v>45</v>
+      </c>
+      <c r="M124" t="n">
+        <v>47</v>
+      </c>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+      <c r="O124" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="P124" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>65.16</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1819.5</v>
+      </c>
+      <c r="S124" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="T124" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U124" t="n">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" t="s">
+        <v>43</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D125" t="s">
+        <v>33</v>
+      </c>
+      <c r="E125" t="n">
+        <v>11</v>
+      </c>
+      <c r="F125" t="n">
+        <v>3</v>
+      </c>
+      <c r="G125" t="n">
+        <v>48</v>
+      </c>
+      <c r="H125"/>
+      <c r="I125"/>
+      <c r="J125"/>
+      <c r="K125" t="s">
+        <v>44</v>
+      </c>
+      <c r="L125"/>
+      <c r="M125"/>
+      <c r="N125"/>
+      <c r="O125" t="n">
+        <v>20.42</v>
+      </c>
+      <c r="P125" t="n">
+        <v>44.32</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>64.74</v>
+      </c>
+      <c r="R125" t="n">
+        <v>2006.8</v>
+      </c>
+      <c r="S125" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="T125"/>
+      <c r="U125" t="n">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126" t="s">
+        <v>43</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D126" t="s">
+        <v>33</v>
+      </c>
+      <c r="E126" t="n">
+        <v>11</v>
+      </c>
+      <c r="F126" t="n">
+        <v>4</v>
+      </c>
+      <c r="G126" t="n">
+        <v>68</v>
+      </c>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126" t="s">
+        <v>44</v>
+      </c>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="O126"/>
+      <c r="P126"/>
+      <c r="Q126"/>
+      <c r="R126" t="n">
+        <v>1634.6</v>
+      </c>
+      <c r="S126" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="T126"/>
+      <c r="U126"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" t="s">
+        <v>43</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D127" t="s">
+        <v>34</v>
+      </c>
+      <c r="E127" t="n">
+        <v>12</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>18</v>
+      </c>
+      <c r="H127"/>
+      <c r="I127" t="s">
+        <v>49</v>
+      </c>
+      <c r="J127" t="n">
+        <v>52</v>
+      </c>
+      <c r="K127" t="s">
+        <v>47</v>
+      </c>
+      <c r="L127" t="s">
+        <v>48</v>
+      </c>
+      <c r="M127" t="n">
+        <v>31</v>
+      </c>
+      <c r="N127" t="n">
+        <v>2</v>
+      </c>
+      <c r="O127" t="n">
+        <v>19.66</v>
+      </c>
+      <c r="P127" t="n">
+        <v>47.36</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>67.02</v>
+      </c>
+      <c r="R127" t="n">
+        <v>929.4</v>
+      </c>
+      <c r="S127" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T127" t="n">
+        <v>2</v>
+      </c>
+      <c r="U127"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" t="s">
+        <v>43</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D128" t="s">
+        <v>34</v>
+      </c>
+      <c r="E128" t="n">
+        <v>12</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2</v>
+      </c>
+      <c r="G128" t="n">
+        <v>23</v>
+      </c>
+      <c r="H128"/>
+      <c r="I128" t="s">
+        <v>49</v>
+      </c>
+      <c r="J128" t="n">
+        <v>51</v>
+      </c>
+      <c r="K128" t="s">
+        <v>47</v>
+      </c>
+      <c r="L128" t="s">
+        <v>48</v>
+      </c>
+      <c r="M128" t="n">
+        <v>31</v>
+      </c>
+      <c r="N128" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O128" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="P128" t="n">
+        <v>44.51</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>63.25</v>
+      </c>
+      <c r="R128" t="n">
+        <v>1006.5</v>
+      </c>
+      <c r="S128" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T128" t="n">
+        <v>2</v>
+      </c>
+      <c r="U128"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" t="s">
+        <v>43</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D129" t="s">
+        <v>34</v>
+      </c>
+      <c r="E129" t="n">
+        <v>12</v>
+      </c>
+      <c r="F129" t="n">
+        <v>3</v>
+      </c>
+      <c r="G129" t="n">
+        <v>50</v>
+      </c>
+      <c r="H129"/>
+      <c r="I129" t="s">
+        <v>49</v>
+      </c>
+      <c r="J129"/>
+      <c r="K129" t="s">
+        <v>47</v>
+      </c>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="O129" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="P129" t="n">
+        <v>48.01</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>67.84</v>
+      </c>
+      <c r="R129" t="n">
+        <v>1185.1</v>
+      </c>
+      <c r="S129" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T129"/>
+      <c r="U129"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" t="s">
+        <v>43</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D130" t="s">
+        <v>34</v>
+      </c>
+      <c r="E130" t="n">
+        <v>12</v>
+      </c>
+      <c r="F130" t="n">
+        <v>4</v>
+      </c>
+      <c r="G130" t="n">
+        <v>69</v>
+      </c>
+      <c r="H130"/>
+      <c r="I130" t="s">
+        <v>49</v>
+      </c>
+      <c r="J130"/>
+      <c r="K130" t="s">
+        <v>47</v>
+      </c>
+      <c r="L130"/>
+      <c r="M130"/>
+      <c r="N130"/>
+      <c r="O130"/>
+      <c r="P130"/>
+      <c r="Q130"/>
+      <c r="R130" t="n">
+        <v>659.8</v>
+      </c>
+      <c r="S130" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T130"/>
+      <c r="U130"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" t="s">
+        <v>43</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D131" t="s">
+        <v>35</v>
+      </c>
+      <c r="E131" t="n">
+        <v>13</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>5</v>
+      </c>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131" t="n">
+        <v>42</v>
+      </c>
+      <c r="K131" t="s">
+        <v>46</v>
+      </c>
+      <c r="L131" t="s">
+        <v>45</v>
+      </c>
+      <c r="M131" t="n">
+        <v>29</v>
+      </c>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+      <c r="O131" t="n">
+        <v>18.38</v>
+      </c>
+      <c r="P131" t="n">
+        <v>50.38</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>68.76</v>
+      </c>
+      <c r="R131" t="n">
+        <v>1774.7</v>
+      </c>
+      <c r="S131" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="T131" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U131"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" t="s">
+        <v>43</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D132" t="s">
+        <v>35</v>
+      </c>
+      <c r="E132" t="n">
+        <v>13</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2</v>
+      </c>
+      <c r="G132" t="n">
+        <v>24</v>
+      </c>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132" t="n">
+        <v>43</v>
+      </c>
+      <c r="K132" t="s">
+        <v>46</v>
+      </c>
+      <c r="L132" t="s">
+        <v>45</v>
+      </c>
+      <c r="M132" t="n">
+        <v>30</v>
+      </c>
+      <c r="N132" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O132" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="P132" t="n">
+        <v>51.44</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>69.66</v>
+      </c>
+      <c r="R132" t="n">
+        <v>1766.9</v>
+      </c>
+      <c r="S132" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U132"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>21</v>
+      </c>
+      <c r="B133" t="s">
+        <v>43</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D133" t="s">
+        <v>35</v>
+      </c>
+      <c r="E133" t="n">
+        <v>13</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3</v>
+      </c>
+      <c r="G133" t="n">
+        <v>55</v>
+      </c>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133" t="s">
+        <v>46</v>
+      </c>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="P133" t="n">
+        <v>51.99</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>70.07</v>
+      </c>
+      <c r="R133" t="n">
+        <v>1912.9</v>
+      </c>
+      <c r="S133" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="T133"/>
+      <c r="U133"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>21</v>
+      </c>
+      <c r="B134" t="s">
+        <v>43</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D134" t="s">
+        <v>35</v>
+      </c>
+      <c r="E134" t="n">
+        <v>13</v>
+      </c>
+      <c r="F134" t="n">
+        <v>4</v>
+      </c>
+      <c r="G134" t="n">
+        <v>76</v>
+      </c>
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134"/>
+      <c r="K134" t="s">
+        <v>46</v>
+      </c>
+      <c r="L134"/>
+      <c r="M134"/>
+      <c r="N134"/>
+      <c r="O134"/>
+      <c r="P134"/>
+      <c r="Q134"/>
+      <c r="R134" t="n">
+        <v>1720.8</v>
+      </c>
+      <c r="S134" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="T134"/>
+      <c r="U134"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" t="s">
+        <v>43</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D135" t="s">
+        <v>36</v>
+      </c>
+      <c r="E135" t="n">
+        <v>14</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>9</v>
+      </c>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135" t="n">
+        <v>48</v>
+      </c>
+      <c r="K135" t="s">
+        <v>46</v>
+      </c>
+      <c r="L135" t="s">
+        <v>45</v>
+      </c>
+      <c r="M135" t="n">
+        <v>41</v>
+      </c>
+      <c r="N135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O135" t="n">
+        <v>19.94</v>
+      </c>
+      <c r="P135" t="n">
+        <v>46.97</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>66.91</v>
+      </c>
+      <c r="R135" t="n">
+        <v>1412.9</v>
+      </c>
+      <c r="S135" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="T135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U135"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" t="s">
+        <v>43</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D136" t="s">
+        <v>36</v>
+      </c>
+      <c r="E136" t="n">
+        <v>14</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2</v>
+      </c>
+      <c r="G136" t="n">
+        <v>25</v>
+      </c>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136" t="n">
+        <v>49</v>
+      </c>
+      <c r="K136" t="s">
+        <v>46</v>
+      </c>
+      <c r="L136" t="s">
+        <v>45</v>
+      </c>
+      <c r="M136" t="n">
+        <v>39</v>
+      </c>
+      <c r="N136" t="n">
+        <v>2</v>
+      </c>
+      <c r="O136" t="n">
+        <v>19.72</v>
+      </c>
+      <c r="P136" t="n">
+        <v>46.88</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>66.6</v>
+      </c>
+      <c r="R136" t="n">
+        <v>2009.2</v>
+      </c>
+      <c r="S136" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="T136" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U136"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" t="s">
+        <v>43</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D137" t="s">
+        <v>36</v>
+      </c>
+      <c r="E137" t="n">
+        <v>14</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3</v>
+      </c>
+      <c r="G137" t="n">
+        <v>47</v>
+      </c>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137" t="s">
+        <v>46</v>
+      </c>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="P137" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>66.84</v>
+      </c>
+      <c r="R137" t="n">
+        <v>2009.4</v>
+      </c>
+      <c r="S137" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="T137"/>
+      <c r="U137"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" t="s">
+        <v>43</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D138" t="s">
+        <v>36</v>
+      </c>
+      <c r="E138" t="n">
+        <v>14</v>
+      </c>
+      <c r="F138" t="n">
+        <v>4</v>
+      </c>
+      <c r="G138" t="n">
+        <v>66</v>
+      </c>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138" t="s">
+        <v>46</v>
+      </c>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138"/>
+      <c r="Q138"/>
+      <c r="R138" t="n">
+        <v>1732</v>
+      </c>
+      <c r="S138" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="T138"/>
+      <c r="U138"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139" t="s">
+        <v>43</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D139" t="s">
+        <v>37</v>
+      </c>
+      <c r="E139" t="n">
+        <v>15</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>17</v>
+      </c>
+      <c r="H139"/>
+      <c r="I139"/>
+      <c r="J139" t="n">
+        <v>47</v>
+      </c>
+      <c r="K139" t="s">
+        <v>44</v>
+      </c>
+      <c r="L139" t="s">
+        <v>45</v>
+      </c>
+      <c r="M139" t="n">
+        <v>36</v>
+      </c>
+      <c r="N139" t="n">
+        <v>2</v>
+      </c>
+      <c r="O139" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="P139" t="n">
+        <v>48.89</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>67.61</v>
+      </c>
+      <c r="R139" t="n">
+        <v>1864.6</v>
+      </c>
+      <c r="S139" t="n">
+        <v>15</v>
+      </c>
+      <c r="T139" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U139"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>21</v>
+      </c>
+      <c r="B140" t="s">
+        <v>43</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D140" t="s">
+        <v>37</v>
+      </c>
+      <c r="E140" t="n">
+        <v>15</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2</v>
+      </c>
+      <c r="G140" t="n">
+        <v>27</v>
+      </c>
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140" t="n">
+        <v>48</v>
+      </c>
+      <c r="K140" t="s">
+        <v>44</v>
+      </c>
+      <c r="L140" t="s">
+        <v>45</v>
+      </c>
+      <c r="M140" t="n">
+        <v>35</v>
+      </c>
+      <c r="N140" t="n">
+        <v>2</v>
+      </c>
+      <c r="O140" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="P140" t="n">
+        <v>49.55</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>68.09</v>
+      </c>
+      <c r="R140" t="n">
+        <v>2073.8</v>
+      </c>
+      <c r="S140" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="T140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U140"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>21</v>
+      </c>
+      <c r="B141" t="s">
+        <v>43</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D141" t="s">
+        <v>37</v>
+      </c>
+      <c r="E141" t="n">
+        <v>15</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3</v>
+      </c>
+      <c r="G141" t="n">
+        <v>42</v>
+      </c>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141" t="s">
+        <v>44</v>
+      </c>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141" t="n">
+        <v>18.36</v>
+      </c>
+      <c r="P141" t="n">
+        <v>48.78</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>67.14</v>
+      </c>
+      <c r="R141" t="n">
+        <v>1683</v>
+      </c>
+      <c r="S141" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="T141"/>
+      <c r="U141"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>21</v>
+      </c>
+      <c r="B142" t="s">
+        <v>43</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D142" t="s">
+        <v>37</v>
+      </c>
+      <c r="E142" t="n">
+        <v>15</v>
+      </c>
+      <c r="F142" t="n">
+        <v>4</v>
+      </c>
+      <c r="G142" t="n">
+        <v>70</v>
+      </c>
+      <c r="H142"/>
+      <c r="I142"/>
+      <c r="J142"/>
+      <c r="K142" t="s">
+        <v>44</v>
+      </c>
+      <c r="L142"/>
+      <c r="M142"/>
+      <c r="N142"/>
+      <c r="O142"/>
+      <c r="P142"/>
+      <c r="Q142"/>
+      <c r="R142" t="n">
+        <v>2206.1</v>
+      </c>
+      <c r="S142" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="T142"/>
+      <c r="U142"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143" t="s">
+        <v>43</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D143" t="s">
+        <v>38</v>
+      </c>
+      <c r="E143" t="n">
+        <v>16</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>8</v>
+      </c>
+      <c r="H143"/>
+      <c r="I143"/>
+      <c r="J143" t="n">
+        <v>50</v>
+      </c>
+      <c r="K143" t="s">
+        <v>46</v>
+      </c>
+      <c r="L143" t="s">
+        <v>48</v>
+      </c>
+      <c r="M143" t="n">
+        <v>42</v>
+      </c>
+      <c r="N143" t="n">
+        <v>2</v>
+      </c>
+      <c r="O143" t="n">
+        <v>20.31</v>
+      </c>
+      <c r="P143" t="n">
+        <v>46.52</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>66.83</v>
+      </c>
+      <c r="R143" t="n">
+        <v>1794.2</v>
+      </c>
+      <c r="S143" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="T143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U143"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>21</v>
+      </c>
+      <c r="B144" t="s">
+        <v>43</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D144" t="s">
+        <v>38</v>
+      </c>
+      <c r="E144" t="n">
+        <v>16</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2</v>
+      </c>
+      <c r="G144" t="n">
+        <v>28</v>
+      </c>
+      <c r="H144"/>
+      <c r="I144"/>
+      <c r="J144" t="n">
+        <v>49</v>
+      </c>
+      <c r="K144" t="s">
+        <v>46</v>
+      </c>
+      <c r="L144" t="s">
+        <v>48</v>
+      </c>
+      <c r="M144" t="n">
+        <v>41</v>
+      </c>
+      <c r="N144" t="n">
+        <v>2</v>
+      </c>
+      <c r="O144" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="P144" t="n">
+        <v>47.13</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>66.84</v>
+      </c>
+      <c r="R144" t="n">
+        <v>2102.2</v>
+      </c>
+      <c r="S144" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="T144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U144"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>21</v>
+      </c>
+      <c r="B145" t="s">
+        <v>43</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D145" t="s">
+        <v>38</v>
+      </c>
+      <c r="E145" t="n">
+        <v>16</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3</v>
+      </c>
+      <c r="G145" t="n">
+        <v>45</v>
+      </c>
+      <c r="H145"/>
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145" t="s">
+        <v>46</v>
+      </c>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="P145" t="n">
+        <v>47.79</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>66.71</v>
+      </c>
+      <c r="R145" t="n">
+        <v>1717.6</v>
+      </c>
+      <c r="S145" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="T145"/>
+      <c r="U145"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>21</v>
+      </c>
+      <c r="B146" t="s">
+        <v>43</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D146" t="s">
+        <v>38</v>
+      </c>
+      <c r="E146" t="n">
+        <v>16</v>
+      </c>
+      <c r="F146" t="n">
+        <v>4</v>
+      </c>
+      <c r="G146" t="n">
+        <v>64</v>
+      </c>
+      <c r="H146"/>
+      <c r="I146"/>
+      <c r="J146"/>
+      <c r="K146" t="s">
+        <v>46</v>
+      </c>
+      <c r="L146"/>
+      <c r="M146"/>
+      <c r="N146"/>
+      <c r="O146"/>
+      <c r="P146"/>
+      <c r="Q146"/>
+      <c r="R146" t="n">
+        <v>1773.4</v>
+      </c>
+      <c r="S146" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="T146"/>
+      <c r="U146"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>21</v>
+      </c>
+      <c r="B147" t="s">
+        <v>43</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D147" t="s">
+        <v>39</v>
+      </c>
+      <c r="E147" t="n">
+        <v>17</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>4</v>
+      </c>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147" t="n">
+        <v>48</v>
+      </c>
+      <c r="K147" t="s">
+        <v>46</v>
+      </c>
+      <c r="L147" t="s">
+        <v>48</v>
+      </c>
+      <c r="M147" t="n">
+        <v>30</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+      <c r="O147" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="P147" t="n">
+        <v>40.06</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="R147" t="n">
+        <v>2733.9</v>
+      </c>
+      <c r="S147" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="T147" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U147"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>21</v>
+      </c>
+      <c r="B148" t="s">
+        <v>43</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D148" t="s">
+        <v>39</v>
+      </c>
+      <c r="E148" t="n">
+        <v>17</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2</v>
+      </c>
+      <c r="G148" t="n">
+        <v>31</v>
+      </c>
+      <c r="H148"/>
+      <c r="I148"/>
+      <c r="J148" t="n">
+        <v>47</v>
+      </c>
+      <c r="K148" t="s">
+        <v>46</v>
+      </c>
+      <c r="L148" t="s">
+        <v>48</v>
+      </c>
+      <c r="M148" t="n">
+        <v>32</v>
+      </c>
+      <c r="N148"/>
+      <c r="O148" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="P148" t="n">
+        <v>40.91</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="R148" t="n">
+        <v>2557.8</v>
+      </c>
+      <c r="S148" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="T148" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U148"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>21</v>
+      </c>
+      <c r="B149" t="s">
+        <v>43</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D149" t="s">
+        <v>39</v>
+      </c>
+      <c r="E149" t="n">
+        <v>17</v>
+      </c>
+      <c r="F149" t="n">
+        <v>3</v>
+      </c>
+      <c r="G149" t="n">
+        <v>56</v>
+      </c>
+      <c r="H149"/>
+      <c r="I149"/>
+      <c r="J149"/>
+      <c r="K149" t="s">
+        <v>46</v>
+      </c>
+      <c r="L149"/>
+      <c r="M149"/>
+      <c r="N149"/>
+      <c r="O149" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="P149" t="n">
+        <v>40.95</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>63.53</v>
+      </c>
+      <c r="R149" t="n">
+        <v>2715.4</v>
+      </c>
+      <c r="S149" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="T149"/>
+      <c r="U149"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>21</v>
+      </c>
+      <c r="B150" t="s">
+        <v>43</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D150" t="s">
+        <v>39</v>
+      </c>
+      <c r="E150" t="n">
+        <v>17</v>
+      </c>
+      <c r="F150" t="n">
+        <v>4</v>
+      </c>
+      <c r="G150" t="n">
+        <v>74</v>
+      </c>
+      <c r="H150"/>
+      <c r="I150"/>
+      <c r="J150"/>
+      <c r="K150" t="s">
+        <v>46</v>
+      </c>
+      <c r="L150"/>
+      <c r="M150"/>
+      <c r="N150"/>
+      <c r="O150"/>
+      <c r="P150"/>
+      <c r="Q150"/>
+      <c r="R150" t="n">
+        <v>2398</v>
+      </c>
+      <c r="S150" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="T150"/>
+      <c r="U150"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>21</v>
+      </c>
+      <c r="B151" t="s">
+        <v>43</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D151" t="s">
+        <v>40</v>
+      </c>
+      <c r="E151" t="n">
+        <v>18</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>10</v>
+      </c>
+      <c r="H151"/>
+      <c r="I151"/>
+      <c r="J151" t="n">
+        <v>49</v>
+      </c>
+      <c r="K151" t="s">
+        <v>46</v>
+      </c>
+      <c r="L151" t="s">
+        <v>48</v>
+      </c>
+      <c r="M151" t="n">
+        <v>29</v>
+      </c>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+      <c r="O151" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="P151" t="n">
+        <v>40.58</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>63.43</v>
+      </c>
+      <c r="R151" t="n">
+        <v>2426.5</v>
+      </c>
+      <c r="S151" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="T151" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U151"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>21</v>
+      </c>
+      <c r="B152" t="s">
+        <v>43</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D152" t="s">
+        <v>40</v>
+      </c>
+      <c r="E152" t="n">
+        <v>18</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2</v>
+      </c>
+      <c r="G152" t="n">
+        <v>29</v>
+      </c>
+      <c r="H152"/>
+      <c r="I152"/>
+      <c r="J152" t="n">
+        <v>48</v>
+      </c>
+      <c r="K152" t="s">
+        <v>46</v>
+      </c>
+      <c r="L152" t="s">
+        <v>48</v>
+      </c>
+      <c r="M152" t="n">
+        <v>30</v>
+      </c>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+      <c r="O152" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="P152" t="n">
+        <v>41.33</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>64.47</v>
+      </c>
+      <c r="R152" t="n">
+        <v>1784.8</v>
+      </c>
+      <c r="S152" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="T152" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U152"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>21</v>
+      </c>
+      <c r="B153" t="s">
+        <v>43</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D153" t="s">
+        <v>40</v>
+      </c>
+      <c r="E153" t="n">
+        <v>18</v>
+      </c>
+      <c r="F153" t="n">
+        <v>3</v>
+      </c>
+      <c r="G153" t="n">
+        <v>44</v>
+      </c>
+      <c r="H153"/>
+      <c r="I153"/>
+      <c r="J153"/>
+      <c r="K153" t="s">
+        <v>46</v>
+      </c>
+      <c r="L153"/>
+      <c r="M153"/>
+      <c r="N153"/>
+      <c r="O153" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="P153" t="n">
+        <v>42.48</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>65.88</v>
+      </c>
+      <c r="R153" t="n">
+        <v>2270</v>
+      </c>
+      <c r="S153" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="T153"/>
+      <c r="U153"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>21</v>
+      </c>
+      <c r="B154" t="s">
+        <v>43</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D154" t="s">
+        <v>40</v>
+      </c>
+      <c r="E154" t="n">
+        <v>18</v>
+      </c>
+      <c r="F154" t="n">
+        <v>4</v>
+      </c>
+      <c r="G154" t="n">
+        <v>78</v>
+      </c>
+      <c r="H154"/>
+      <c r="I154"/>
+      <c r="J154"/>
+      <c r="K154" t="s">
+        <v>46</v>
+      </c>
+      <c r="L154"/>
+      <c r="M154"/>
+      <c r="N154"/>
+      <c r="O154"/>
+      <c r="P154"/>
+      <c r="Q154"/>
+      <c r="R154" t="n">
+        <v>1776.3</v>
+      </c>
+      <c r="S154" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="T154"/>
+      <c r="U154"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>21</v>
+      </c>
+      <c r="B155" t="s">
+        <v>43</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D155" t="s">
+        <v>41</v>
+      </c>
+      <c r="E155" t="n">
+        <v>19</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+      <c r="H155"/>
+      <c r="I155"/>
+      <c r="J155" t="n">
+        <v>40</v>
+      </c>
+      <c r="K155" t="s">
+        <v>46</v>
+      </c>
+      <c r="L155" t="s">
+        <v>45</v>
+      </c>
+      <c r="M155" t="n">
+        <v>32</v>
+      </c>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+      <c r="O155" t="n">
+        <v>20.63</v>
+      </c>
+      <c r="P155" t="n">
+        <v>45.57</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="R155" t="n">
+        <v>2050.7</v>
+      </c>
+      <c r="S155" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="T155" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U155"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>21</v>
+      </c>
+      <c r="B156" t="s">
+        <v>43</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D156" t="s">
+        <v>41</v>
+      </c>
+      <c r="E156" t="n">
+        <v>19</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2</v>
+      </c>
+      <c r="G156" t="n">
+        <v>35</v>
+      </c>
+      <c r="H156"/>
+      <c r="I156"/>
+      <c r="J156" t="n">
+        <v>43</v>
+      </c>
+      <c r="K156" t="s">
+        <v>46</v>
+      </c>
+      <c r="L156" t="s">
+        <v>45</v>
+      </c>
+      <c r="M156" t="n">
+        <v>32</v>
+      </c>
+      <c r="N156" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O156" t="n">
+        <v>20.56</v>
+      </c>
+      <c r="P156" t="n">
+        <v>45.84</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>66.4</v>
+      </c>
+      <c r="R156" t="n">
+        <v>2304.5</v>
+      </c>
+      <c r="S156" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="T156" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U156"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>21</v>
+      </c>
+      <c r="B157" t="s">
+        <v>43</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D157" t="s">
+        <v>41</v>
+      </c>
+      <c r="E157" t="n">
+        <v>19</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3</v>
+      </c>
+      <c r="G157" t="n">
+        <v>57</v>
+      </c>
+      <c r="H157"/>
+      <c r="I157"/>
+      <c r="J157"/>
+      <c r="K157" t="s">
+        <v>46</v>
+      </c>
+      <c r="L157"/>
+      <c r="M157"/>
+      <c r="N157"/>
+      <c r="O157" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="P157" t="n">
+        <v>44.36</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="R157" t="n">
+        <v>2234</v>
+      </c>
+      <c r="S157" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="T157"/>
+      <c r="U157"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>21</v>
+      </c>
+      <c r="B158" t="s">
+        <v>43</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D158" t="s">
+        <v>41</v>
+      </c>
+      <c r="E158" t="n">
+        <v>19</v>
+      </c>
+      <c r="F158" t="n">
+        <v>4</v>
+      </c>
+      <c r="G158" t="n">
+        <v>80</v>
+      </c>
+      <c r="H158"/>
+      <c r="I158"/>
+      <c r="J158"/>
+      <c r="K158" t="s">
+        <v>46</v>
+      </c>
+      <c r="L158"/>
+      <c r="M158"/>
+      <c r="N158"/>
+      <c r="O158"/>
+      <c r="P158"/>
+      <c r="Q158"/>
+      <c r="R158" t="n">
+        <v>1843.2</v>
+      </c>
+      <c r="S158" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="T158"/>
+      <c r="U158"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>21</v>
+      </c>
+      <c r="B159" t="s">
+        <v>43</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D159" t="s">
+        <v>42</v>
+      </c>
+      <c r="E159" t="n">
+        <v>20</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>16</v>
+      </c>
+      <c r="H159"/>
+      <c r="I159"/>
+      <c r="J159" t="n">
+        <v>46</v>
+      </c>
+      <c r="K159" t="s">
+        <v>44</v>
+      </c>
+      <c r="L159" t="s">
+        <v>48</v>
+      </c>
+      <c r="M159" t="n">
+        <v>44</v>
+      </c>
+      <c r="N159" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O159" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="P159" t="n">
+        <v>43.47</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>65.26</v>
+      </c>
+      <c r="R159" t="n">
+        <v>1934.4</v>
+      </c>
+      <c r="S159" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="T159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U159"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>21</v>
+      </c>
+      <c r="B160" t="s">
+        <v>43</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D160" t="s">
+        <v>42</v>
+      </c>
+      <c r="E160" t="n">
+        <v>20</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2</v>
+      </c>
+      <c r="G160" t="n">
+        <v>22</v>
+      </c>
+      <c r="H160"/>
+      <c r="I160"/>
+      <c r="J160" t="n">
+        <v>47</v>
+      </c>
+      <c r="K160" t="s">
+        <v>44</v>
+      </c>
+      <c r="L160" t="s">
+        <v>48</v>
+      </c>
+      <c r="M160" t="n">
+        <v>45</v>
+      </c>
+      <c r="N160" t="n">
+        <v>2</v>
+      </c>
+      <c r="O160" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="P160" t="n">
+        <v>42.84</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>65.06</v>
+      </c>
+      <c r="R160" t="n">
+        <v>1634.5</v>
+      </c>
+      <c r="S160" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="T160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U160"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>21</v>
+      </c>
+      <c r="B161" t="s">
+        <v>43</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D161" t="s">
+        <v>42</v>
+      </c>
+      <c r="E161" t="n">
+        <v>20</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3</v>
+      </c>
+      <c r="G161" t="n">
+        <v>43</v>
+      </c>
+      <c r="H161"/>
+      <c r="I161"/>
+      <c r="J161"/>
+      <c r="K161" t="s">
+        <v>44</v>
+      </c>
+      <c r="L161"/>
+      <c r="M161"/>
+      <c r="N161"/>
+      <c r="O161" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="P161" t="n">
+        <v>43.74</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>64.85</v>
+      </c>
+      <c r="R161" t="n">
+        <v>1603.5</v>
+      </c>
+      <c r="S161" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="T161"/>
+      <c r="U161"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>21</v>
+      </c>
+      <c r="B162" t="s">
+        <v>43</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D162" t="s">
+        <v>42</v>
+      </c>
+      <c r="E162" t="n">
+        <v>20</v>
+      </c>
+      <c r="F162" t="n">
+        <v>4</v>
+      </c>
+      <c r="G162" t="n">
+        <v>67</v>
+      </c>
+      <c r="H162"/>
+      <c r="I162"/>
+      <c r="J162"/>
+      <c r="K162" t="s">
+        <v>44</v>
+      </c>
+      <c r="L162"/>
+      <c r="M162"/>
+      <c r="N162"/>
+      <c r="O162"/>
+      <c r="P162"/>
+      <c r="Q162"/>
+      <c r="R162" t="n">
         <v>1864.5</v>
       </c>
-      <c r="S82" t="n">
+      <c r="S162" t="n">
         <v>11.4</v>
       </c>
-      <c r="T82"/>
-      <c r="U82"/>
+      <c r="T162"/>
+      <c r="U162"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exports/yield_files/LO-HP 6.xlsx
+++ b/exports/yield_files/LO-HP 6.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">Test</t>
   </si>
@@ -86,7 +86,19 @@
     <t xml:space="preserve">N19-0076</t>
   </si>
   <si>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t</t>
+  </si>
+  <si>
     <t xml:space="preserve">N19-0269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
   </si>
   <si>
     <t xml:space="preserve">N19-0323</t>
@@ -98,7 +110,13 @@
     <t xml:space="preserve">N19-0435</t>
   </si>
   <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
     <t xml:space="preserve">N19-0672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P NL?</t>
   </si>
   <si>
     <t xml:space="preserve">N19-0676</t>
@@ -117,6 +135,9 @@
   </si>
   <si>
     <t xml:space="preserve">RM19-3863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mixed seed coat</t>
   </si>
   <si>
     <t xml:space="preserve">RM19-3867</t>
@@ -149,19 +170,13 @@
     <t xml:space="preserve">w</t>
   </si>
   <si>
-    <t xml:space="preserve">t</t>
-  </si>
-  <si>
     <t xml:space="preserve">p</t>
   </si>
   <si>
     <t xml:space="preserve">s</t>
   </si>
   <si>
-    <t xml:space="preserve">g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brown and yellow seeds</t>
+    <t xml:space="preserve">brown and yellow seedcoats</t>
   </si>
 </sst>
 </file>
@@ -582,17 +597,33 @@
       </c>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
+      <c r="J2" t="n">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="n">
+        <v>26</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
+      <c r="R2" t="n">
+        <v>1789.6</v>
+      </c>
+      <c r="S2" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U2" t="n">
         <v>58.5</v>
       </c>
@@ -621,17 +652,33 @@
       </c>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
+      <c r="J3" t="n">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="n">
+        <v>32</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
+      <c r="R3" t="n">
+        <v>1838</v>
+      </c>
+      <c r="S3" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U3" t="n">
         <v>57.4</v>
       </c>
@@ -661,15 +708,25 @@
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="n">
+        <v>38</v>
+      </c>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
+      <c r="R4" t="n">
+        <v>1827.2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>14.9</v>
+      </c>
       <c r="T4"/>
       <c r="U4" t="n">
         <v>57.4</v>
@@ -700,15 +757,23 @@
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
+      <c r="R5" t="n">
+        <v>2137.6</v>
+      </c>
+      <c r="S5" t="n">
+        <v>14.5</v>
+      </c>
       <c r="T5"/>
       <c r="U5" t="n">
         <v>57</v>
@@ -725,7 +790,7 @@
         <v>2021</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -738,17 +803,33 @@
       </c>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
+      <c r="J6" t="n">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="n">
+        <v>30</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
+      <c r="R6" t="n">
+        <v>1023.8</v>
+      </c>
+      <c r="S6" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U6" t="n">
         <v>57.5</v>
       </c>
@@ -764,7 +845,7 @@
         <v>2021</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -777,17 +858,33 @@
       </c>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
+      <c r="J7" t="n">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="n">
+        <v>34</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
+      <c r="R7" t="n">
+        <v>1258.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U7" t="n">
         <v>58.1</v>
       </c>
@@ -803,7 +900,7 @@
         <v>2021</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -817,15 +914,25 @@
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="n">
+        <v>32</v>
+      </c>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
+      <c r="R8" t="n">
+        <v>1265</v>
+      </c>
+      <c r="S8" t="n">
+        <v>12.1</v>
+      </c>
       <c r="T8"/>
       <c r="U8" t="n">
         <v>57.3</v>
@@ -842,7 +949,7 @@
         <v>2021</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -856,15 +963,23 @@
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
+      <c r="R9" t="n">
+        <v>579.2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>14</v>
+      </c>
       <c r="T9"/>
       <c r="U9" t="n">
         <v>58.3</v>
@@ -881,7 +996,7 @@
         <v>2021</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -894,17 +1009,33 @@
       </c>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
+      <c r="J10" t="n">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="n">
+        <v>26</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
+      <c r="R10" t="n">
+        <v>1738.7</v>
+      </c>
+      <c r="S10" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U10" t="n">
         <v>57.1</v>
       </c>
@@ -920,7 +1051,7 @@
         <v>2021</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -933,17 +1064,33 @@
       </c>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
+      <c r="J11" t="n">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="n">
+        <v>32</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
+      <c r="R11" t="n">
+        <v>2383.6</v>
+      </c>
+      <c r="S11" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U11" t="n">
         <v>57.6</v>
       </c>
@@ -959,7 +1106,7 @@
         <v>2021</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -973,15 +1120,25 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="n">
+        <v>30</v>
+      </c>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
+      <c r="R12" t="n">
+        <v>2229.6</v>
+      </c>
+      <c r="S12" t="n">
+        <v>14.1</v>
+      </c>
       <c r="T12"/>
       <c r="U12" t="n">
         <v>57.3</v>
@@ -998,7 +1155,7 @@
         <v>2021</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -1012,15 +1169,23 @@
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
+      <c r="R13" t="n">
+        <v>1943.9</v>
+      </c>
+      <c r="S13" t="n">
+        <v>14.1</v>
+      </c>
       <c r="T13"/>
       <c r="U13" t="n">
         <v>57.5</v>
@@ -1037,7 +1202,7 @@
         <v>2021</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1050,17 +1215,33 @@
       </c>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
+      <c r="J14" t="n">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="n">
+        <v>25</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
+      <c r="R14" t="n">
+        <v>1532.3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U14" t="n">
         <v>57.4</v>
       </c>
@@ -1076,7 +1257,7 @@
         <v>2021</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1089,17 +1270,33 @@
       </c>
       <c r="H15"/>
       <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
+      <c r="J15" t="n">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" t="n">
+        <v>32</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
+      <c r="R15" t="n">
+        <v>2175.9</v>
+      </c>
+      <c r="S15" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U15" t="n">
         <v>57.2</v>
       </c>
@@ -1115,7 +1312,7 @@
         <v>2021</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1129,15 +1326,25 @@
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
+      <c r="K16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" t="n">
+        <v>32</v>
+      </c>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
+      <c r="R16" t="n">
+        <v>1712.1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>13.7</v>
+      </c>
       <c r="T16"/>
       <c r="U16" t="n">
         <v>57.4</v>
@@ -1154,7 +1361,7 @@
         <v>2021</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1168,15 +1375,23 @@
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
+      <c r="K17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
+      <c r="R17" t="n">
+        <v>2316.1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>14.8</v>
+      </c>
       <c r="T17"/>
       <c r="U17" t="n">
         <v>57.1</v>
@@ -1193,7 +1408,7 @@
         <v>2021</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1206,17 +1421,33 @@
       </c>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
+      <c r="J18" t="n">
+        <v>22</v>
+      </c>
+      <c r="K18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" t="n">
+        <v>34</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
+      <c r="R18" t="n">
+        <v>2683.9</v>
+      </c>
+      <c r="S18" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U18" t="n">
         <v>57.4</v>
       </c>
@@ -1232,7 +1463,7 @@
         <v>2021</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1245,17 +1476,33 @@
       </c>
       <c r="H19"/>
       <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
+      <c r="J19" t="n">
+        <v>19</v>
+      </c>
+      <c r="K19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" t="n">
+        <v>24</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
+      <c r="R19" t="n">
+        <v>1750.1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U19" t="n">
         <v>56.9</v>
       </c>
@@ -1271,7 +1518,7 @@
         <v>2021</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1285,15 +1532,25 @@
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
+      <c r="K20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" t="n">
+        <v>37</v>
+      </c>
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
+      <c r="R20" t="n">
+        <v>2205.7</v>
+      </c>
+      <c r="S20" t="n">
+        <v>14.9</v>
+      </c>
       <c r="T20"/>
       <c r="U20" t="n">
         <v>56.6</v>
@@ -1310,7 +1567,7 @@
         <v>2021</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1324,15 +1581,23 @@
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
+      <c r="K21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" t="s">
+        <v>28</v>
+      </c>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
+      <c r="R21" t="n">
+        <v>1628.7</v>
+      </c>
+      <c r="S21" t="n">
+        <v>14.2</v>
+      </c>
       <c r="T21"/>
       <c r="U21" t="n">
         <v>57.1</v>
@@ -1349,7 +1614,7 @@
         <v>2021</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E22" t="n">
         <v>6</v>
@@ -1362,17 +1627,33 @@
       </c>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
+      <c r="J22" t="n">
+        <v>20</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" t="n">
+        <v>22</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
+      <c r="R22" t="n">
+        <v>1350.2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U22" t="n">
         <v>56.3</v>
       </c>
@@ -1388,7 +1669,7 @@
         <v>2021</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E23" t="n">
         <v>6</v>
@@ -1401,17 +1682,33 @@
       </c>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
+      <c r="J23" t="n">
+        <v>20</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" t="n">
+        <v>25</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
+      <c r="R23" t="n">
+        <v>1691.5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U23" t="n">
         <v>55.4</v>
       </c>
@@ -1427,7 +1724,7 @@
         <v>2021</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E24" t="n">
         <v>6</v>
@@ -1441,15 +1738,25 @@
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
+      <c r="K24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" t="n">
+        <v>15</v>
+      </c>
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
+      <c r="R24" t="n">
+        <v>1004.5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>11.9</v>
+      </c>
       <c r="T24"/>
       <c r="U24" t="n">
         <v>55.8</v>
@@ -1466,7 +1773,7 @@
         <v>2021</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E25" t="n">
         <v>6</v>
@@ -1480,15 +1787,23 @@
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
+        <v>28</v>
+      </c>
       <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
+      <c r="R25" t="n">
+        <v>1970.3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>11.8</v>
+      </c>
       <c r="T25"/>
       <c r="U25" t="n">
         <v>55.7</v>
@@ -1505,7 +1820,7 @@
         <v>2021</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
@@ -1518,17 +1833,33 @@
       </c>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
+      <c r="J26" t="n">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" t="n">
+        <v>26</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
+      <c r="R26" t="n">
+        <v>2003.7</v>
+      </c>
+      <c r="S26" t="n">
+        <v>16</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U26" t="n">
         <v>56</v>
       </c>
@@ -1544,7 +1875,7 @@
         <v>2021</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
@@ -1557,17 +1888,33 @@
       </c>
       <c r="H27"/>
       <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
+      <c r="J27" t="n">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" t="n">
+        <v>31</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
+      <c r="R27" t="n">
+        <v>2022.9</v>
+      </c>
+      <c r="S27" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U27" t="n">
         <v>55</v>
       </c>
@@ -1583,7 +1930,7 @@
         <v>2021</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -1597,15 +1944,25 @@
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
+      <c r="K28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" t="n">
+        <v>24</v>
+      </c>
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
+      <c r="R28" t="n">
+        <v>1467.6</v>
+      </c>
+      <c r="S28" t="n">
+        <v>14.7</v>
+      </c>
       <c r="T28"/>
       <c r="U28" t="n">
         <v>55.7</v>
@@ -1622,7 +1979,7 @@
         <v>2021</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -1636,15 +1993,23 @@
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
+      <c r="K29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s">
+        <v>28</v>
+      </c>
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
+      <c r="R29" t="n">
+        <v>2229.2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>16</v>
+      </c>
       <c r="T29"/>
       <c r="U29" t="n">
         <v>54.7</v>
@@ -1661,7 +2026,7 @@
         <v>2021</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -1674,17 +2039,33 @@
       </c>
       <c r="H30"/>
       <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
+      <c r="J30" t="n">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" t="n">
+        <v>34</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O30"/>
       <c r="P30"/>
       <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
+      <c r="R30" t="n">
+        <v>1958.4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U30" t="n">
         <v>56.7</v>
       </c>
@@ -1700,7 +2081,7 @@
         <v>2021</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -1713,17 +2094,33 @@
       </c>
       <c r="H31"/>
       <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
+      <c r="J31" t="n">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" t="n">
+        <v>36</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
+      <c r="R31" t="n">
+        <v>1817.9</v>
+      </c>
+      <c r="S31" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U31" t="n">
         <v>55.9</v>
       </c>
@@ -1739,7 +2136,7 @@
         <v>2021</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -1753,15 +2150,25 @@
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
+      <c r="K32" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" t="n">
+        <v>40</v>
+      </c>
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
+      <c r="R32" t="n">
+        <v>2258.7</v>
+      </c>
+      <c r="S32" t="n">
+        <v>14.6</v>
+      </c>
       <c r="T32"/>
       <c r="U32" t="n">
         <v>55.8</v>
@@ -1778,7 +2185,7 @@
         <v>2021</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -1792,15 +2199,23 @@
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
+      <c r="K33" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" t="s">
+        <v>25</v>
+      </c>
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
+      <c r="R33" t="n">
+        <v>2026.9</v>
+      </c>
+      <c r="S33" t="n">
+        <v>13.6</v>
+      </c>
       <c r="T33"/>
       <c r="U33" t="n">
         <v>56.5</v>
@@ -1817,7 +2232,7 @@
         <v>2021</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -1830,17 +2245,33 @@
       </c>
       <c r="H34"/>
       <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
+      <c r="J34" t="n">
+        <v>25</v>
+      </c>
+      <c r="K34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" t="n">
+        <v>30</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
+      <c r="R34" t="n">
+        <v>2183</v>
+      </c>
+      <c r="S34" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U34" t="n">
         <v>56</v>
       </c>
@@ -1856,7 +2287,7 @@
         <v>2021</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -1869,17 +2300,33 @@
       </c>
       <c r="H35"/>
       <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
+      <c r="J35" t="n">
+        <v>26</v>
+      </c>
+      <c r="K35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" t="n">
+        <v>46</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
+      <c r="R35" t="n">
+        <v>2375.4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>15</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U35" t="n">
         <v>55.9</v>
       </c>
@@ -1895,7 +2342,7 @@
         <v>2021</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -1909,15 +2356,25 @@
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
+      <c r="K36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" t="n">
+        <v>40</v>
+      </c>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
+      <c r="R36" t="n">
+        <v>1989.4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>13.6</v>
+      </c>
       <c r="T36"/>
       <c r="U36" t="n">
         <v>55.6</v>
@@ -1934,7 +2391,7 @@
         <v>2021</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -1948,15 +2405,23 @@
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
+      <c r="K37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" t="s">
+        <v>28</v>
+      </c>
       <c r="M37"/>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
-      <c r="R37"/>
-      <c r="S37"/>
+      <c r="R37" t="n">
+        <v>1827.4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>13.6</v>
+      </c>
       <c r="T37"/>
       <c r="U37" t="n">
         <v>56</v>
@@ -1973,7 +2438,7 @@
         <v>2021</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -1986,17 +2451,33 @@
       </c>
       <c r="H38"/>
       <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
+      <c r="J38" t="n">
+        <v>28</v>
+      </c>
+      <c r="K38" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" t="n">
+        <v>34</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
+      <c r="R38" t="n">
+        <v>2171.7</v>
+      </c>
+      <c r="S38" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U38" t="n">
         <v>57.5</v>
       </c>
@@ -2012,7 +2493,7 @@
         <v>2021</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -2025,17 +2506,33 @@
       </c>
       <c r="H39"/>
       <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
+      <c r="J39" t="n">
+        <v>27</v>
+      </c>
+      <c r="K39" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" t="s">
+        <v>25</v>
+      </c>
+      <c r="M39" t="n">
+        <v>44</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
+      <c r="R39" t="n">
+        <v>2330.5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U39" t="n">
         <v>57.2</v>
       </c>
@@ -2051,7 +2548,7 @@
         <v>2021</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -2065,15 +2562,25 @@
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
+      <c r="K40" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" t="s">
+        <v>25</v>
+      </c>
+      <c r="M40" t="n">
+        <v>44</v>
+      </c>
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
+      <c r="R40" t="n">
+        <v>2162.7</v>
+      </c>
+      <c r="S40" t="n">
+        <v>16.2</v>
+      </c>
       <c r="T40"/>
       <c r="U40" t="n">
         <v>56.8</v>
@@ -2090,7 +2597,7 @@
         <v>2021</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -2104,15 +2611,23 @@
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
+      <c r="K41" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41" t="s">
+        <v>25</v>
+      </c>
       <c r="M41"/>
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
-      <c r="R41"/>
-      <c r="S41"/>
+      <c r="R41" t="n">
+        <v>1649.4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>16.2</v>
+      </c>
       <c r="T41"/>
       <c r="U41" t="n">
         <v>57.6</v>
@@ -2129,7 +2644,7 @@
         <v>2021</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E42" t="n">
         <v>11</v>
@@ -2142,17 +2657,33 @@
       </c>
       <c r="H42"/>
       <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
+      <c r="J42" t="n">
+        <v>30</v>
+      </c>
+      <c r="K42" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" t="n">
+        <v>26</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42"/>
-      <c r="R42"/>
-      <c r="S42"/>
-      <c r="T42"/>
+      <c r="R42" t="n">
+        <v>2094.8</v>
+      </c>
+      <c r="S42" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U42" t="n">
         <v>58.1</v>
       </c>
@@ -2168,7 +2699,7 @@
         <v>2021</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E43" t="n">
         <v>11</v>
@@ -2181,17 +2712,33 @@
       </c>
       <c r="H43"/>
       <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
+      <c r="J43" t="n">
+        <v>30</v>
+      </c>
+      <c r="K43" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" t="s">
+        <v>25</v>
+      </c>
+      <c r="M43" t="n">
+        <v>40</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43"/>
-      <c r="R43"/>
-      <c r="S43"/>
-      <c r="T43"/>
+      <c r="R43" t="n">
+        <v>2648.5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U43" t="n">
         <v>57.7</v>
       </c>
@@ -2207,7 +2754,7 @@
         <v>2021</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E44" t="n">
         <v>11</v>
@@ -2221,15 +2768,25 @@
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
+      <c r="K44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" t="n">
+        <v>30</v>
+      </c>
       <c r="N44"/>
       <c r="O44"/>
       <c r="P44"/>
       <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44"/>
+      <c r="R44" t="n">
+        <v>1887.1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>14.7</v>
+      </c>
       <c r="T44"/>
       <c r="U44" t="n">
         <v>57.6</v>
@@ -2246,7 +2803,7 @@
         <v>2021</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E45" t="n">
         <v>11</v>
@@ -2260,15 +2817,23 @@
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
+      <c r="K45" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" t="s">
+        <v>25</v>
+      </c>
       <c r="M45"/>
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
-      <c r="R45"/>
-      <c r="S45"/>
+      <c r="R45" t="n">
+        <v>2469.4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>15.5</v>
+      </c>
       <c r="T45"/>
       <c r="U45" t="n">
         <v>58</v>
@@ -2285,7 +2850,7 @@
         <v>2021</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E46" t="n">
         <v>12</v>
@@ -2297,18 +2862,36 @@
         <v>15</v>
       </c>
       <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
+      <c r="I46" t="s">
+        <v>41</v>
+      </c>
+      <c r="J46" t="n">
+        <v>21</v>
+      </c>
+      <c r="K46" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M46" t="n">
+        <v>24</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2</v>
+      </c>
       <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
+      <c r="R46" t="n">
+        <v>731.6</v>
+      </c>
+      <c r="S46" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U46" t="n">
         <v>58.9</v>
       </c>
@@ -2324,7 +2907,7 @@
         <v>2021</v>
       </c>
       <c r="D47" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E47" t="n">
         <v>12</v>
@@ -2336,18 +2919,36 @@
         <v>32</v>
       </c>
       <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
+      <c r="I47" t="s">
+        <v>41</v>
+      </c>
+      <c r="J47" t="n">
+        <v>20</v>
+      </c>
+      <c r="K47" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47" t="n">
+        <v>28</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
-      <c r="R47"/>
-      <c r="S47"/>
-      <c r="T47"/>
+      <c r="R47" t="n">
+        <v>889.6</v>
+      </c>
+      <c r="S47" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U47" t="n">
         <v>59.3</v>
       </c>
@@ -2363,7 +2964,7 @@
         <v>2021</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E48" t="n">
         <v>12</v>
@@ -2375,17 +2976,29 @@
         <v>41</v>
       </c>
       <c r="H48"/>
-      <c r="I48"/>
+      <c r="I48" t="s">
+        <v>41</v>
+      </c>
       <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
+      <c r="K48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M48" t="n">
+        <v>28</v>
+      </c>
       <c r="N48"/>
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
-      <c r="R48"/>
-      <c r="S48"/>
+      <c r="R48" t="n">
+        <v>894.7</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5.7</v>
+      </c>
       <c r="T48"/>
       <c r="U48" t="n">
         <v>59.9</v>
@@ -2402,7 +3015,7 @@
         <v>2021</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E49" t="n">
         <v>12</v>
@@ -2414,17 +3027,27 @@
         <v>79</v>
       </c>
       <c r="H49"/>
-      <c r="I49"/>
+      <c r="I49" t="s">
+        <v>41</v>
+      </c>
       <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
+      <c r="K49" t="s">
+        <v>32</v>
+      </c>
+      <c r="L49" t="s">
+        <v>28</v>
+      </c>
       <c r="M49"/>
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
-      <c r="R49"/>
-      <c r="S49"/>
+      <c r="R49" t="n">
+        <v>869.5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5.8</v>
+      </c>
       <c r="T49"/>
       <c r="U49" t="n">
         <v>59.9</v>
@@ -2441,7 +3064,7 @@
         <v>2021</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -2454,17 +3077,33 @@
       </c>
       <c r="H50"/>
       <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
+      <c r="J50" t="n">
+        <v>18</v>
+      </c>
+      <c r="K50" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" t="s">
+        <v>25</v>
+      </c>
+      <c r="M50" t="n">
+        <v>33</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
       <c r="O50"/>
       <c r="P50"/>
       <c r="Q50"/>
-      <c r="R50"/>
-      <c r="S50"/>
-      <c r="T50"/>
+      <c r="R50" t="n">
+        <v>1280.7</v>
+      </c>
+      <c r="S50" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U50" t="n">
         <v>57</v>
       </c>
@@ -2480,7 +3119,7 @@
         <v>2021</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -2493,17 +3132,33 @@
       </c>
       <c r="H51"/>
       <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
+      <c r="J51" t="n">
+        <v>18</v>
+      </c>
+      <c r="K51" t="s">
+        <v>27</v>
+      </c>
+      <c r="L51" t="s">
+        <v>25</v>
+      </c>
+      <c r="M51" t="n">
+        <v>26</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O51"/>
       <c r="P51"/>
       <c r="Q51"/>
-      <c r="R51"/>
-      <c r="S51"/>
-      <c r="T51"/>
+      <c r="R51" t="n">
+        <v>1006.3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>16</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U51" t="n">
         <v>58.5</v>
       </c>
@@ -2519,7 +3174,7 @@
         <v>2021</v>
       </c>
       <c r="D52" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -2533,15 +3188,25 @@
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
+      <c r="K52" t="s">
+        <v>27</v>
+      </c>
+      <c r="L52" t="s">
+        <v>25</v>
+      </c>
+      <c r="M52" t="n">
+        <v>25</v>
+      </c>
       <c r="N52"/>
       <c r="O52"/>
       <c r="P52"/>
       <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
+      <c r="R52" t="n">
+        <v>664</v>
+      </c>
+      <c r="S52" t="n">
+        <v>15.5</v>
+      </c>
       <c r="T52"/>
       <c r="U52" t="n">
         <v>58.5</v>
@@ -2558,7 +3223,7 @@
         <v>2021</v>
       </c>
       <c r="D53" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -2572,15 +3237,23 @@
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
+      <c r="K53" t="s">
+        <v>27</v>
+      </c>
+      <c r="L53" t="s">
+        <v>25</v>
+      </c>
       <c r="M53"/>
       <c r="N53"/>
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
-      <c r="R53"/>
-      <c r="S53"/>
+      <c r="R53" t="n">
+        <v>1211.9</v>
+      </c>
+      <c r="S53" t="n">
+        <v>14.9</v>
+      </c>
       <c r="T53"/>
       <c r="U53" t="n">
         <v>58.4</v>
@@ -2597,7 +3270,7 @@
         <v>2021</v>
       </c>
       <c r="D54" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E54" t="n">
         <v>14</v>
@@ -2610,17 +3283,33 @@
       </c>
       <c r="H54"/>
       <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
+      <c r="J54" t="n">
+        <v>28</v>
+      </c>
+      <c r="K54" t="s">
+        <v>27</v>
+      </c>
+      <c r="L54" t="s">
+        <v>25</v>
+      </c>
+      <c r="M54" t="n">
+        <v>30</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O54"/>
       <c r="P54"/>
       <c r="Q54"/>
-      <c r="R54"/>
-      <c r="S54"/>
-      <c r="T54"/>
+      <c r="R54" t="n">
+        <v>1694.4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U54" t="n">
         <v>57.4</v>
       </c>
@@ -2636,7 +3325,7 @@
         <v>2021</v>
       </c>
       <c r="D55" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E55" t="n">
         <v>14</v>
@@ -2649,17 +3338,33 @@
       </c>
       <c r="H55"/>
       <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
+      <c r="J55" t="n">
+        <v>27</v>
+      </c>
+      <c r="K55" t="s">
+        <v>27</v>
+      </c>
+      <c r="L55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M55" t="n">
+        <v>35</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55"/>
-      <c r="R55"/>
-      <c r="S55"/>
-      <c r="T55"/>
+      <c r="R55" t="n">
+        <v>2452.6</v>
+      </c>
+      <c r="S55" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U55" t="n">
         <v>56.8</v>
       </c>
@@ -2675,7 +3380,7 @@
         <v>2021</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E56" t="n">
         <v>14</v>
@@ -2689,15 +3394,25 @@
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
+      <c r="K56" t="s">
+        <v>27</v>
+      </c>
+      <c r="L56" t="s">
+        <v>25</v>
+      </c>
+      <c r="M56" t="n">
+        <v>32</v>
+      </c>
       <c r="N56"/>
       <c r="O56"/>
       <c r="P56"/>
       <c r="Q56"/>
-      <c r="R56"/>
-      <c r="S56"/>
+      <c r="R56" t="n">
+        <v>2241.8</v>
+      </c>
+      <c r="S56" t="n">
+        <v>12.9</v>
+      </c>
       <c r="T56"/>
       <c r="U56" t="n">
         <v>56.9</v>
@@ -2714,7 +3429,7 @@
         <v>2021</v>
       </c>
       <c r="D57" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E57" t="n">
         <v>14</v>
@@ -2728,15 +3443,23 @@
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
+      <c r="K57" t="s">
+        <v>27</v>
+      </c>
+      <c r="L57" t="s">
+        <v>25</v>
+      </c>
       <c r="M57"/>
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57"/>
-      <c r="R57"/>
-      <c r="S57"/>
+      <c r="R57" t="n">
+        <v>2043.9</v>
+      </c>
+      <c r="S57" t="n">
+        <v>13.2</v>
+      </c>
       <c r="T57"/>
       <c r="U57" t="n">
         <v>56.7</v>
@@ -2753,7 +3476,7 @@
         <v>2021</v>
       </c>
       <c r="D58" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E58" t="n">
         <v>15</v>
@@ -2766,17 +3489,33 @@
       </c>
       <c r="H58"/>
       <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
+      <c r="J58" t="n">
+        <v>20</v>
+      </c>
+      <c r="K58" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" t="s">
+        <v>25</v>
+      </c>
+      <c r="M58" t="n">
+        <v>33</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O58"/>
       <c r="P58"/>
       <c r="Q58"/>
-      <c r="R58"/>
-      <c r="S58"/>
-      <c r="T58"/>
+      <c r="R58" t="n">
+        <v>2211.9</v>
+      </c>
+      <c r="S58" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U58" t="n">
         <v>56.5</v>
       </c>
@@ -2792,7 +3531,7 @@
         <v>2021</v>
       </c>
       <c r="D59" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E59" t="n">
         <v>15</v>
@@ -2805,17 +3544,33 @@
       </c>
       <c r="H59"/>
       <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
+      <c r="J59" t="n">
+        <v>20</v>
+      </c>
+      <c r="K59" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59" t="s">
+        <v>25</v>
+      </c>
+      <c r="M59" t="n">
+        <v>36</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O59"/>
       <c r="P59"/>
       <c r="Q59"/>
-      <c r="R59"/>
-      <c r="S59"/>
-      <c r="T59"/>
+      <c r="R59" t="n">
+        <v>2178.8</v>
+      </c>
+      <c r="S59" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U59" t="n">
         <v>56.3</v>
       </c>
@@ -2831,7 +3586,7 @@
         <v>2021</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E60" t="n">
         <v>15</v>
@@ -2845,15 +3600,25 @@
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
+      <c r="K60" t="s">
+        <v>24</v>
+      </c>
+      <c r="L60" t="s">
+        <v>25</v>
+      </c>
+      <c r="M60" t="n">
+        <v>31</v>
+      </c>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60"/>
-      <c r="R60"/>
-      <c r="S60"/>
+      <c r="R60" t="n">
+        <v>1570</v>
+      </c>
+      <c r="S60" t="n">
+        <v>12.9</v>
+      </c>
       <c r="T60"/>
       <c r="U60" t="n">
         <v>56.2</v>
@@ -2870,7 +3635,7 @@
         <v>2021</v>
       </c>
       <c r="D61" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E61" t="n">
         <v>15</v>
@@ -2884,15 +3649,23 @@
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
+      <c r="K61" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" t="s">
+        <v>25</v>
+      </c>
       <c r="M61"/>
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61"/>
       <c r="Q61"/>
-      <c r="R61"/>
-      <c r="S61"/>
+      <c r="R61" t="n">
+        <v>2310.3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>14.2</v>
+      </c>
       <c r="T61"/>
       <c r="U61" t="n">
         <v>56.1</v>
@@ -2909,7 +3682,7 @@
         <v>2021</v>
       </c>
       <c r="D62" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -2922,17 +3695,33 @@
       </c>
       <c r="H62"/>
       <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
+      <c r="J62" t="n">
+        <v>25</v>
+      </c>
+      <c r="K62" t="s">
+        <v>27</v>
+      </c>
+      <c r="L62" t="s">
+        <v>28</v>
+      </c>
+      <c r="M62" t="n">
+        <v>35</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
       <c r="O62"/>
       <c r="P62"/>
       <c r="Q62"/>
-      <c r="R62"/>
-      <c r="S62"/>
-      <c r="T62"/>
+      <c r="R62" t="n">
+        <v>1416</v>
+      </c>
+      <c r="S62" t="n">
+        <v>14</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1</v>
+      </c>
       <c r="U62" t="n">
         <v>58.5</v>
       </c>
@@ -2948,7 +3737,7 @@
         <v>2021</v>
       </c>
       <c r="D63" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -2961,17 +3750,33 @@
       </c>
       <c r="H63"/>
       <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
+      <c r="J63" t="n">
+        <v>20</v>
+      </c>
+      <c r="K63" t="s">
+        <v>27</v>
+      </c>
+      <c r="L63" t="s">
+        <v>28</v>
+      </c>
+      <c r="M63" t="n">
+        <v>37</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O63"/>
       <c r="P63"/>
       <c r="Q63"/>
-      <c r="R63"/>
-      <c r="S63"/>
-      <c r="T63"/>
+      <c r="R63" t="n">
+        <v>2102.4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1</v>
+      </c>
       <c r="U63" t="n">
         <v>57.9</v>
       </c>
@@ -2987,7 +3792,7 @@
         <v>2021</v>
       </c>
       <c r="D64" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -3001,15 +3806,25 @@
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
-      <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64"/>
+      <c r="K64" t="s">
+        <v>27</v>
+      </c>
+      <c r="L64" t="s">
+        <v>28</v>
+      </c>
+      <c r="M64" t="n">
+        <v>30</v>
+      </c>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
       <c r="Q64"/>
-      <c r="R64"/>
-      <c r="S64"/>
+      <c r="R64" t="n">
+        <v>1626.4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>12.5</v>
+      </c>
       <c r="T64"/>
       <c r="U64" t="n">
         <v>58.2</v>
@@ -3026,7 +3841,7 @@
         <v>2021</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -3040,15 +3855,23 @@
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
-      <c r="K65"/>
-      <c r="L65"/>
+      <c r="K65" t="s">
+        <v>27</v>
+      </c>
+      <c r="L65" t="s">
+        <v>28</v>
+      </c>
       <c r="M65"/>
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
       <c r="Q65"/>
-      <c r="R65"/>
-      <c r="S65"/>
+      <c r="R65" t="n">
+        <v>2227.4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>13.7</v>
+      </c>
       <c r="T65"/>
       <c r="U65" t="n">
         <v>57.7</v>
@@ -3065,7 +3888,7 @@
         <v>2021</v>
       </c>
       <c r="D66" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E66" t="n">
         <v>17</v>
@@ -3078,17 +3901,33 @@
       </c>
       <c r="H66"/>
       <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
+      <c r="J66" t="n">
+        <v>20</v>
+      </c>
+      <c r="K66" t="s">
+        <v>27</v>
+      </c>
+      <c r="L66" t="s">
+        <v>28</v>
+      </c>
+      <c r="M66" t="n">
+        <v>22</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
       <c r="O66"/>
       <c r="P66"/>
       <c r="Q66"/>
-      <c r="R66"/>
-      <c r="S66"/>
-      <c r="T66"/>
+      <c r="R66" t="n">
+        <v>1335</v>
+      </c>
+      <c r="S66" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U66" t="n">
         <v>54.1</v>
       </c>
@@ -3104,7 +3943,7 @@
         <v>2021</v>
       </c>
       <c r="D67" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E67" t="n">
         <v>17</v>
@@ -3117,17 +3956,33 @@
       </c>
       <c r="H67"/>
       <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
+      <c r="J67" t="n">
+        <v>21</v>
+      </c>
+      <c r="K67" t="s">
+        <v>27</v>
+      </c>
+      <c r="L67" t="s">
+        <v>28</v>
+      </c>
+      <c r="M67" t="n">
+        <v>24</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
       <c r="O67"/>
       <c r="P67"/>
       <c r="Q67"/>
-      <c r="R67"/>
-      <c r="S67"/>
-      <c r="T67"/>
+      <c r="R67" t="n">
+        <v>2289.9</v>
+      </c>
+      <c r="S67" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U67" t="n">
         <v>53.9</v>
       </c>
@@ -3143,7 +3998,7 @@
         <v>2021</v>
       </c>
       <c r="D68" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E68" t="n">
         <v>17</v>
@@ -3157,15 +4012,25 @@
       <c r="H68"/>
       <c r="I68"/>
       <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
+      <c r="K68" t="s">
+        <v>27</v>
+      </c>
+      <c r="L68" t="s">
+        <v>28</v>
+      </c>
+      <c r="M68" t="n">
+        <v>26</v>
+      </c>
       <c r="N68"/>
       <c r="O68"/>
       <c r="P68"/>
       <c r="Q68"/>
-      <c r="R68"/>
-      <c r="S68"/>
+      <c r="R68" t="n">
+        <v>2273.9</v>
+      </c>
+      <c r="S68" t="n">
+        <v>14.7</v>
+      </c>
       <c r="T68"/>
       <c r="U68" t="n">
         <v>53.6</v>
@@ -3182,7 +4047,7 @@
         <v>2021</v>
       </c>
       <c r="D69" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E69" t="n">
         <v>17</v>
@@ -3196,15 +4061,23 @@
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69"/>
+      <c r="K69" t="s">
+        <v>27</v>
+      </c>
+      <c r="L69" t="s">
+        <v>28</v>
+      </c>
       <c r="M69"/>
       <c r="N69"/>
       <c r="O69"/>
       <c r="P69"/>
       <c r="Q69"/>
-      <c r="R69"/>
-      <c r="S69"/>
+      <c r="R69" t="n">
+        <v>2380.4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>14.8</v>
+      </c>
       <c r="T69"/>
       <c r="U69" t="n">
         <v>54.7</v>
@@ -3221,7 +4094,7 @@
         <v>2021</v>
       </c>
       <c r="D70" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E70" t="n">
         <v>18</v>
@@ -3234,17 +4107,33 @@
       </c>
       <c r="H70"/>
       <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
+      <c r="J70" t="n">
+        <v>20</v>
+      </c>
+      <c r="K70" t="s">
+        <v>27</v>
+      </c>
+      <c r="L70" t="s">
+        <v>28</v>
+      </c>
+      <c r="M70" t="n">
+        <v>22</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O70"/>
       <c r="P70"/>
       <c r="Q70"/>
-      <c r="R70"/>
-      <c r="S70"/>
-      <c r="T70"/>
+      <c r="R70" t="n">
+        <v>1015.4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1</v>
+      </c>
       <c r="U70" t="n">
         <v>56.7</v>
       </c>
@@ -3260,7 +4149,7 @@
         <v>2021</v>
       </c>
       <c r="D71" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E71" t="n">
         <v>18</v>
@@ -3273,17 +4162,33 @@
       </c>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
+      <c r="J71" t="n">
+        <v>20</v>
+      </c>
+      <c r="K71" t="s">
+        <v>27</v>
+      </c>
+      <c r="L71" t="s">
+        <v>28</v>
+      </c>
+      <c r="M71" t="n">
+        <v>26</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
       <c r="O71"/>
       <c r="P71"/>
       <c r="Q71"/>
-      <c r="R71"/>
-      <c r="S71"/>
-      <c r="T71"/>
+      <c r="R71" t="n">
+        <v>1301.7</v>
+      </c>
+      <c r="S71" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1</v>
+      </c>
       <c r="U71" t="n">
         <v>56.2</v>
       </c>
@@ -3299,7 +4204,7 @@
         <v>2021</v>
       </c>
       <c r="D72" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E72" t="n">
         <v>18</v>
@@ -3313,15 +4218,25 @@
       <c r="H72"/>
       <c r="I72"/>
       <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
+      <c r="K72" t="s">
+        <v>27</v>
+      </c>
+      <c r="L72" t="s">
+        <v>28</v>
+      </c>
+      <c r="M72" t="n">
+        <v>26</v>
+      </c>
       <c r="N72"/>
       <c r="O72"/>
       <c r="P72"/>
       <c r="Q72"/>
-      <c r="R72"/>
-      <c r="S72"/>
+      <c r="R72" t="n">
+        <v>1776.7</v>
+      </c>
+      <c r="S72" t="n">
+        <v>14.7</v>
+      </c>
       <c r="T72"/>
       <c r="U72" t="n">
         <v>56</v>
@@ -3338,7 +4253,7 @@
         <v>2021</v>
       </c>
       <c r="D73" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E73" t="n">
         <v>18</v>
@@ -3352,15 +4267,23 @@
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73"/>
-      <c r="K73"/>
-      <c r="L73"/>
+      <c r="K73" t="s">
+        <v>27</v>
+      </c>
+      <c r="L73" t="s">
+        <v>28</v>
+      </c>
       <c r="M73"/>
       <c r="N73"/>
       <c r="O73"/>
       <c r="P73"/>
       <c r="Q73"/>
-      <c r="R73"/>
-      <c r="S73"/>
+      <c r="R73" t="n">
+        <v>2423.8</v>
+      </c>
+      <c r="S73" t="n">
+        <v>15.2</v>
+      </c>
       <c r="T73"/>
       <c r="U73" t="n">
         <v>55.6</v>
@@ -3377,7 +4300,7 @@
         <v>2021</v>
       </c>
       <c r="D74" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E74" t="n">
         <v>19</v>
@@ -3390,17 +4313,33 @@
       </c>
       <c r="H74"/>
       <c r="I74"/>
-      <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74"/>
-      <c r="M74"/>
-      <c r="N74"/>
+      <c r="J74" t="n">
+        <v>18</v>
+      </c>
+      <c r="K74" t="s">
+        <v>27</v>
+      </c>
+      <c r="L74" t="s">
+        <v>25</v>
+      </c>
+      <c r="M74" t="n">
+        <v>22</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O74"/>
       <c r="P74"/>
       <c r="Q74"/>
-      <c r="R74"/>
-      <c r="S74"/>
-      <c r="T74"/>
+      <c r="R74" t="n">
+        <v>911</v>
+      </c>
+      <c r="S74" t="n">
+        <v>14</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U74" t="n">
         <v>55.8</v>
       </c>
@@ -3416,7 +4355,7 @@
         <v>2021</v>
       </c>
       <c r="D75" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E75" t="n">
         <v>19</v>
@@ -3429,17 +4368,33 @@
       </c>
       <c r="H75"/>
       <c r="I75"/>
-      <c r="J75"/>
-      <c r="K75"/>
-      <c r="L75"/>
-      <c r="M75"/>
-      <c r="N75"/>
+      <c r="J75" t="n">
+        <v>18</v>
+      </c>
+      <c r="K75" t="s">
+        <v>27</v>
+      </c>
+      <c r="L75" t="s">
+        <v>25</v>
+      </c>
+      <c r="M75" t="n">
+        <v>30</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O75"/>
       <c r="P75"/>
       <c r="Q75"/>
-      <c r="R75"/>
-      <c r="S75"/>
-      <c r="T75"/>
+      <c r="R75" t="n">
+        <v>1141.7</v>
+      </c>
+      <c r="S75" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U75" t="n">
         <v>55.2</v>
       </c>
@@ -3455,7 +4410,7 @@
         <v>2021</v>
       </c>
       <c r="D76" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E76" t="n">
         <v>19</v>
@@ -3469,15 +4424,25 @@
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
+      <c r="K76" t="s">
+        <v>27</v>
+      </c>
+      <c r="L76" t="s">
+        <v>25</v>
+      </c>
+      <c r="M76" t="n">
+        <v>24</v>
+      </c>
       <c r="N76"/>
       <c r="O76"/>
       <c r="P76"/>
       <c r="Q76"/>
-      <c r="R76"/>
-      <c r="S76"/>
+      <c r="R76" t="n">
+        <v>976.1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>13.3</v>
+      </c>
       <c r="T76"/>
       <c r="U76" t="n">
         <v>55.8</v>
@@ -3494,7 +4459,7 @@
         <v>2021</v>
       </c>
       <c r="D77" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E77" t="n">
         <v>19</v>
@@ -3508,15 +4473,23 @@
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77"/>
-      <c r="K77"/>
-      <c r="L77"/>
+      <c r="K77" t="s">
+        <v>27</v>
+      </c>
+      <c r="L77" t="s">
+        <v>25</v>
+      </c>
       <c r="M77"/>
       <c r="N77"/>
       <c r="O77"/>
       <c r="P77"/>
       <c r="Q77"/>
-      <c r="R77"/>
-      <c r="S77"/>
+      <c r="R77" t="n">
+        <v>1548.3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>13.5</v>
+      </c>
       <c r="T77"/>
       <c r="U77" t="n">
         <v>55.1</v>
@@ -3533,7 +4506,7 @@
         <v>2021</v>
       </c>
       <c r="D78" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E78" t="n">
         <v>20</v>
@@ -3546,17 +4519,33 @@
       </c>
       <c r="H78"/>
       <c r="I78"/>
-      <c r="J78"/>
-      <c r="K78"/>
-      <c r="L78"/>
-      <c r="M78"/>
-      <c r="N78"/>
+      <c r="J78" t="n">
+        <v>22</v>
+      </c>
+      <c r="K78" t="s">
+        <v>24</v>
+      </c>
+      <c r="L78" t="s">
+        <v>28</v>
+      </c>
+      <c r="M78" t="n">
+        <v>27</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1</v>
+      </c>
       <c r="O78"/>
       <c r="P78"/>
       <c r="Q78"/>
-      <c r="R78"/>
-      <c r="S78"/>
-      <c r="T78"/>
+      <c r="R78" t="n">
+        <v>1716.2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U78" t="n">
         <v>56.4</v>
       </c>
@@ -3572,7 +4561,7 @@
         <v>2021</v>
       </c>
       <c r="D79" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E79" t="n">
         <v>20</v>
@@ -3585,17 +4574,33 @@
       </c>
       <c r="H79"/>
       <c r="I79"/>
-      <c r="J79"/>
-      <c r="K79"/>
-      <c r="L79"/>
-      <c r="M79"/>
-      <c r="N79"/>
+      <c r="J79" t="n">
+        <v>20</v>
+      </c>
+      <c r="K79" t="s">
+        <v>24</v>
+      </c>
+      <c r="L79" t="s">
+        <v>28</v>
+      </c>
+      <c r="M79" t="n">
+        <v>33</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
       <c r="O79"/>
       <c r="P79"/>
       <c r="Q79"/>
-      <c r="R79"/>
-      <c r="S79"/>
-      <c r="T79"/>
+      <c r="R79" t="n">
+        <v>1528.6</v>
+      </c>
+      <c r="S79" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U79" t="n">
         <v>56.3</v>
       </c>
@@ -3611,7 +4616,7 @@
         <v>2021</v>
       </c>
       <c r="D80" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E80" t="n">
         <v>20</v>
@@ -3625,15 +4630,25 @@
       <c r="H80"/>
       <c r="I80"/>
       <c r="J80"/>
-      <c r="K80"/>
-      <c r="L80"/>
-      <c r="M80"/>
+      <c r="K80" t="s">
+        <v>24</v>
+      </c>
+      <c r="L80" t="s">
+        <v>28</v>
+      </c>
+      <c r="M80" t="n">
+        <v>40</v>
+      </c>
       <c r="N80"/>
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80"/>
-      <c r="R80"/>
-      <c r="S80"/>
+      <c r="R80" t="n">
+        <v>1953.5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>13.6</v>
+      </c>
       <c r="T80"/>
       <c r="U80" t="n">
         <v>55.6</v>
@@ -3650,7 +4665,7 @@
         <v>2021</v>
       </c>
       <c r="D81" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E81" t="n">
         <v>20</v>
@@ -3664,15 +4679,23 @@
       <c r="H81"/>
       <c r="I81"/>
       <c r="J81"/>
-      <c r="K81"/>
-      <c r="L81"/>
+      <c r="K81" t="s">
+        <v>24</v>
+      </c>
+      <c r="L81" t="s">
+        <v>28</v>
+      </c>
       <c r="M81"/>
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
-      <c r="R81"/>
-      <c r="S81"/>
+      <c r="R81" t="n">
+        <v>1732.1</v>
+      </c>
+      <c r="S81" t="n">
+        <v>12.9</v>
+      </c>
       <c r="T81"/>
       <c r="U81" t="n">
         <v>55.6</v>
@@ -3683,7 +4706,7 @@
         <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C82" t="n">
         <v>2021</v>
@@ -3703,13 +4726,13 @@
       <c r="H82"/>
       <c r="I82"/>
       <c r="J82" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K82" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L82" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M82" t="n">
         <v>35</v>
@@ -3744,7 +4767,7 @@
         <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C83" t="n">
         <v>2021</v>
@@ -3764,13 +4787,13 @@
       <c r="H83"/>
       <c r="I83"/>
       <c r="J83" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K83" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L83" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M83" t="n">
         <v>37</v>
@@ -3805,7 +4828,7 @@
         <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C84" t="n">
         <v>2021</v>
@@ -3826,7 +4849,7 @@
       <c r="I84"/>
       <c r="J84"/>
       <c r="K84" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L84"/>
       <c r="M84"/>
@@ -3856,7 +4879,7 @@
         <v>21</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C85" t="n">
         <v>2021</v>
@@ -3877,7 +4900,7 @@
       <c r="I85"/>
       <c r="J85"/>
       <c r="K85" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L85"/>
       <c r="M85"/>
@@ -3901,13 +4924,13 @@
         <v>21</v>
       </c>
       <c r="B86" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C86" t="n">
         <v>2021</v>
       </c>
       <c r="D86" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E86" t="n">
         <v>2</v>
@@ -3921,13 +4944,13 @@
       <c r="H86"/>
       <c r="I86"/>
       <c r="J86" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K86" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L86" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M86" t="n">
         <v>23</v>
@@ -3962,13 +4985,13 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C87" t="n">
         <v>2021</v>
       </c>
       <c r="D87" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E87" t="n">
         <v>2</v>
@@ -3982,13 +5005,13 @@
       <c r="H87"/>
       <c r="I87"/>
       <c r="J87" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K87" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L87" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M87" t="n">
         <v>22</v>
@@ -4023,13 +5046,13 @@
         <v>21</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C88" t="n">
         <v>2021</v>
       </c>
       <c r="D88" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E88" t="n">
         <v>2</v>
@@ -4044,7 +5067,7 @@
       <c r="I88"/>
       <c r="J88"/>
       <c r="K88" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L88"/>
       <c r="M88"/>
@@ -4074,13 +5097,13 @@
         <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C89" t="n">
         <v>2021</v>
       </c>
       <c r="D89" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E89" t="n">
         <v>2</v>
@@ -4095,7 +5118,7 @@
       <c r="I89"/>
       <c r="J89"/>
       <c r="K89" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L89"/>
       <c r="M89"/>
@@ -4119,13 +5142,13 @@
         <v>21</v>
       </c>
       <c r="B90" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C90" t="n">
         <v>2021</v>
       </c>
       <c r="D90" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E90" t="n">
         <v>3</v>
@@ -4139,13 +5162,13 @@
       <c r="H90"/>
       <c r="I90"/>
       <c r="J90" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K90" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L90" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M90" t="n">
         <v>34</v>
@@ -4180,13 +5203,13 @@
         <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C91" t="n">
         <v>2021</v>
       </c>
       <c r="D91" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E91" t="n">
         <v>3</v>
@@ -4200,13 +5223,13 @@
       <c r="H91"/>
       <c r="I91"/>
       <c r="J91" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K91" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L91" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M91" t="n">
         <v>35</v>
@@ -4241,13 +5264,13 @@
         <v>21</v>
       </c>
       <c r="B92" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C92" t="n">
         <v>2021</v>
       </c>
       <c r="D92" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E92" t="n">
         <v>3</v>
@@ -4262,7 +5285,7 @@
       <c r="I92"/>
       <c r="J92"/>
       <c r="K92" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L92"/>
       <c r="M92"/>
@@ -4292,13 +5315,13 @@
         <v>21</v>
       </c>
       <c r="B93" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C93" t="n">
         <v>2021</v>
       </c>
       <c r="D93" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E93" t="n">
         <v>3</v>
@@ -4313,7 +5336,7 @@
       <c r="I93"/>
       <c r="J93"/>
       <c r="K93" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L93"/>
       <c r="M93"/>
@@ -4337,13 +5360,13 @@
         <v>21</v>
       </c>
       <c r="B94" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C94" t="n">
         <v>2021</v>
       </c>
       <c r="D94" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -4357,13 +5380,13 @@
       <c r="H94"/>
       <c r="I94"/>
       <c r="J94" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K94" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L94" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M94" t="n">
         <v>32</v>
@@ -4398,13 +5421,13 @@
         <v>21</v>
       </c>
       <c r="B95" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C95" t="n">
         <v>2021</v>
       </c>
       <c r="D95" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -4418,13 +5441,13 @@
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K95" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L95" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M95" t="n">
         <v>31</v>
@@ -4459,13 +5482,13 @@
         <v>21</v>
       </c>
       <c r="B96" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C96" t="n">
         <v>2021</v>
       </c>
       <c r="D96" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -4480,7 +5503,7 @@
       <c r="I96"/>
       <c r="J96"/>
       <c r="K96" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L96"/>
       <c r="M96"/>
@@ -4510,13 +5533,13 @@
         <v>21</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C97" t="n">
         <v>2021</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -4531,7 +5554,7 @@
       <c r="I97"/>
       <c r="J97"/>
       <c r="K97" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L97"/>
       <c r="M97"/>
@@ -4555,13 +5578,13 @@
         <v>21</v>
       </c>
       <c r="B98" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C98" t="n">
         <v>2021</v>
       </c>
       <c r="D98" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E98" t="n">
         <v>5</v>
@@ -4575,13 +5598,13 @@
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K98" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L98" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M98" t="n">
         <v>41</v>
@@ -4616,13 +5639,13 @@
         <v>21</v>
       </c>
       <c r="B99" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C99" t="n">
         <v>2021</v>
       </c>
       <c r="D99" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E99" t="n">
         <v>5</v>
@@ -4636,13 +5659,13 @@
       <c r="H99"/>
       <c r="I99"/>
       <c r="J99" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K99" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L99" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M99" t="n">
         <v>43</v>
@@ -4677,13 +5700,13 @@
         <v>21</v>
       </c>
       <c r="B100" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C100" t="n">
         <v>2021</v>
       </c>
       <c r="D100" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E100" t="n">
         <v>5</v>
@@ -4698,7 +5721,7 @@
       <c r="I100"/>
       <c r="J100"/>
       <c r="K100" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L100"/>
       <c r="M100"/>
@@ -4728,13 +5751,13 @@
         <v>21</v>
       </c>
       <c r="B101" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C101" t="n">
         <v>2021</v>
       </c>
       <c r="D101" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E101" t="n">
         <v>5</v>
@@ -4749,7 +5772,7 @@
       <c r="I101"/>
       <c r="J101"/>
       <c r="K101" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L101"/>
       <c r="M101"/>
@@ -4773,13 +5796,13 @@
         <v>21</v>
       </c>
       <c r="B102" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C102" t="n">
         <v>2021</v>
       </c>
       <c r="D102" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E102" t="n">
         <v>6</v>
@@ -4793,13 +5816,13 @@
       <c r="H102"/>
       <c r="I102"/>
       <c r="J102" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K102" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L102" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M102" t="n">
         <v>30</v>
@@ -4834,13 +5857,13 @@
         <v>21</v>
       </c>
       <c r="B103" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C103" t="n">
         <v>2021</v>
       </c>
       <c r="D103" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E103" t="n">
         <v>6</v>
@@ -4854,13 +5877,13 @@
       <c r="H103"/>
       <c r="I103"/>
       <c r="J103" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K103" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L103" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M103" t="n">
         <v>30</v>
@@ -4895,13 +5918,13 @@
         <v>21</v>
       </c>
       <c r="B104" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C104" t="n">
         <v>2021</v>
       </c>
       <c r="D104" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E104" t="n">
         <v>6</v>
@@ -4916,7 +5939,7 @@
       <c r="I104"/>
       <c r="J104"/>
       <c r="K104" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L104"/>
       <c r="M104"/>
@@ -4946,13 +5969,13 @@
         <v>21</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C105" t="n">
         <v>2021</v>
       </c>
       <c r="D105" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E105" t="n">
         <v>6</v>
@@ -4967,7 +5990,7 @@
       <c r="I105"/>
       <c r="J105"/>
       <c r="K105" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L105"/>
       <c r="M105"/>
@@ -4991,13 +6014,13 @@
         <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C106" t="n">
         <v>2021</v>
       </c>
       <c r="D106" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -5011,13 +6034,13 @@
       <c r="H106"/>
       <c r="I106"/>
       <c r="J106" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K106" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L106" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M106" t="n">
         <v>31</v>
@@ -5052,13 +6075,13 @@
         <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C107" t="n">
         <v>2021</v>
       </c>
       <c r="D107" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
@@ -5072,13 +6095,13 @@
       <c r="H107"/>
       <c r="I107"/>
       <c r="J107" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K107" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L107" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M107" t="n">
         <v>30</v>
@@ -5113,13 +6136,13 @@
         <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C108" t="n">
         <v>2021</v>
       </c>
       <c r="D108" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -5133,13 +6156,13 @@
       <c r="H108"/>
       <c r="I108"/>
       <c r="J108" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K108" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L108" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M108" t="n">
         <v>30</v>
@@ -5174,13 +6197,13 @@
         <v>21</v>
       </c>
       <c r="B109" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C109" t="n">
         <v>2021</v>
       </c>
       <c r="D109" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -5195,7 +6218,7 @@
       <c r="I109"/>
       <c r="J109"/>
       <c r="K109" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L109"/>
       <c r="M109"/>
@@ -5225,13 +6248,13 @@
         <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C110" t="n">
         <v>2021</v>
       </c>
       <c r="D110" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E110" t="n">
         <v>7</v>
@@ -5246,7 +6269,7 @@
       <c r="I110"/>
       <c r="J110"/>
       <c r="K110" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L110"/>
       <c r="M110"/>
@@ -5270,13 +6293,13 @@
         <v>21</v>
       </c>
       <c r="B111" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C111" t="n">
         <v>2021</v>
       </c>
       <c r="D111" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -5290,13 +6313,13 @@
       <c r="H111"/>
       <c r="I111"/>
       <c r="J111" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K111" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L111" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M111" t="n">
         <v>36</v>
@@ -5329,13 +6352,13 @@
         <v>21</v>
       </c>
       <c r="B112" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C112" t="n">
         <v>2021</v>
       </c>
       <c r="D112" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -5349,13 +6372,13 @@
       <c r="H112"/>
       <c r="I112"/>
       <c r="J112" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K112" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L112" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M112" t="n">
         <v>33</v>
@@ -5388,13 +6411,13 @@
         <v>21</v>
       </c>
       <c r="B113" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C113" t="n">
         <v>2021</v>
       </c>
       <c r="D113" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -5409,7 +6432,7 @@
       <c r="I113"/>
       <c r="J113"/>
       <c r="K113" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L113"/>
       <c r="M113"/>
@@ -5437,13 +6460,13 @@
         <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C114" t="n">
         <v>2021</v>
       </c>
       <c r="D114" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -5458,7 +6481,7 @@
       <c r="I114"/>
       <c r="J114"/>
       <c r="K114" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L114"/>
       <c r="M114"/>
@@ -5480,13 +6503,13 @@
         <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C115" t="n">
         <v>2021</v>
       </c>
       <c r="D115" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -5500,13 +6523,13 @@
       <c r="H115"/>
       <c r="I115"/>
       <c r="J115" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="K115" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L115" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M115" t="n">
         <v>63</v>
@@ -5541,13 +6564,13 @@
         <v>21</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C116" t="n">
         <v>2021</v>
       </c>
       <c r="D116" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E116" t="n">
         <v>9</v>
@@ -5561,13 +6584,13 @@
       <c r="H116"/>
       <c r="I116"/>
       <c r="J116" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="K116" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L116" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M116" t="n">
         <v>60</v>
@@ -5602,13 +6625,13 @@
         <v>21</v>
       </c>
       <c r="B117" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C117" t="n">
         <v>2021</v>
       </c>
       <c r="D117" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -5623,7 +6646,7 @@
       <c r="I117"/>
       <c r="J117"/>
       <c r="K117" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L117"/>
       <c r="M117"/>
@@ -5653,13 +6676,13 @@
         <v>21</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C118" t="n">
         <v>2021</v>
       </c>
       <c r="D118" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E118" t="n">
         <v>9</v>
@@ -5674,7 +6697,7 @@
       <c r="I118"/>
       <c r="J118"/>
       <c r="K118" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L118"/>
       <c r="M118"/>
@@ -5698,13 +6721,13 @@
         <v>21</v>
       </c>
       <c r="B119" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C119" t="n">
         <v>2021</v>
       </c>
       <c r="D119" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E119" t="n">
         <v>10</v>
@@ -5718,13 +6741,13 @@
       <c r="H119"/>
       <c r="I119"/>
       <c r="J119" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K119" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L119" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M119" t="n">
         <v>54</v>
@@ -5759,13 +6782,13 @@
         <v>21</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C120" t="n">
         <v>2021</v>
       </c>
       <c r="D120" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E120" t="n">
         <v>10</v>
@@ -5779,13 +6802,13 @@
       <c r="H120"/>
       <c r="I120"/>
       <c r="J120" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="K120" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L120" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M120" t="n">
         <v>57</v>
@@ -5820,13 +6843,13 @@
         <v>21</v>
       </c>
       <c r="B121" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C121" t="n">
         <v>2021</v>
       </c>
       <c r="D121" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E121" t="n">
         <v>10</v>
@@ -5841,7 +6864,7 @@
       <c r="I121"/>
       <c r="J121"/>
       <c r="K121" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L121"/>
       <c r="M121"/>
@@ -5871,13 +6894,13 @@
         <v>21</v>
       </c>
       <c r="B122" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C122" t="n">
         <v>2021</v>
       </c>
       <c r="D122" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E122" t="n">
         <v>10</v>
@@ -5892,7 +6915,7 @@
       <c r="I122"/>
       <c r="J122"/>
       <c r="K122" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L122"/>
       <c r="M122"/>
@@ -5916,13 +6939,13 @@
         <v>21</v>
       </c>
       <c r="B123" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C123" t="n">
         <v>2021</v>
       </c>
       <c r="D123" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E123" t="n">
         <v>11</v>
@@ -5936,13 +6959,13 @@
       <c r="H123"/>
       <c r="I123"/>
       <c r="J123" t="n">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="K123" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L123" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M123" t="n">
         <v>44</v>
@@ -5977,13 +7000,13 @@
         <v>21</v>
       </c>
       <c r="B124" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C124" t="n">
         <v>2021</v>
       </c>
       <c r="D124" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E124" t="n">
         <v>11</v>
@@ -5997,13 +7020,13 @@
       <c r="H124"/>
       <c r="I124"/>
       <c r="J124" t="n">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="K124" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L124" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M124" t="n">
         <v>47</v>
@@ -6038,13 +7061,13 @@
         <v>21</v>
       </c>
       <c r="B125" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C125" t="n">
         <v>2021</v>
       </c>
       <c r="D125" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E125" t="n">
         <v>11</v>
@@ -6059,7 +7082,7 @@
       <c r="I125"/>
       <c r="J125"/>
       <c r="K125" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L125"/>
       <c r="M125"/>
@@ -6089,13 +7112,13 @@
         <v>21</v>
       </c>
       <c r="B126" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C126" t="n">
         <v>2021</v>
       </c>
       <c r="D126" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E126" t="n">
         <v>11</v>
@@ -6110,7 +7133,7 @@
       <c r="I126"/>
       <c r="J126"/>
       <c r="K126" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L126"/>
       <c r="M126"/>
@@ -6132,13 +7155,13 @@
         <v>21</v>
       </c>
       <c r="B127" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C127" t="n">
         <v>2021</v>
       </c>
       <c r="D127" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E127" t="n">
         <v>12</v>
@@ -6151,16 +7174,16 @@
       </c>
       <c r="H127"/>
       <c r="I127" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J127" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="K127" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L127" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M127" t="n">
         <v>31</v>
@@ -6193,13 +7216,13 @@
         <v>21</v>
       </c>
       <c r="B128" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C128" t="n">
         <v>2021</v>
       </c>
       <c r="D128" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E128" t="n">
         <v>12</v>
@@ -6212,16 +7235,16 @@
       </c>
       <c r="H128"/>
       <c r="I128" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J128" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="K128" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L128" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M128" t="n">
         <v>31</v>
@@ -6254,13 +7277,13 @@
         <v>21</v>
       </c>
       <c r="B129" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C129" t="n">
         <v>2021</v>
       </c>
       <c r="D129" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E129" t="n">
         <v>12</v>
@@ -6273,11 +7296,11 @@
       </c>
       <c r="H129"/>
       <c r="I129" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J129"/>
       <c r="K129" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L129"/>
       <c r="M129"/>
@@ -6305,13 +7328,13 @@
         <v>21</v>
       </c>
       <c r="B130" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C130" t="n">
         <v>2021</v>
       </c>
       <c r="D130" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E130" t="n">
         <v>12</v>
@@ -6324,11 +7347,11 @@
       </c>
       <c r="H130"/>
       <c r="I130" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J130"/>
       <c r="K130" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L130"/>
       <c r="M130"/>
@@ -6350,13 +7373,13 @@
         <v>21</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C131" t="n">
         <v>2021</v>
       </c>
       <c r="D131" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -6370,13 +7393,13 @@
       <c r="H131"/>
       <c r="I131"/>
       <c r="J131" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="K131" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L131" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M131" t="n">
         <v>29</v>
@@ -6409,13 +7432,13 @@
         <v>21</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C132" t="n">
         <v>2021</v>
       </c>
       <c r="D132" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -6429,13 +7452,13 @@
       <c r="H132"/>
       <c r="I132"/>
       <c r="J132" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K132" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L132" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M132" t="n">
         <v>30</v>
@@ -6468,13 +7491,13 @@
         <v>21</v>
       </c>
       <c r="B133" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C133" t="n">
         <v>2021</v>
       </c>
       <c r="D133" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -6489,7 +7512,7 @@
       <c r="I133"/>
       <c r="J133"/>
       <c r="K133" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L133"/>
       <c r="M133"/>
@@ -6517,13 +7540,13 @@
         <v>21</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C134" t="n">
         <v>2021</v>
       </c>
       <c r="D134" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -6538,7 +7561,7 @@
       <c r="I134"/>
       <c r="J134"/>
       <c r="K134" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L134"/>
       <c r="M134"/>
@@ -6560,13 +7583,13 @@
         <v>21</v>
       </c>
       <c r="B135" t="s">
+        <v>50</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D135" t="s">
         <v>43</v>
-      </c>
-      <c r="C135" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D135" t="s">
-        <v>36</v>
       </c>
       <c r="E135" t="n">
         <v>14</v>
@@ -6580,13 +7603,13 @@
       <c r="H135"/>
       <c r="I135"/>
       <c r="J135" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K135" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L135" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M135" t="n">
         <v>41</v>
@@ -6619,13 +7642,13 @@
         <v>21</v>
       </c>
       <c r="B136" t="s">
+        <v>50</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D136" t="s">
         <v>43</v>
-      </c>
-      <c r="C136" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D136" t="s">
-        <v>36</v>
       </c>
       <c r="E136" t="n">
         <v>14</v>
@@ -6639,13 +7662,13 @@
       <c r="H136"/>
       <c r="I136"/>
       <c r="J136" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K136" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L136" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M136" t="n">
         <v>39</v>
@@ -6678,13 +7701,13 @@
         <v>21</v>
       </c>
       <c r="B137" t="s">
+        <v>50</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D137" t="s">
         <v>43</v>
-      </c>
-      <c r="C137" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D137" t="s">
-        <v>36</v>
       </c>
       <c r="E137" t="n">
         <v>14</v>
@@ -6699,7 +7722,7 @@
       <c r="I137"/>
       <c r="J137"/>
       <c r="K137" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L137"/>
       <c r="M137"/>
@@ -6727,13 +7750,13 @@
         <v>21</v>
       </c>
       <c r="B138" t="s">
+        <v>50</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D138" t="s">
         <v>43</v>
-      </c>
-      <c r="C138" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D138" t="s">
-        <v>36</v>
       </c>
       <c r="E138" t="n">
         <v>14</v>
@@ -6748,7 +7771,7 @@
       <c r="I138"/>
       <c r="J138"/>
       <c r="K138" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L138"/>
       <c r="M138"/>
@@ -6770,13 +7793,13 @@
         <v>21</v>
       </c>
       <c r="B139" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C139" t="n">
         <v>2021</v>
       </c>
       <c r="D139" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E139" t="n">
         <v>15</v>
@@ -6790,13 +7813,13 @@
       <c r="H139"/>
       <c r="I139"/>
       <c r="J139" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K139" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L139" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M139" t="n">
         <v>36</v>
@@ -6829,13 +7852,13 @@
         <v>21</v>
       </c>
       <c r="B140" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C140" t="n">
         <v>2021</v>
       </c>
       <c r="D140" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E140" t="n">
         <v>15</v>
@@ -6849,13 +7872,13 @@
       <c r="H140"/>
       <c r="I140"/>
       <c r="J140" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K140" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L140" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M140" t="n">
         <v>35</v>
@@ -6888,13 +7911,13 @@
         <v>21</v>
       </c>
       <c r="B141" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C141" t="n">
         <v>2021</v>
       </c>
       <c r="D141" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E141" t="n">
         <v>15</v>
@@ -6909,7 +7932,7 @@
       <c r="I141"/>
       <c r="J141"/>
       <c r="K141" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L141"/>
       <c r="M141"/>
@@ -6937,13 +7960,13 @@
         <v>21</v>
       </c>
       <c r="B142" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C142" t="n">
         <v>2021</v>
       </c>
       <c r="D142" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E142" t="n">
         <v>15</v>
@@ -6958,7 +7981,7 @@
       <c r="I142"/>
       <c r="J142"/>
       <c r="K142" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L142"/>
       <c r="M142"/>
@@ -6980,13 +8003,13 @@
         <v>21</v>
       </c>
       <c r="B143" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C143" t="n">
         <v>2021</v>
       </c>
       <c r="D143" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E143" t="n">
         <v>16</v>
@@ -7000,13 +8023,13 @@
       <c r="H143"/>
       <c r="I143"/>
       <c r="J143" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K143" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L143" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M143" t="n">
         <v>42</v>
@@ -7039,13 +8062,13 @@
         <v>21</v>
       </c>
       <c r="B144" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C144" t="n">
         <v>2021</v>
       </c>
       <c r="D144" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E144" t="n">
         <v>16</v>
@@ -7059,13 +8082,13 @@
       <c r="H144"/>
       <c r="I144"/>
       <c r="J144" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K144" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L144" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M144" t="n">
         <v>41</v>
@@ -7098,13 +8121,13 @@
         <v>21</v>
       </c>
       <c r="B145" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C145" t="n">
         <v>2021</v>
       </c>
       <c r="D145" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E145" t="n">
         <v>16</v>
@@ -7119,7 +8142,7 @@
       <c r="I145"/>
       <c r="J145"/>
       <c r="K145" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L145"/>
       <c r="M145"/>
@@ -7147,13 +8170,13 @@
         <v>21</v>
       </c>
       <c r="B146" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C146" t="n">
         <v>2021</v>
       </c>
       <c r="D146" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E146" t="n">
         <v>16</v>
@@ -7168,7 +8191,7 @@
       <c r="I146"/>
       <c r="J146"/>
       <c r="K146" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L146"/>
       <c r="M146"/>
@@ -7190,13 +8213,13 @@
         <v>21</v>
       </c>
       <c r="B147" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C147" t="n">
         <v>2021</v>
       </c>
       <c r="D147" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E147" t="n">
         <v>17</v>
@@ -7210,13 +8233,13 @@
       <c r="H147"/>
       <c r="I147"/>
       <c r="J147" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K147" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L147" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M147" t="n">
         <v>30</v>
@@ -7249,13 +8272,13 @@
         <v>21</v>
       </c>
       <c r="B148" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C148" t="n">
         <v>2021</v>
       </c>
       <c r="D148" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E148" t="n">
         <v>17</v>
@@ -7269,13 +8292,13 @@
       <c r="H148"/>
       <c r="I148"/>
       <c r="J148" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K148" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L148" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M148" t="n">
         <v>32</v>
@@ -7306,13 +8329,13 @@
         <v>21</v>
       </c>
       <c r="B149" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C149" t="n">
         <v>2021</v>
       </c>
       <c r="D149" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E149" t="n">
         <v>17</v>
@@ -7327,7 +8350,7 @@
       <c r="I149"/>
       <c r="J149"/>
       <c r="K149" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L149"/>
       <c r="M149"/>
@@ -7355,13 +8378,13 @@
         <v>21</v>
       </c>
       <c r="B150" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C150" t="n">
         <v>2021</v>
       </c>
       <c r="D150" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E150" t="n">
         <v>17</v>
@@ -7376,7 +8399,7 @@
       <c r="I150"/>
       <c r="J150"/>
       <c r="K150" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L150"/>
       <c r="M150"/>
@@ -7398,13 +8421,13 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C151" t="n">
         <v>2021</v>
       </c>
       <c r="D151" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E151" t="n">
         <v>18</v>
@@ -7418,13 +8441,13 @@
       <c r="H151"/>
       <c r="I151"/>
       <c r="J151" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K151" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L151" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M151" t="n">
         <v>29</v>
@@ -7457,13 +8480,13 @@
         <v>21</v>
       </c>
       <c r="B152" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C152" t="n">
         <v>2021</v>
       </c>
       <c r="D152" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E152" t="n">
         <v>18</v>
@@ -7477,13 +8500,13 @@
       <c r="H152"/>
       <c r="I152"/>
       <c r="J152" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K152" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L152" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M152" t="n">
         <v>30</v>
@@ -7516,13 +8539,13 @@
         <v>21</v>
       </c>
       <c r="B153" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C153" t="n">
         <v>2021</v>
       </c>
       <c r="D153" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E153" t="n">
         <v>18</v>
@@ -7537,7 +8560,7 @@
       <c r="I153"/>
       <c r="J153"/>
       <c r="K153" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L153"/>
       <c r="M153"/>
@@ -7565,13 +8588,13 @@
         <v>21</v>
       </c>
       <c r="B154" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C154" t="n">
         <v>2021</v>
       </c>
       <c r="D154" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E154" t="n">
         <v>18</v>
@@ -7586,7 +8609,7 @@
       <c r="I154"/>
       <c r="J154"/>
       <c r="K154" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L154"/>
       <c r="M154"/>
@@ -7608,13 +8631,13 @@
         <v>21</v>
       </c>
       <c r="B155" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C155" t="n">
         <v>2021</v>
       </c>
       <c r="D155" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E155" t="n">
         <v>19</v>
@@ -7628,13 +8651,13 @@
       <c r="H155"/>
       <c r="I155"/>
       <c r="J155" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K155" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L155" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M155" t="n">
         <v>32</v>
@@ -7667,13 +8690,13 @@
         <v>21</v>
       </c>
       <c r="B156" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C156" t="n">
         <v>2021</v>
       </c>
       <c r="D156" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E156" t="n">
         <v>19</v>
@@ -7687,13 +8710,13 @@
       <c r="H156"/>
       <c r="I156"/>
       <c r="J156" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K156" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L156" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M156" t="n">
         <v>32</v>
@@ -7726,13 +8749,13 @@
         <v>21</v>
       </c>
       <c r="B157" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C157" t="n">
         <v>2021</v>
       </c>
       <c r="D157" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E157" t="n">
         <v>19</v>
@@ -7747,7 +8770,7 @@
       <c r="I157"/>
       <c r="J157"/>
       <c r="K157" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L157"/>
       <c r="M157"/>
@@ -7775,13 +8798,13 @@
         <v>21</v>
       </c>
       <c r="B158" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C158" t="n">
         <v>2021</v>
       </c>
       <c r="D158" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E158" t="n">
         <v>19</v>
@@ -7796,7 +8819,7 @@
       <c r="I158"/>
       <c r="J158"/>
       <c r="K158" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L158"/>
       <c r="M158"/>
@@ -7818,13 +8841,13 @@
         <v>21</v>
       </c>
       <c r="B159" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C159" t="n">
         <v>2021</v>
       </c>
       <c r="D159" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E159" t="n">
         <v>20</v>
@@ -7838,13 +8861,13 @@
       <c r="H159"/>
       <c r="I159"/>
       <c r="J159" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K159" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L159" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M159" t="n">
         <v>44</v>
@@ -7877,13 +8900,13 @@
         <v>21</v>
       </c>
       <c r="B160" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C160" t="n">
         <v>2021</v>
       </c>
       <c r="D160" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E160" t="n">
         <v>20</v>
@@ -7897,13 +8920,13 @@
       <c r="H160"/>
       <c r="I160"/>
       <c r="J160" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K160" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L160" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M160" t="n">
         <v>45</v>
@@ -7936,13 +8959,13 @@
         <v>21</v>
       </c>
       <c r="B161" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C161" t="n">
         <v>2021</v>
       </c>
       <c r="D161" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E161" t="n">
         <v>20</v>
@@ -7957,7 +8980,7 @@
       <c r="I161"/>
       <c r="J161"/>
       <c r="K161" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L161"/>
       <c r="M161"/>
@@ -7985,13 +9008,13 @@
         <v>21</v>
       </c>
       <c r="B162" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C162" t="n">
         <v>2021</v>
       </c>
       <c r="D162" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E162" t="n">
         <v>20</v>
@@ -8006,7 +9029,7 @@
       <c r="I162"/>
       <c r="J162"/>
       <c r="K162" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L162"/>
       <c r="M162"/>

--- a/exports/yield_files/LO-HP 6.xlsx
+++ b/exports/yield_files/LO-HP 6.xlsx
@@ -612,9 +612,15 @@
       <c r="N2" t="n">
         <v>1.5</v>
       </c>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
+      <c r="O2" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="P2" t="n">
+        <v>46.25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>67.59</v>
+      </c>
       <c r="R2" t="n">
         <v>1789.6</v>
       </c>
@@ -667,9 +673,15 @@
       <c r="N3" t="n">
         <v>1.5</v>
       </c>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
+      <c r="O3" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="P3" t="n">
+        <v>46.22</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>67.89</v>
+      </c>
       <c r="R3" t="n">
         <v>1838</v>
       </c>
@@ -718,9 +730,15 @@
         <v>38</v>
       </c>
       <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
+      <c r="O4" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="P4" t="n">
+        <v>45.72</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>67.69</v>
+      </c>
       <c r="R4" t="n">
         <v>1827.2</v>
       </c>
@@ -818,9 +836,15 @@
       <c r="N6" t="n">
         <v>1.5</v>
       </c>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
+      <c r="O6" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="P6" t="n">
+        <v>45.63</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>67.6</v>
+      </c>
       <c r="R6" t="n">
         <v>1023.8</v>
       </c>
@@ -873,9 +897,15 @@
       <c r="N7" t="n">
         <v>1.5</v>
       </c>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
+      <c r="O7" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="P7" t="n">
+        <v>45.76</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>66.9</v>
+      </c>
       <c r="R7" t="n">
         <v>1258.5</v>
       </c>
@@ -924,9 +954,15 @@
         <v>32</v>
       </c>
       <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
+      <c r="O8" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="P8" t="n">
+        <v>45.29</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>66.91</v>
+      </c>
       <c r="R8" t="n">
         <v>1265</v>
       </c>
@@ -1024,9 +1060,15 @@
       <c r="N10" t="n">
         <v>1</v>
       </c>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
+      <c r="O10" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="P10" t="n">
+        <v>43.27</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>65.39</v>
+      </c>
       <c r="R10" t="n">
         <v>1738.7</v>
       </c>
@@ -1079,9 +1121,15 @@
       <c r="N11" t="n">
         <v>1.5</v>
       </c>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
+      <c r="O11" t="n">
+        <v>21.78</v>
+      </c>
+      <c r="P11" t="n">
+        <v>44.55</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>66.33</v>
+      </c>
       <c r="R11" t="n">
         <v>2383.6</v>
       </c>
@@ -1130,9 +1178,15 @@
         <v>30</v>
       </c>
       <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
+      <c r="O12" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="P12" t="n">
+        <v>44.03</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>66.69</v>
+      </c>
       <c r="R12" t="n">
         <v>2229.6</v>
       </c>
@@ -1230,9 +1284,15 @@
       <c r="N14" t="n">
         <v>1</v>
       </c>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
+      <c r="O14" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="P14" t="n">
+        <v>43.28</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>64.78</v>
+      </c>
       <c r="R14" t="n">
         <v>1532.3</v>
       </c>
@@ -1285,9 +1345,15 @@
       <c r="N15" t="n">
         <v>1.5</v>
       </c>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
+      <c r="O15" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="P15" t="n">
+        <v>43.73</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>65.53</v>
+      </c>
       <c r="R15" t="n">
         <v>2175.9</v>
       </c>
@@ -1336,9 +1402,15 @@
         <v>32</v>
       </c>
       <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
+      <c r="O16" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>42.95</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>65.47</v>
+      </c>
       <c r="R16" t="n">
         <v>1712.1</v>
       </c>
@@ -1436,9 +1508,15 @@
       <c r="N18" t="n">
         <v>1</v>
       </c>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
+      <c r="O18" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="P18" t="n">
+        <v>45.46</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>66.6</v>
+      </c>
       <c r="R18" t="n">
         <v>2683.9</v>
       </c>
@@ -1491,9 +1569,15 @@
       <c r="N19" t="n">
         <v>1</v>
       </c>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
+      <c r="O19" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="P19" t="n">
+        <v>44.14</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>66.26</v>
+      </c>
       <c r="R19" t="n">
         <v>1750.1</v>
       </c>
@@ -1542,9 +1626,15 @@
         <v>37</v>
       </c>
       <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
+      <c r="O20" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="P20" t="n">
+        <v>44.59</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>66.82</v>
+      </c>
       <c r="R20" t="n">
         <v>2205.7</v>
       </c>
@@ -1642,9 +1732,15 @@
       <c r="N22" t="n">
         <v>1</v>
       </c>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
+      <c r="O22" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="P22" t="n">
+        <v>40.07</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>63.14</v>
+      </c>
       <c r="R22" t="n">
         <v>1350.2</v>
       </c>
@@ -1697,9 +1793,15 @@
       <c r="N23" t="n">
         <v>1</v>
       </c>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
+      <c r="O23" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="P23" t="n">
+        <v>40.69</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>63.24</v>
+      </c>
       <c r="R23" t="n">
         <v>1691.5</v>
       </c>
@@ -1748,9 +1850,15 @@
         <v>15</v>
       </c>
       <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
+      <c r="O24" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="P24" t="n">
+        <v>40.48</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>63.32</v>
+      </c>
       <c r="R24" t="n">
         <v>1004.5</v>
       </c>
@@ -1848,9 +1956,15 @@
       <c r="N26" t="n">
         <v>1</v>
       </c>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
+      <c r="O26" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="P26" t="n">
+        <v>43.44</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>64.73</v>
+      </c>
       <c r="R26" t="n">
         <v>2003.7</v>
       </c>
@@ -1903,9 +2017,15 @@
       <c r="N27" t="n">
         <v>1</v>
       </c>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
+      <c r="O27" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="P27" t="n">
+        <v>43.42</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>65.51</v>
+      </c>
       <c r="R27" t="n">
         <v>2022.9</v>
       </c>
@@ -1954,9 +2074,15 @@
         <v>24</v>
       </c>
       <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
+      <c r="O28" t="n">
+        <v>22.06</v>
+      </c>
+      <c r="P28" t="n">
+        <v>41.58</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>63.64</v>
+      </c>
       <c r="R28" t="n">
         <v>1467.6</v>
       </c>
@@ -2054,9 +2180,15 @@
       <c r="N30" t="n">
         <v>1.5</v>
       </c>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
+      <c r="O30" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="P30" t="n">
+        <v>45.23</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>65.53</v>
+      </c>
       <c r="R30" t="n">
         <v>1958.4</v>
       </c>
@@ -2109,9 +2241,15 @@
       <c r="N31" t="n">
         <v>1.5</v>
       </c>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
+      <c r="O31" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="P31" t="n">
+        <v>44.57</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>64.72</v>
+      </c>
       <c r="R31" t="n">
         <v>1817.9</v>
       </c>
@@ -2160,9 +2298,15 @@
         <v>40</v>
       </c>
       <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
+      <c r="O32" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="P32" t="n">
+        <v>46.94</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>67.02</v>
+      </c>
       <c r="R32" t="n">
         <v>2258.7</v>
       </c>
@@ -2260,9 +2404,15 @@
       <c r="N34" t="n">
         <v>1.5</v>
       </c>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
+      <c r="O34" t="n">
+        <v>23.46</v>
+      </c>
+      <c r="P34" t="n">
+        <v>37.88</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>61.34</v>
+      </c>
       <c r="R34" t="n">
         <v>2183</v>
       </c>
@@ -2315,9 +2465,15 @@
       <c r="N35" t="n">
         <v>1.5</v>
       </c>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
+      <c r="O35" t="n">
+        <v>24.36</v>
+      </c>
+      <c r="P35" t="n">
+        <v>39.47</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>63.83</v>
+      </c>
       <c r="R35" t="n">
         <v>2375.4</v>
       </c>
@@ -2366,9 +2522,15 @@
         <v>40</v>
       </c>
       <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
+      <c r="O36" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="P36" t="n">
+        <v>38.94</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>63.03</v>
+      </c>
       <c r="R36" t="n">
         <v>1989.4</v>
       </c>
@@ -2466,9 +2628,15 @@
       <c r="N38" t="n">
         <v>1.5</v>
       </c>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
+      <c r="O38" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="P38" t="n">
+        <v>40.92</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>63.57</v>
+      </c>
       <c r="R38" t="n">
         <v>2171.7</v>
       </c>
@@ -2521,9 +2689,15 @@
       <c r="N39" t="n">
         <v>1.5</v>
       </c>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
+      <c r="O39" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="P39" t="n">
+        <v>41.18</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>64.19</v>
+      </c>
       <c r="R39" t="n">
         <v>2330.5</v>
       </c>
@@ -2572,9 +2746,15 @@
         <v>44</v>
       </c>
       <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
+      <c r="O40" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="P40" t="n">
+        <v>41.36</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>64.1</v>
+      </c>
       <c r="R40" t="n">
         <v>2162.7</v>
       </c>
@@ -2672,9 +2852,15 @@
       <c r="N42" t="n">
         <v>1.5</v>
       </c>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
+      <c r="O42" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="P42" t="n">
+        <v>41.31</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>63.55</v>
+      </c>
       <c r="R42" t="n">
         <v>2094.8</v>
       </c>
@@ -2727,9 +2913,15 @@
       <c r="N43" t="n">
         <v>1.5</v>
       </c>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
+      <c r="O43" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="P43" t="n">
+        <v>42.84</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>64.33</v>
+      </c>
       <c r="R43" t="n">
         <v>2648.5</v>
       </c>
@@ -2778,9 +2970,15 @@
         <v>30</v>
       </c>
       <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
+      <c r="O44" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="P44" t="n">
+        <v>41.83</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>63.68</v>
+      </c>
       <c r="R44" t="n">
         <v>1887.1</v>
       </c>
@@ -2880,9 +3078,15 @@
       <c r="N46" t="n">
         <v>2</v>
       </c>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
+      <c r="O46" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="P46" t="n">
+        <v>42.98</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>63.14</v>
+      </c>
       <c r="R46" t="n">
         <v>731.6</v>
       </c>
@@ -2937,9 +3141,15 @@
       <c r="N47" t="n">
         <v>1.5</v>
       </c>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
+      <c r="O47" t="n">
+        <v>20.67</v>
+      </c>
+      <c r="P47" t="n">
+        <v>42.51</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>63.18</v>
+      </c>
       <c r="R47" t="n">
         <v>889.6</v>
       </c>
@@ -2990,9 +3200,15 @@
         <v>28</v>
       </c>
       <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
-      <c r="Q48"/>
+      <c r="O48" t="n">
+        <v>18.93</v>
+      </c>
+      <c r="P48" t="n">
+        <v>43.45</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>62.38</v>
+      </c>
       <c r="R48" t="n">
         <v>894.7</v>
       </c>
@@ -3092,9 +3308,15 @@
       <c r="N50" t="n">
         <v>1</v>
       </c>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50"/>
+      <c r="O50" t="n">
+        <v>20.52</v>
+      </c>
+      <c r="P50" t="n">
+        <v>47.26</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>67.78</v>
+      </c>
       <c r="R50" t="n">
         <v>1280.7</v>
       </c>
@@ -3147,9 +3369,15 @@
       <c r="N51" t="n">
         <v>1.5</v>
       </c>
-      <c r="O51"/>
-      <c r="P51"/>
-      <c r="Q51"/>
+      <c r="O51" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="P51" t="n">
+        <v>45.85</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>66.58</v>
+      </c>
       <c r="R51" t="n">
         <v>1006.3</v>
       </c>
@@ -3198,9 +3426,15 @@
         <v>25</v>
       </c>
       <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52"/>
+      <c r="O52" t="n">
+        <v>20.64</v>
+      </c>
+      <c r="P52" t="n">
+        <v>46.38</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>67.02</v>
+      </c>
       <c r="R52" t="n">
         <v>664</v>
       </c>
@@ -3298,9 +3532,15 @@
       <c r="N54" t="n">
         <v>1.5</v>
       </c>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
+      <c r="O54" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="P54" t="n">
+        <v>44.73</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>65.48</v>
+      </c>
       <c r="R54" t="n">
         <v>1694.4</v>
       </c>
@@ -3353,9 +3593,15 @@
       <c r="N55" t="n">
         <v>1.5</v>
       </c>
-      <c r="O55"/>
-      <c r="P55"/>
-      <c r="Q55"/>
+      <c r="O55" t="n">
+        <v>20.95</v>
+      </c>
+      <c r="P55" t="n">
+        <v>45.86</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>66.81</v>
+      </c>
       <c r="R55" t="n">
         <v>2452.6</v>
       </c>
@@ -3404,9 +3650,15 @@
         <v>32</v>
       </c>
       <c r="N56"/>
-      <c r="O56"/>
-      <c r="P56"/>
-      <c r="Q56"/>
+      <c r="O56" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="P56" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>67.05</v>
+      </c>
       <c r="R56" t="n">
         <v>2241.8</v>
       </c>
@@ -3504,9 +3756,15 @@
       <c r="N58" t="n">
         <v>1.5</v>
       </c>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
+      <c r="O58" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="P58" t="n">
+        <v>44.77</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>65.23</v>
+      </c>
       <c r="R58" t="n">
         <v>2211.9</v>
       </c>
@@ -3559,9 +3817,15 @@
       <c r="N59" t="n">
         <v>1.5</v>
       </c>
-      <c r="O59"/>
-      <c r="P59"/>
-      <c r="Q59"/>
+      <c r="O59" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="P59" t="n">
+        <v>44.75</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>65.01</v>
+      </c>
       <c r="R59" t="n">
         <v>2178.8</v>
       </c>
@@ -3610,9 +3874,15 @@
         <v>31</v>
       </c>
       <c r="N60"/>
-      <c r="O60"/>
-      <c r="P60"/>
-      <c r="Q60"/>
+      <c r="O60" t="n">
+        <v>20.71</v>
+      </c>
+      <c r="P60" t="n">
+        <v>44.51</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>65.22</v>
+      </c>
       <c r="R60" t="n">
         <v>1570</v>
       </c>
@@ -3710,9 +3980,15 @@
       <c r="N62" t="n">
         <v>1</v>
       </c>
-      <c r="O62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
+      <c r="O62" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="P62" t="n">
+        <v>46.17</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>66.52</v>
+      </c>
       <c r="R62" t="n">
         <v>1416</v>
       </c>
@@ -3765,9 +4041,15 @@
       <c r="N63" t="n">
         <v>1.5</v>
       </c>
-      <c r="O63"/>
-      <c r="P63"/>
-      <c r="Q63"/>
+      <c r="O63" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="P63" t="n">
+        <v>45.65</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>66.15</v>
+      </c>
       <c r="R63" t="n">
         <v>2102.4</v>
       </c>
@@ -3816,9 +4098,15 @@
         <v>30</v>
       </c>
       <c r="N64"/>
-      <c r="O64"/>
-      <c r="P64"/>
-      <c r="Q64"/>
+      <c r="O64" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="P64" t="n">
+        <v>43.66</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>64.73</v>
+      </c>
       <c r="R64" t="n">
         <v>1626.4</v>
       </c>
@@ -3916,9 +4204,15 @@
       <c r="N66" t="n">
         <v>1</v>
       </c>
-      <c r="O66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
+      <c r="O66" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="P66" t="n">
+        <v>38.78</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>62.09</v>
+      </c>
       <c r="R66" t="n">
         <v>1335</v>
       </c>
@@ -3971,9 +4265,15 @@
       <c r="N67" t="n">
         <v>1</v>
       </c>
-      <c r="O67"/>
-      <c r="P67"/>
-      <c r="Q67"/>
+      <c r="O67" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="P67" t="n">
+        <v>37.95</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>61.97</v>
+      </c>
       <c r="R67" t="n">
         <v>2289.9</v>
       </c>
@@ -4022,9 +4322,15 @@
         <v>26</v>
       </c>
       <c r="N68"/>
-      <c r="O68"/>
-      <c r="P68"/>
-      <c r="Q68"/>
+      <c r="O68" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="P68" t="n">
+        <v>39.27</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>63.12</v>
+      </c>
       <c r="R68" t="n">
         <v>2273.9</v>
       </c>
@@ -4122,9 +4428,15 @@
       <c r="N70" t="n">
         <v>1.5</v>
       </c>
-      <c r="O70"/>
-      <c r="P70"/>
-      <c r="Q70"/>
+      <c r="O70" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="P70" t="n">
+        <v>37.85</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>62.07</v>
+      </c>
       <c r="R70" t="n">
         <v>1015.4</v>
       </c>
@@ -4177,9 +4489,15 @@
       <c r="N71" t="n">
         <v>1</v>
       </c>
-      <c r="O71"/>
-      <c r="P71"/>
-      <c r="Q71"/>
+      <c r="O71" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="P71" t="n">
+        <v>38.05</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>62.52</v>
+      </c>
       <c r="R71" t="n">
         <v>1301.7</v>
       </c>
@@ -4228,9 +4546,15 @@
         <v>26</v>
       </c>
       <c r="N72"/>
-      <c r="O72"/>
-      <c r="P72"/>
-      <c r="Q72"/>
+      <c r="O72" t="n">
+        <v>24.68</v>
+      </c>
+      <c r="P72" t="n">
+        <v>37.79</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>62.47</v>
+      </c>
       <c r="R72" t="n">
         <v>1776.7</v>
       </c>
@@ -4328,9 +4652,15 @@
       <c r="N74" t="n">
         <v>1.5</v>
       </c>
-      <c r="O74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
+      <c r="O74" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="P74" t="n">
+        <v>42.36</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>65.11</v>
+      </c>
       <c r="R74" t="n">
         <v>911</v>
       </c>
@@ -4383,9 +4713,15 @@
       <c r="N75" t="n">
         <v>1.5</v>
       </c>
-      <c r="O75"/>
-      <c r="P75"/>
-      <c r="Q75"/>
+      <c r="O75" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="P75" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>65.82</v>
+      </c>
       <c r="R75" t="n">
         <v>1141.7</v>
       </c>
@@ -4434,9 +4770,15 @@
         <v>24</v>
       </c>
       <c r="N76"/>
-      <c r="O76"/>
-      <c r="P76"/>
-      <c r="Q76"/>
+      <c r="O76" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="P76" t="n">
+        <v>42.28</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>65.45</v>
+      </c>
       <c r="R76" t="n">
         <v>976.1</v>
       </c>
@@ -4534,9 +4876,15 @@
       <c r="N78" t="n">
         <v>1</v>
       </c>
-      <c r="O78"/>
-      <c r="P78"/>
-      <c r="Q78"/>
+      <c r="O78" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="P78" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>62.9</v>
+      </c>
       <c r="R78" t="n">
         <v>1716.2</v>
       </c>
@@ -4589,9 +4937,15 @@
       <c r="N79" t="n">
         <v>1</v>
       </c>
-      <c r="O79"/>
-      <c r="P79"/>
-      <c r="Q79"/>
+      <c r="O79" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="P79" t="n">
+        <v>40.99</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>64.05</v>
+      </c>
       <c r="R79" t="n">
         <v>1528.6</v>
       </c>
@@ -4640,9 +4994,15 @@
         <v>40</v>
       </c>
       <c r="N80"/>
-      <c r="O80"/>
-      <c r="P80"/>
-      <c r="Q80"/>
+      <c r="O80" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="P80" t="n">
+        <v>41.68</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>64.17</v>
+      </c>
       <c r="R80" t="n">
         <v>1953.5</v>
       </c>
@@ -6345,7 +6705,9 @@
       <c r="T111" t="n">
         <v>1.5</v>
       </c>
-      <c r="U111"/>
+      <c r="U111" t="n">
+        <v>56.7</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
@@ -6404,7 +6766,9 @@
       <c r="T112" t="n">
         <v>1.5</v>
       </c>
-      <c r="U112"/>
+      <c r="U112" t="n">
+        <v>55.5</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
@@ -6453,7 +6817,9 @@
         <v>13</v>
       </c>
       <c r="T113"/>
-      <c r="U113"/>
+      <c r="U113" t="n">
+        <v>56.4</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
@@ -6496,7 +6862,9 @@
         <v>13</v>
       </c>
       <c r="T114"/>
-      <c r="U114"/>
+      <c r="U114" t="n">
+        <v>56.6</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">

--- a/exports/yield_files/LO-HP 6.xlsx
+++ b/exports/yield_files/LO-HP 6.xlsx
@@ -6508,46 +6508,36 @@
         <v>7</v>
       </c>
       <c r="F108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G108" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H108"/>
       <c r="I108"/>
-      <c r="J108" t="n">
-        <v>18</v>
-      </c>
+      <c r="J108"/>
       <c r="K108" t="s">
         <v>52</v>
       </c>
-      <c r="L108" t="s">
-        <v>28</v>
-      </c>
-      <c r="M108" t="n">
-        <v>30</v>
-      </c>
-      <c r="N108" t="n">
-        <v>1</v>
-      </c>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
       <c r="O108" t="n">
-        <v>20.46</v>
+        <v>20.37</v>
       </c>
       <c r="P108" t="n">
-        <v>47</v>
+        <v>46.76</v>
       </c>
       <c r="Q108" t="n">
-        <v>67.46</v>
+        <v>67.13</v>
       </c>
       <c r="R108" t="n">
-        <v>2310.2</v>
+        <v>2151.8</v>
       </c>
       <c r="S108" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="T108" t="n">
-        <v>1.5</v>
-      </c>
+        <v>15.5</v>
+      </c>
+      <c r="T108"/>
       <c r="U108" t="n">
         <v>55.9</v>
       </c>
@@ -6569,10 +6559,10 @@
         <v>7</v>
       </c>
       <c r="F109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G109" t="n">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="H109"/>
       <c r="I109"/>
@@ -6583,24 +6573,18 @@
       <c r="L109"/>
       <c r="M109"/>
       <c r="N109"/>
-      <c r="O109" t="n">
-        <v>20.37</v>
-      </c>
-      <c r="P109" t="n">
-        <v>46.76</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>67.13</v>
-      </c>
+      <c r="O109"/>
+      <c r="P109"/>
+      <c r="Q109"/>
       <c r="R109" t="n">
-        <v>2151.8</v>
+        <v>2023.9</v>
       </c>
       <c r="S109" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="T109"/>
       <c r="U109" t="n">
-        <v>55.9</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="110">
@@ -6614,38 +6598,54 @@
         <v>2021</v>
       </c>
       <c r="D110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E110" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F110" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="H110"/>
       <c r="I110"/>
-      <c r="J110"/>
+      <c r="J110" t="n">
+        <v>16</v>
+      </c>
       <c r="K110" t="s">
-        <v>52</v>
-      </c>
-      <c r="L110"/>
-      <c r="M110"/>
-      <c r="N110"/>
-      <c r="O110"/>
-      <c r="P110"/>
-      <c r="Q110"/>
+        <v>51</v>
+      </c>
+      <c r="L110" t="s">
+        <v>25</v>
+      </c>
+      <c r="M110" t="n">
+        <v>36</v>
+      </c>
+      <c r="N110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O110" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="P110" t="n">
+        <v>48.22</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>67.38</v>
+      </c>
       <c r="R110" t="n">
-        <v>2023.9</v>
+        <v>1734.3</v>
       </c>
       <c r="S110" t="n">
-        <v>16</v>
-      </c>
-      <c r="T110"/>
+        <v>13.9</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U110" t="n">
-        <v>56.4</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="111">
@@ -6665,15 +6665,15 @@
         <v>8</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="H111"/>
       <c r="I111"/>
       <c r="J111" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K111" t="s">
         <v>51</v>
@@ -6682,31 +6682,31 @@
         <v>25</v>
       </c>
       <c r="M111" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N111" t="n">
         <v>1.5</v>
       </c>
       <c r="O111" t="n">
-        <v>19.16</v>
+        <v>18.86</v>
       </c>
       <c r="P111" t="n">
-        <v>48.22</v>
+        <v>50.07</v>
       </c>
       <c r="Q111" t="n">
-        <v>67.38</v>
+        <v>68.93</v>
       </c>
       <c r="R111" t="n">
-        <v>1734.3</v>
+        <v>2225.5</v>
       </c>
       <c r="S111" t="n">
-        <v>13.9</v>
+        <v>14.7</v>
       </c>
       <c r="T111" t="n">
         <v>1.5</v>
       </c>
       <c r="U111" t="n">
-        <v>56.7</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="112">
@@ -6726,48 +6726,38 @@
         <v>8</v>
       </c>
       <c r="F112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G112" t="n">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="H112"/>
       <c r="I112"/>
-      <c r="J112" t="n">
-        <v>18</v>
-      </c>
+      <c r="J112"/>
       <c r="K112" t="s">
         <v>51</v>
       </c>
-      <c r="L112" t="s">
-        <v>25</v>
-      </c>
-      <c r="M112" t="n">
-        <v>33</v>
-      </c>
-      <c r="N112" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
       <c r="O112" t="n">
-        <v>18.86</v>
+        <v>18.65</v>
       </c>
       <c r="P112" t="n">
-        <v>50.07</v>
+        <v>48.69</v>
       </c>
       <c r="Q112" t="n">
-        <v>68.93</v>
+        <v>67.34</v>
       </c>
       <c r="R112" t="n">
-        <v>2225.5</v>
+        <v>1861.2</v>
       </c>
       <c r="S112" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="T112" t="n">
-        <v>1.5</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="T112"/>
       <c r="U112" t="n">
-        <v>55.5</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="113">
@@ -6787,10 +6777,10 @@
         <v>8</v>
       </c>
       <c r="F113" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G113" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="H113"/>
       <c r="I113"/>
@@ -6801,24 +6791,18 @@
       <c r="L113"/>
       <c r="M113"/>
       <c r="N113"/>
-      <c r="O113" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="P113" t="n">
-        <v>48.69</v>
-      </c>
-      <c r="Q113" t="n">
-        <v>67.34</v>
-      </c>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
       <c r="R113" t="n">
-        <v>1861.2</v>
+        <v>1728.6</v>
       </c>
       <c r="S113" t="n">
         <v>13</v>
       </c>
       <c r="T113"/>
       <c r="U113" t="n">
-        <v>56.4</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="114">
@@ -6832,38 +6816,54 @@
         <v>2021</v>
       </c>
       <c r="D114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E114" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F114" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="H114"/>
       <c r="I114"/>
-      <c r="J114"/>
+      <c r="J114" t="n">
+        <v>23</v>
+      </c>
       <c r="K114" t="s">
-        <v>51</v>
-      </c>
-      <c r="L114"/>
-      <c r="M114"/>
-      <c r="N114"/>
-      <c r="O114"/>
-      <c r="P114"/>
-      <c r="Q114"/>
+        <v>52</v>
+      </c>
+      <c r="L114" t="s">
+        <v>28</v>
+      </c>
+      <c r="M114" t="n">
+        <v>63</v>
+      </c>
+      <c r="N114" t="n">
+        <v>2</v>
+      </c>
+      <c r="O114" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="P114" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>65.49</v>
+      </c>
       <c r="R114" t="n">
-        <v>1728.6</v>
+        <v>1686.4</v>
       </c>
       <c r="S114" t="n">
-        <v>13</v>
-      </c>
-      <c r="T114"/>
+        <v>16.2</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U114" t="n">
-        <v>56.6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115">
@@ -6883,15 +6883,15 @@
         <v>9</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G115" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H115"/>
       <c r="I115"/>
       <c r="J115" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K115" t="s">
         <v>52</v>
@@ -6900,31 +6900,31 @@
         <v>28</v>
       </c>
       <c r="M115" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N115" t="n">
         <v>2</v>
       </c>
       <c r="O115" t="n">
-        <v>23.2</v>
+        <v>22.43</v>
       </c>
       <c r="P115" t="n">
-        <v>42.29</v>
+        <v>43.08</v>
       </c>
       <c r="Q115" t="n">
-        <v>65.49</v>
+        <v>65.51</v>
       </c>
       <c r="R115" t="n">
-        <v>1686.4</v>
+        <v>2202.5</v>
       </c>
       <c r="S115" t="n">
-        <v>16.2</v>
+        <v>15.6</v>
       </c>
       <c r="T115" t="n">
         <v>1.5</v>
       </c>
       <c r="U115" t="n">
-        <v>55</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="116">
@@ -6944,48 +6944,38 @@
         <v>9</v>
       </c>
       <c r="F116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G116" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H116"/>
       <c r="I116"/>
-      <c r="J116" t="n">
-        <v>21</v>
-      </c>
+      <c r="J116"/>
       <c r="K116" t="s">
         <v>52</v>
       </c>
-      <c r="L116" t="s">
-        <v>28</v>
-      </c>
-      <c r="M116" t="n">
-        <v>60</v>
-      </c>
-      <c r="N116" t="n">
-        <v>2</v>
-      </c>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
       <c r="O116" t="n">
-        <v>22.43</v>
+        <v>22.33</v>
       </c>
       <c r="P116" t="n">
-        <v>43.08</v>
+        <v>43.57</v>
       </c>
       <c r="Q116" t="n">
-        <v>65.51</v>
+        <v>65.9</v>
       </c>
       <c r="R116" t="n">
-        <v>2202.5</v>
+        <v>2063.4</v>
       </c>
       <c r="S116" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="T116" t="n">
-        <v>1.5</v>
-      </c>
+        <v>16.4</v>
+      </c>
+      <c r="T116"/>
       <c r="U116" t="n">
-        <v>54.9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="117">
@@ -7005,10 +6995,10 @@
         <v>9</v>
       </c>
       <c r="F117" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G117" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H117"/>
       <c r="I117"/>
@@ -7019,24 +7009,18 @@
       <c r="L117"/>
       <c r="M117"/>
       <c r="N117"/>
-      <c r="O117" t="n">
-        <v>22.33</v>
-      </c>
-      <c r="P117" t="n">
-        <v>43.57</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>65.9</v>
-      </c>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
       <c r="R117" t="n">
-        <v>2063.4</v>
+        <v>2196.4</v>
       </c>
       <c r="S117" t="n">
-        <v>16.4</v>
+        <v>15.9</v>
       </c>
       <c r="T117"/>
       <c r="U117" t="n">
-        <v>56</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="118">
@@ -7050,38 +7034,54 @@
         <v>2021</v>
       </c>
       <c r="D118" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E118" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F118" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="H118"/>
       <c r="I118"/>
-      <c r="J118"/>
+      <c r="J118" t="n">
+        <v>25</v>
+      </c>
       <c r="K118" t="s">
         <v>52</v>
       </c>
-      <c r="L118"/>
-      <c r="M118"/>
-      <c r="N118"/>
-      <c r="O118"/>
-      <c r="P118"/>
-      <c r="Q118"/>
+      <c r="L118" t="s">
+        <v>25</v>
+      </c>
+      <c r="M118" t="n">
+        <v>54</v>
+      </c>
+      <c r="N118" t="n">
+        <v>2</v>
+      </c>
+      <c r="O118" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="P118" t="n">
+        <v>43.82</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>65.44</v>
+      </c>
       <c r="R118" t="n">
-        <v>2196.4</v>
+        <v>1236.4</v>
       </c>
       <c r="S118" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="T118"/>
+        <v>16.9</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U118" t="n">
-        <v>55.8</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="119">
@@ -7101,15 +7101,15 @@
         <v>10</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G119" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H119"/>
       <c r="I119"/>
       <c r="J119" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K119" t="s">
         <v>52</v>
@@ -7118,31 +7118,31 @@
         <v>25</v>
       </c>
       <c r="M119" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N119" t="n">
         <v>2</v>
       </c>
       <c r="O119" t="n">
-        <v>21.62</v>
+        <v>21.31</v>
       </c>
       <c r="P119" t="n">
-        <v>43.82</v>
+        <v>44.88</v>
       </c>
       <c r="Q119" t="n">
-        <v>65.44</v>
+        <v>66.19</v>
       </c>
       <c r="R119" t="n">
-        <v>1236.4</v>
+        <v>1602.2</v>
       </c>
       <c r="S119" t="n">
-        <v>16.9</v>
+        <v>17.2</v>
       </c>
       <c r="T119" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="U119" t="n">
-        <v>57.8</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="120">
@@ -7162,46 +7162,36 @@
         <v>10</v>
       </c>
       <c r="F120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G120" t="n">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="H120"/>
       <c r="I120"/>
-      <c r="J120" t="n">
-        <v>23</v>
-      </c>
+      <c r="J120"/>
       <c r="K120" t="s">
         <v>52</v>
       </c>
-      <c r="L120" t="s">
-        <v>25</v>
-      </c>
-      <c r="M120" t="n">
-        <v>57</v>
-      </c>
-      <c r="N120" t="n">
-        <v>2</v>
-      </c>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
       <c r="O120" t="n">
-        <v>21.31</v>
+        <v>21.78</v>
       </c>
       <c r="P120" t="n">
-        <v>44.88</v>
+        <v>45.05</v>
       </c>
       <c r="Q120" t="n">
-        <v>66.19</v>
+        <v>66.83</v>
       </c>
       <c r="R120" t="n">
-        <v>1602.2</v>
+        <v>1479.5</v>
       </c>
       <c r="S120" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="T120" t="n">
-        <v>2.5</v>
-      </c>
+        <v>17.4</v>
+      </c>
+      <c r="T120"/>
       <c r="U120" t="n">
         <v>56.3</v>
       </c>
@@ -7223,10 +7213,10 @@
         <v>10</v>
       </c>
       <c r="F121" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G121" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H121"/>
       <c r="I121"/>
@@ -7237,24 +7227,18 @@
       <c r="L121"/>
       <c r="M121"/>
       <c r="N121"/>
-      <c r="O121" t="n">
-        <v>21.78</v>
-      </c>
-      <c r="P121" t="n">
-        <v>45.05</v>
-      </c>
-      <c r="Q121" t="n">
-        <v>66.83</v>
-      </c>
+      <c r="O121"/>
+      <c r="P121"/>
+      <c r="Q121"/>
       <c r="R121" t="n">
-        <v>1479.5</v>
+        <v>1159.9</v>
       </c>
       <c r="S121" t="n">
-        <v>17.4</v>
+        <v>15.6</v>
       </c>
       <c r="T121"/>
       <c r="U121" t="n">
-        <v>56.3</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="122">
@@ -7268,38 +7252,54 @@
         <v>2021</v>
       </c>
       <c r="D122" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E122" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="H122"/>
       <c r="I122"/>
-      <c r="J122"/>
+      <c r="J122" t="n">
+        <v>26</v>
+      </c>
       <c r="K122" t="s">
-        <v>52</v>
-      </c>
-      <c r="L122"/>
-      <c r="M122"/>
-      <c r="N122"/>
-      <c r="O122"/>
-      <c r="P122"/>
-      <c r="Q122"/>
+        <v>51</v>
+      </c>
+      <c r="L122" t="s">
+        <v>25</v>
+      </c>
+      <c r="M122" t="n">
+        <v>44</v>
+      </c>
+      <c r="N122" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O122" t="n">
+        <v>20.42</v>
+      </c>
+      <c r="P122" t="n">
+        <v>44.07</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>64.49</v>
+      </c>
       <c r="R122" t="n">
-        <v>1159.9</v>
+        <v>2205.1</v>
       </c>
       <c r="S122" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="T122"/>
+        <v>13.1</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U122" t="n">
-        <v>56.7</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="123">
@@ -7319,10 +7319,10 @@
         <v>11</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G123" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H123"/>
       <c r="I123"/>
@@ -7336,31 +7336,31 @@
         <v>25</v>
       </c>
       <c r="M123" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N123" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="O123" t="n">
-        <v>20.42</v>
+        <v>20.45</v>
       </c>
       <c r="P123" t="n">
-        <v>44.07</v>
+        <v>44.71</v>
       </c>
       <c r="Q123" t="n">
-        <v>64.49</v>
+        <v>65.16</v>
       </c>
       <c r="R123" t="n">
-        <v>2205.1</v>
+        <v>1819.5</v>
       </c>
       <c r="S123" t="n">
-        <v>13.1</v>
+        <v>12.1</v>
       </c>
       <c r="T123" t="n">
         <v>1.5</v>
       </c>
       <c r="U123" t="n">
-        <v>58.1</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="124">
@@ -7380,48 +7380,38 @@
         <v>11</v>
       </c>
       <c r="F124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G124" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H124"/>
       <c r="I124"/>
-      <c r="J124" t="n">
-        <v>26</v>
-      </c>
+      <c r="J124"/>
       <c r="K124" t="s">
         <v>51</v>
       </c>
-      <c r="L124" t="s">
-        <v>25</v>
-      </c>
-      <c r="M124" t="n">
-        <v>47</v>
-      </c>
-      <c r="N124" t="n">
-        <v>1</v>
-      </c>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
       <c r="O124" t="n">
-        <v>20.45</v>
+        <v>20.42</v>
       </c>
       <c r="P124" t="n">
-        <v>44.71</v>
+        <v>44.32</v>
       </c>
       <c r="Q124" t="n">
-        <v>65.16</v>
+        <v>64.74</v>
       </c>
       <c r="R124" t="n">
-        <v>1819.5</v>
+        <v>2006.8</v>
       </c>
       <c r="S124" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="T124" t="n">
-        <v>1.5</v>
-      </c>
+        <v>13.9</v>
+      </c>
+      <c r="T124"/>
       <c r="U124" t="n">
-        <v>57.7</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="125">
@@ -7441,10 +7431,10 @@
         <v>11</v>
       </c>
       <c r="F125" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G125" t="n">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="H125"/>
       <c r="I125"/>
@@ -7455,25 +7445,17 @@
       <c r="L125"/>
       <c r="M125"/>
       <c r="N125"/>
-      <c r="O125" t="n">
-        <v>20.42</v>
-      </c>
-      <c r="P125" t="n">
-        <v>44.32</v>
-      </c>
-      <c r="Q125" t="n">
-        <v>64.74</v>
-      </c>
+      <c r="O125"/>
+      <c r="P125"/>
+      <c r="Q125"/>
       <c r="R125" t="n">
-        <v>2006.8</v>
+        <v>1634.6</v>
       </c>
       <c r="S125" t="n">
-        <v>13.9</v>
+        <v>12.8</v>
       </c>
       <c r="T125"/>
-      <c r="U125" t="n">
-        <v>58.1</v>
-      </c>
+      <c r="U125"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
@@ -7486,36 +7468,54 @@
         <v>2021</v>
       </c>
       <c r="D126" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E126" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="H126"/>
-      <c r="I126"/>
-      <c r="J126"/>
+      <c r="I126" t="s">
+        <v>54</v>
+      </c>
+      <c r="J126" t="n">
+        <v>22</v>
+      </c>
       <c r="K126" t="s">
-        <v>51</v>
-      </c>
-      <c r="L126"/>
-      <c r="M126"/>
-      <c r="N126"/>
-      <c r="O126"/>
-      <c r="P126"/>
-      <c r="Q126"/>
+        <v>53</v>
+      </c>
+      <c r="L126" t="s">
+        <v>28</v>
+      </c>
+      <c r="M126" t="n">
+        <v>31</v>
+      </c>
+      <c r="N126" t="n">
+        <v>2</v>
+      </c>
+      <c r="O126" t="n">
+        <v>19.66</v>
+      </c>
+      <c r="P126" t="n">
+        <v>47.36</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>67.02</v>
+      </c>
       <c r="R126" t="n">
-        <v>1634.6</v>
+        <v>929.4</v>
       </c>
       <c r="S126" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="T126"/>
+        <v>5.2</v>
+      </c>
+      <c r="T126" t="n">
+        <v>2</v>
+      </c>
       <c r="U126"/>
     </row>
     <row r="127">
@@ -7535,17 +7535,17 @@
         <v>12</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G127" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H127"/>
       <c r="I127" t="s">
         <v>54</v>
       </c>
       <c r="J127" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K127" t="s">
         <v>53</v>
@@ -7557,22 +7557,22 @@
         <v>31</v>
       </c>
       <c r="N127" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O127" t="n">
-        <v>19.66</v>
+        <v>18.74</v>
       </c>
       <c r="P127" t="n">
-        <v>47.36</v>
+        <v>44.51</v>
       </c>
       <c r="Q127" t="n">
-        <v>67.02</v>
+        <v>63.25</v>
       </c>
       <c r="R127" t="n">
-        <v>929.4</v>
+        <v>1006.5</v>
       </c>
       <c r="S127" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="T127" t="n">
         <v>2</v>
@@ -7596,48 +7596,38 @@
         <v>12</v>
       </c>
       <c r="F128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G128" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="H128"/>
       <c r="I128" t="s">
         <v>54</v>
       </c>
-      <c r="J128" t="n">
-        <v>21</v>
-      </c>
+      <c r="J128"/>
       <c r="K128" t="s">
         <v>53</v>
       </c>
-      <c r="L128" t="s">
-        <v>28</v>
-      </c>
-      <c r="M128" t="n">
-        <v>31</v>
-      </c>
-      <c r="N128" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
       <c r="O128" t="n">
-        <v>18.74</v>
+        <v>19.83</v>
       </c>
       <c r="P128" t="n">
-        <v>44.51</v>
+        <v>48.01</v>
       </c>
       <c r="Q128" t="n">
-        <v>63.25</v>
+        <v>67.84</v>
       </c>
       <c r="R128" t="n">
-        <v>1006.5</v>
+        <v>1185.1</v>
       </c>
       <c r="S128" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T128" t="n">
-        <v>2</v>
-      </c>
+        <v>6.5</v>
+      </c>
+      <c r="T128"/>
       <c r="U128"/>
     </row>
     <row r="129">
@@ -7657,10 +7647,10 @@
         <v>12</v>
       </c>
       <c r="F129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G129" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="H129"/>
       <c r="I129" t="s">
@@ -7673,20 +7663,14 @@
       <c r="L129"/>
       <c r="M129"/>
       <c r="N129"/>
-      <c r="O129" t="n">
-        <v>19.83</v>
-      </c>
-      <c r="P129" t="n">
-        <v>48.01</v>
-      </c>
-      <c r="Q129" t="n">
-        <v>67.84</v>
-      </c>
+      <c r="O129"/>
+      <c r="P129"/>
+      <c r="Q129"/>
       <c r="R129" t="n">
-        <v>1185.1</v>
+        <v>659.8</v>
       </c>
       <c r="S129" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="T129"/>
       <c r="U129"/>
@@ -7702,38 +7686,52 @@
         <v>2021</v>
       </c>
       <c r="D130" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E130" t="n">
+        <v>13</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>5</v>
+      </c>
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130" t="n">
         <v>12</v>
       </c>
-      <c r="F130" t="n">
-        <v>4</v>
-      </c>
-      <c r="G130" t="n">
-        <v>69</v>
-      </c>
-      <c r="H130"/>
-      <c r="I130" t="s">
-        <v>54</v>
-      </c>
-      <c r="J130"/>
       <c r="K130" t="s">
-        <v>53</v>
-      </c>
-      <c r="L130"/>
-      <c r="M130"/>
-      <c r="N130"/>
-      <c r="O130"/>
-      <c r="P130"/>
-      <c r="Q130"/>
+        <v>52</v>
+      </c>
+      <c r="L130" t="s">
+        <v>25</v>
+      </c>
+      <c r="M130" t="n">
+        <v>29</v>
+      </c>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+      <c r="O130" t="n">
+        <v>18.38</v>
+      </c>
+      <c r="P130" t="n">
+        <v>50.38</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>68.76</v>
+      </c>
       <c r="R130" t="n">
-        <v>659.8</v>
+        <v>1774.7</v>
       </c>
       <c r="S130" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T130"/>
+        <v>15.3</v>
+      </c>
+      <c r="T130" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U130"/>
     </row>
     <row r="131">
@@ -7753,15 +7751,15 @@
         <v>13</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G131" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H131"/>
       <c r="I131"/>
       <c r="J131" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K131" t="s">
         <v>52</v>
@@ -7770,25 +7768,25 @@
         <v>25</v>
       </c>
       <c r="M131" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N131" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O131" t="n">
-        <v>18.38</v>
+        <v>18.22</v>
       </c>
       <c r="P131" t="n">
-        <v>50.38</v>
+        <v>51.44</v>
       </c>
       <c r="Q131" t="n">
-        <v>68.76</v>
+        <v>69.66</v>
       </c>
       <c r="R131" t="n">
-        <v>1774.7</v>
+        <v>1766.9</v>
       </c>
       <c r="S131" t="n">
-        <v>15.3</v>
+        <v>16.9</v>
       </c>
       <c r="T131" t="n">
         <v>1.5</v>
@@ -7812,46 +7810,36 @@
         <v>13</v>
       </c>
       <c r="F132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G132" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="H132"/>
       <c r="I132"/>
-      <c r="J132" t="n">
-        <v>13</v>
-      </c>
+      <c r="J132"/>
       <c r="K132" t="s">
         <v>52</v>
       </c>
-      <c r="L132" t="s">
-        <v>25</v>
-      </c>
-      <c r="M132" t="n">
-        <v>30</v>
-      </c>
-      <c r="N132" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="L132"/>
+      <c r="M132"/>
+      <c r="N132"/>
       <c r="O132" t="n">
-        <v>18.22</v>
+        <v>18.08</v>
       </c>
       <c r="P132" t="n">
-        <v>51.44</v>
+        <v>51.99</v>
       </c>
       <c r="Q132" t="n">
-        <v>69.66</v>
+        <v>70.07</v>
       </c>
       <c r="R132" t="n">
-        <v>1766.9</v>
+        <v>1912.9</v>
       </c>
       <c r="S132" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="T132" t="n">
-        <v>1.5</v>
-      </c>
+        <v>15.5</v>
+      </c>
+      <c r="T132"/>
       <c r="U132"/>
     </row>
     <row r="133">
@@ -7871,10 +7859,10 @@
         <v>13</v>
       </c>
       <c r="F133" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G133" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="H133"/>
       <c r="I133"/>
@@ -7885,20 +7873,14 @@
       <c r="L133"/>
       <c r="M133"/>
       <c r="N133"/>
-      <c r="O133" t="n">
-        <v>18.08</v>
-      </c>
-      <c r="P133" t="n">
-        <v>51.99</v>
-      </c>
-      <c r="Q133" t="n">
-        <v>70.07</v>
-      </c>
+      <c r="O133"/>
+      <c r="P133"/>
+      <c r="Q133"/>
       <c r="R133" t="n">
-        <v>1912.9</v>
+        <v>1720.8</v>
       </c>
       <c r="S133" t="n">
-        <v>15.5</v>
+        <v>14.8</v>
       </c>
       <c r="T133"/>
       <c r="U133"/>
@@ -7914,36 +7896,52 @@
         <v>2021</v>
       </c>
       <c r="D134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E134" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F134" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="H134"/>
       <c r="I134"/>
-      <c r="J134"/>
+      <c r="J134" t="n">
+        <v>18</v>
+      </c>
       <c r="K134" t="s">
         <v>52</v>
       </c>
-      <c r="L134"/>
-      <c r="M134"/>
-      <c r="N134"/>
-      <c r="O134"/>
-      <c r="P134"/>
-      <c r="Q134"/>
+      <c r="L134" t="s">
+        <v>25</v>
+      </c>
+      <c r="M134" t="n">
+        <v>41</v>
+      </c>
+      <c r="N134" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O134" t="n">
+        <v>19.94</v>
+      </c>
+      <c r="P134" t="n">
+        <v>46.97</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>66.91</v>
+      </c>
       <c r="R134" t="n">
-        <v>1720.8</v>
+        <v>1412.9</v>
       </c>
       <c r="S134" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="T134"/>
+        <v>9.9</v>
+      </c>
+      <c r="T134" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U134"/>
     </row>
     <row r="135">
@@ -7963,15 +7961,15 @@
         <v>14</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G135" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H135"/>
       <c r="I135"/>
       <c r="J135" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K135" t="s">
         <v>52</v>
@@ -7980,25 +7978,25 @@
         <v>25</v>
       </c>
       <c r="M135" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N135" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O135" t="n">
-        <v>19.94</v>
+        <v>19.72</v>
       </c>
       <c r="P135" t="n">
-        <v>46.97</v>
+        <v>46.88</v>
       </c>
       <c r="Q135" t="n">
-        <v>66.91</v>
+        <v>66.6</v>
       </c>
       <c r="R135" t="n">
-        <v>1412.9</v>
+        <v>2009.2</v>
       </c>
       <c r="S135" t="n">
-        <v>9.9</v>
+        <v>11.2</v>
       </c>
       <c r="T135" t="n">
         <v>1.5</v>
@@ -8022,46 +8020,36 @@
         <v>14</v>
       </c>
       <c r="F136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G136" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="H136"/>
       <c r="I136"/>
-      <c r="J136" t="n">
-        <v>19</v>
-      </c>
+      <c r="J136"/>
       <c r="K136" t="s">
         <v>52</v>
       </c>
-      <c r="L136" t="s">
-        <v>25</v>
-      </c>
-      <c r="M136" t="n">
-        <v>39</v>
-      </c>
-      <c r="N136" t="n">
-        <v>2</v>
-      </c>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
       <c r="O136" t="n">
-        <v>19.72</v>
+        <v>20.44</v>
       </c>
       <c r="P136" t="n">
-        <v>46.88</v>
+        <v>46.4</v>
       </c>
       <c r="Q136" t="n">
-        <v>66.6</v>
+        <v>66.84</v>
       </c>
       <c r="R136" t="n">
-        <v>2009.2</v>
+        <v>2009.4</v>
       </c>
       <c r="S136" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="T136" t="n">
-        <v>1.5</v>
-      </c>
+        <v>12.1</v>
+      </c>
+      <c r="T136"/>
       <c r="U136"/>
     </row>
     <row r="137">
@@ -8081,10 +8069,10 @@
         <v>14</v>
       </c>
       <c r="F137" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G137" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="H137"/>
       <c r="I137"/>
@@ -8095,20 +8083,14 @@
       <c r="L137"/>
       <c r="M137"/>
       <c r="N137"/>
-      <c r="O137" t="n">
-        <v>20.44</v>
-      </c>
-      <c r="P137" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="Q137" t="n">
-        <v>66.84</v>
-      </c>
+      <c r="O137"/>
+      <c r="P137"/>
+      <c r="Q137"/>
       <c r="R137" t="n">
-        <v>2009.4</v>
+        <v>1732</v>
       </c>
       <c r="S137" t="n">
-        <v>12.1</v>
+        <v>11.2</v>
       </c>
       <c r="T137"/>
       <c r="U137"/>
@@ -8124,36 +8106,52 @@
         <v>2021</v>
       </c>
       <c r="D138" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E138" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F138" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="H138"/>
       <c r="I138"/>
-      <c r="J138"/>
+      <c r="J138" t="n">
+        <v>17</v>
+      </c>
       <c r="K138" t="s">
-        <v>52</v>
-      </c>
-      <c r="L138"/>
-      <c r="M138"/>
-      <c r="N138"/>
-      <c r="O138"/>
-      <c r="P138"/>
-      <c r="Q138"/>
+        <v>51</v>
+      </c>
+      <c r="L138" t="s">
+        <v>25</v>
+      </c>
+      <c r="M138" t="n">
+        <v>36</v>
+      </c>
+      <c r="N138" t="n">
+        <v>2</v>
+      </c>
+      <c r="O138" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="P138" t="n">
+        <v>48.89</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>67.61</v>
+      </c>
       <c r="R138" t="n">
-        <v>1732</v>
+        <v>1864.6</v>
       </c>
       <c r="S138" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="T138"/>
+        <v>15</v>
+      </c>
+      <c r="T138" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U138"/>
     </row>
     <row r="139">
@@ -8173,15 +8171,15 @@
         <v>15</v>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G139" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H139"/>
       <c r="I139"/>
       <c r="J139" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K139" t="s">
         <v>51</v>
@@ -8190,25 +8188,25 @@
         <v>25</v>
       </c>
       <c r="M139" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N139" t="n">
         <v>2</v>
       </c>
       <c r="O139" t="n">
-        <v>18.72</v>
+        <v>18.54</v>
       </c>
       <c r="P139" t="n">
-        <v>48.89</v>
+        <v>49.55</v>
       </c>
       <c r="Q139" t="n">
-        <v>67.61</v>
+        <v>68.09</v>
       </c>
       <c r="R139" t="n">
-        <v>1864.6</v>
+        <v>2073.8</v>
       </c>
       <c r="S139" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="T139" t="n">
         <v>1.5</v>
@@ -8232,46 +8230,36 @@
         <v>15</v>
       </c>
       <c r="F140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G140" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H140"/>
       <c r="I140"/>
-      <c r="J140" t="n">
-        <v>18</v>
-      </c>
+      <c r="J140"/>
       <c r="K140" t="s">
         <v>51</v>
       </c>
-      <c r="L140" t="s">
-        <v>25</v>
-      </c>
-      <c r="M140" t="n">
-        <v>35</v>
-      </c>
-      <c r="N140" t="n">
-        <v>2</v>
-      </c>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
       <c r="O140" t="n">
-        <v>18.54</v>
+        <v>18.36</v>
       </c>
       <c r="P140" t="n">
-        <v>49.55</v>
+        <v>48.78</v>
       </c>
       <c r="Q140" t="n">
-        <v>68.09</v>
+        <v>67.14</v>
       </c>
       <c r="R140" t="n">
-        <v>2073.8</v>
+        <v>1683</v>
       </c>
       <c r="S140" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="T140" t="n">
-        <v>1.5</v>
-      </c>
+        <v>13.8</v>
+      </c>
+      <c r="T140"/>
       <c r="U140"/>
     </row>
     <row r="141">
@@ -8291,10 +8279,10 @@
         <v>15</v>
       </c>
       <c r="F141" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G141" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="H141"/>
       <c r="I141"/>
@@ -8305,20 +8293,14 @@
       <c r="L141"/>
       <c r="M141"/>
       <c r="N141"/>
-      <c r="O141" t="n">
-        <v>18.36</v>
-      </c>
-      <c r="P141" t="n">
-        <v>48.78</v>
-      </c>
-      <c r="Q141" t="n">
-        <v>67.14</v>
-      </c>
+      <c r="O141"/>
+      <c r="P141"/>
+      <c r="Q141"/>
       <c r="R141" t="n">
-        <v>1683</v>
+        <v>2206.1</v>
       </c>
       <c r="S141" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="T141"/>
       <c r="U141"/>
@@ -8334,36 +8316,52 @@
         <v>2021</v>
       </c>
       <c r="D142" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E142" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F142" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="H142"/>
       <c r="I142"/>
-      <c r="J142"/>
+      <c r="J142" t="n">
+        <v>20</v>
+      </c>
       <c r="K142" t="s">
-        <v>51</v>
-      </c>
-      <c r="L142"/>
-      <c r="M142"/>
-      <c r="N142"/>
-      <c r="O142"/>
-      <c r="P142"/>
-      <c r="Q142"/>
+        <v>52</v>
+      </c>
+      <c r="L142" t="s">
+        <v>28</v>
+      </c>
+      <c r="M142" t="n">
+        <v>42</v>
+      </c>
+      <c r="N142" t="n">
+        <v>2</v>
+      </c>
+      <c r="O142" t="n">
+        <v>20.31</v>
+      </c>
+      <c r="P142" t="n">
+        <v>46.52</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>66.83</v>
+      </c>
       <c r="R142" t="n">
-        <v>2206.1</v>
+        <v>1794.2</v>
       </c>
       <c r="S142" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="T142"/>
+        <v>13.3</v>
+      </c>
+      <c r="T142" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U142"/>
     </row>
     <row r="143">
@@ -8383,15 +8381,15 @@
         <v>16</v>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G143" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="H143"/>
       <c r="I143"/>
       <c r="J143" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K143" t="s">
         <v>52</v>
@@ -8400,25 +8398,25 @@
         <v>28</v>
       </c>
       <c r="M143" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N143" t="n">
         <v>2</v>
       </c>
       <c r="O143" t="n">
-        <v>20.31</v>
+        <v>19.71</v>
       </c>
       <c r="P143" t="n">
-        <v>46.52</v>
+        <v>47.13</v>
       </c>
       <c r="Q143" t="n">
-        <v>66.83</v>
+        <v>66.84</v>
       </c>
       <c r="R143" t="n">
-        <v>1794.2</v>
+        <v>2102.2</v>
       </c>
       <c r="S143" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="T143" t="n">
         <v>1.5</v>
@@ -8442,46 +8440,36 @@
         <v>16</v>
       </c>
       <c r="F144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G144" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="H144"/>
       <c r="I144"/>
-      <c r="J144" t="n">
-        <v>19</v>
-      </c>
+      <c r="J144"/>
       <c r="K144" t="s">
         <v>52</v>
       </c>
-      <c r="L144" t="s">
-        <v>28</v>
-      </c>
-      <c r="M144" t="n">
-        <v>41</v>
-      </c>
-      <c r="N144" t="n">
-        <v>2</v>
-      </c>
+      <c r="L144"/>
+      <c r="M144"/>
+      <c r="N144"/>
       <c r="O144" t="n">
-        <v>19.71</v>
+        <v>18.92</v>
       </c>
       <c r="P144" t="n">
-        <v>47.13</v>
+        <v>47.79</v>
       </c>
       <c r="Q144" t="n">
-        <v>66.84</v>
+        <v>66.71</v>
       </c>
       <c r="R144" t="n">
-        <v>2102.2</v>
+        <v>1717.6</v>
       </c>
       <c r="S144" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="T144" t="n">
-        <v>1.5</v>
-      </c>
+        <v>13.1</v>
+      </c>
+      <c r="T144"/>
       <c r="U144"/>
     </row>
     <row r="145">
@@ -8501,10 +8489,10 @@
         <v>16</v>
       </c>
       <c r="F145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G145" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="H145"/>
       <c r="I145"/>
@@ -8515,20 +8503,14 @@
       <c r="L145"/>
       <c r="M145"/>
       <c r="N145"/>
-      <c r="O145" t="n">
-        <v>18.92</v>
-      </c>
-      <c r="P145" t="n">
-        <v>47.79</v>
-      </c>
-      <c r="Q145" t="n">
-        <v>66.71</v>
-      </c>
+      <c r="O145"/>
+      <c r="P145"/>
+      <c r="Q145"/>
       <c r="R145" t="n">
-        <v>1717.6</v>
+        <v>1773.4</v>
       </c>
       <c r="S145" t="n">
-        <v>13.1</v>
+        <v>13.7</v>
       </c>
       <c r="T145"/>
       <c r="U145"/>
@@ -8544,36 +8526,52 @@
         <v>2021</v>
       </c>
       <c r="D146" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E146" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F146" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
         <v>4</v>
-      </c>
-      <c r="G146" t="n">
-        <v>64</v>
       </c>
       <c r="H146"/>
       <c r="I146"/>
-      <c r="J146"/>
+      <c r="J146" t="n">
+        <v>18</v>
+      </c>
       <c r="K146" t="s">
         <v>52</v>
       </c>
-      <c r="L146"/>
-      <c r="M146"/>
-      <c r="N146"/>
-      <c r="O146"/>
-      <c r="P146"/>
-      <c r="Q146"/>
+      <c r="L146" t="s">
+        <v>28</v>
+      </c>
+      <c r="M146" t="n">
+        <v>30</v>
+      </c>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+      <c r="O146" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="P146" t="n">
+        <v>40.06</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>62.6</v>
+      </c>
       <c r="R146" t="n">
-        <v>1773.4</v>
+        <v>2733.9</v>
       </c>
       <c r="S146" t="n">
         <v>13.7</v>
       </c>
-      <c r="T146"/>
+      <c r="T146" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U146"/>
     </row>
     <row r="147">
@@ -8593,15 +8591,15 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G147" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="H147"/>
       <c r="I147"/>
       <c r="J147" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K147" t="s">
         <v>52</v>
@@ -8610,25 +8608,23 @@
         <v>28</v>
       </c>
       <c r="M147" t="n">
-        <v>30</v>
-      </c>
-      <c r="N147" t="n">
-        <v>1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="N147"/>
       <c r="O147" t="n">
-        <v>22.54</v>
+        <v>21.59</v>
       </c>
       <c r="P147" t="n">
-        <v>40.06</v>
+        <v>40.91</v>
       </c>
       <c r="Q147" t="n">
-        <v>62.6</v>
+        <v>62.5</v>
       </c>
       <c r="R147" t="n">
-        <v>2733.9</v>
+        <v>2557.8</v>
       </c>
       <c r="S147" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="T147" t="n">
         <v>1.5</v>
@@ -8652,44 +8648,36 @@
         <v>17</v>
       </c>
       <c r="F148" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G148" t="n">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="H148"/>
       <c r="I148"/>
-      <c r="J148" t="n">
-        <v>17</v>
-      </c>
+      <c r="J148"/>
       <c r="K148" t="s">
         <v>52</v>
       </c>
-      <c r="L148" t="s">
-        <v>28</v>
-      </c>
-      <c r="M148" t="n">
-        <v>32</v>
-      </c>
+      <c r="L148"/>
+      <c r="M148"/>
       <c r="N148"/>
       <c r="O148" t="n">
-        <v>21.59</v>
+        <v>22.58</v>
       </c>
       <c r="P148" t="n">
-        <v>40.91</v>
+        <v>40.95</v>
       </c>
       <c r="Q148" t="n">
-        <v>62.5</v>
+        <v>63.53</v>
       </c>
       <c r="R148" t="n">
-        <v>2557.8</v>
+        <v>2715.4</v>
       </c>
       <c r="S148" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="T148" t="n">
-        <v>1.5</v>
-      </c>
+        <v>10.2</v>
+      </c>
+      <c r="T148"/>
       <c r="U148"/>
     </row>
     <row r="149">
@@ -8709,10 +8697,10 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G149" t="n">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="H149"/>
       <c r="I149"/>
@@ -8723,20 +8711,14 @@
       <c r="L149"/>
       <c r="M149"/>
       <c r="N149"/>
-      <c r="O149" t="n">
-        <v>22.58</v>
-      </c>
-      <c r="P149" t="n">
-        <v>40.95</v>
-      </c>
-      <c r="Q149" t="n">
-        <v>63.53</v>
-      </c>
+      <c r="O149"/>
+      <c r="P149"/>
+      <c r="Q149"/>
       <c r="R149" t="n">
-        <v>2715.4</v>
+        <v>2398</v>
       </c>
       <c r="S149" t="n">
-        <v>10.2</v>
+        <v>14.2</v>
       </c>
       <c r="T149"/>
       <c r="U149"/>
@@ -8752,36 +8734,52 @@
         <v>2021</v>
       </c>
       <c r="D150" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E150" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F150" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H150"/>
       <c r="I150"/>
-      <c r="J150"/>
+      <c r="J150" t="n">
+        <v>19</v>
+      </c>
       <c r="K150" t="s">
         <v>52</v>
       </c>
-      <c r="L150"/>
-      <c r="M150"/>
-      <c r="N150"/>
-      <c r="O150"/>
-      <c r="P150"/>
-      <c r="Q150"/>
+      <c r="L150" t="s">
+        <v>28</v>
+      </c>
+      <c r="M150" t="n">
+        <v>29</v>
+      </c>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+      <c r="O150" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="P150" t="n">
+        <v>40.58</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>63.43</v>
+      </c>
       <c r="R150" t="n">
-        <v>2398</v>
+        <v>2426.5</v>
       </c>
       <c r="S150" t="n">
         <v>14.2</v>
       </c>
-      <c r="T150"/>
+      <c r="T150" t="n">
+        <v>2.5</v>
+      </c>
       <c r="U150"/>
     </row>
     <row r="151">
@@ -8801,15 +8799,15 @@
         <v>18</v>
       </c>
       <c r="F151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G151" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="H151"/>
       <c r="I151"/>
       <c r="J151" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K151" t="s">
         <v>52</v>
@@ -8818,28 +8816,28 @@
         <v>28</v>
       </c>
       <c r="M151" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N151" t="n">
         <v>1</v>
       </c>
       <c r="O151" t="n">
-        <v>22.85</v>
+        <v>23.14</v>
       </c>
       <c r="P151" t="n">
-        <v>40.58</v>
+        <v>41.33</v>
       </c>
       <c r="Q151" t="n">
-        <v>63.43</v>
+        <v>64.47</v>
       </c>
       <c r="R151" t="n">
-        <v>2426.5</v>
+        <v>1784.8</v>
       </c>
       <c r="S151" t="n">
-        <v>14.2</v>
+        <v>17.2</v>
       </c>
       <c r="T151" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="U151"/>
     </row>
@@ -8860,46 +8858,36 @@
         <v>18</v>
       </c>
       <c r="F152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G152" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H152"/>
       <c r="I152"/>
-      <c r="J152" t="n">
-        <v>18</v>
-      </c>
+      <c r="J152"/>
       <c r="K152" t="s">
         <v>52</v>
       </c>
-      <c r="L152" t="s">
-        <v>28</v>
-      </c>
-      <c r="M152" t="n">
-        <v>30</v>
-      </c>
-      <c r="N152" t="n">
-        <v>1</v>
-      </c>
+      <c r="L152"/>
+      <c r="M152"/>
+      <c r="N152"/>
       <c r="O152" t="n">
-        <v>23.14</v>
+        <v>23.4</v>
       </c>
       <c r="P152" t="n">
-        <v>41.33</v>
+        <v>42.48</v>
       </c>
       <c r="Q152" t="n">
-        <v>64.47</v>
+        <v>65.88</v>
       </c>
       <c r="R152" t="n">
-        <v>1784.8</v>
+        <v>2270</v>
       </c>
       <c r="S152" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="T152" t="n">
-        <v>1.5</v>
-      </c>
+        <v>16.4</v>
+      </c>
+      <c r="T152"/>
       <c r="U152"/>
     </row>
     <row r="153">
@@ -8919,10 +8907,10 @@
         <v>18</v>
       </c>
       <c r="F153" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G153" t="n">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="H153"/>
       <c r="I153"/>
@@ -8933,20 +8921,14 @@
       <c r="L153"/>
       <c r="M153"/>
       <c r="N153"/>
-      <c r="O153" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="P153" t="n">
-        <v>42.48</v>
-      </c>
-      <c r="Q153" t="n">
-        <v>65.88</v>
-      </c>
+      <c r="O153"/>
+      <c r="P153"/>
+      <c r="Q153"/>
       <c r="R153" t="n">
-        <v>2270</v>
+        <v>1776.3</v>
       </c>
       <c r="S153" t="n">
-        <v>16.4</v>
+        <v>14.1</v>
       </c>
       <c r="T153"/>
       <c r="U153"/>
@@ -8962,36 +8944,52 @@
         <v>2021</v>
       </c>
       <c r="D154" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E154" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F154" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="H154"/>
       <c r="I154"/>
-      <c r="J154"/>
+      <c r="J154" t="n">
+        <v>10</v>
+      </c>
       <c r="K154" t="s">
         <v>52</v>
       </c>
-      <c r="L154"/>
-      <c r="M154"/>
-      <c r="N154"/>
-      <c r="O154"/>
-      <c r="P154"/>
-      <c r="Q154"/>
+      <c r="L154" t="s">
+        <v>25</v>
+      </c>
+      <c r="M154" t="n">
+        <v>32</v>
+      </c>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+      <c r="O154" t="n">
+        <v>20.63</v>
+      </c>
+      <c r="P154" t="n">
+        <v>45.57</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>66.2</v>
+      </c>
       <c r="R154" t="n">
-        <v>1776.3</v>
+        <v>2050.7</v>
       </c>
       <c r="S154" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="T154"/>
+        <v>11.7</v>
+      </c>
+      <c r="T154" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U154"/>
     </row>
     <row r="155">
@@ -9011,15 +9009,15 @@
         <v>19</v>
       </c>
       <c r="F155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="H155"/>
       <c r="I155"/>
       <c r="J155" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K155" t="s">
         <v>52</v>
@@ -9031,22 +9029,22 @@
         <v>32</v>
       </c>
       <c r="N155" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O155" t="n">
-        <v>20.63</v>
+        <v>20.56</v>
       </c>
       <c r="P155" t="n">
-        <v>45.57</v>
+        <v>45.84</v>
       </c>
       <c r="Q155" t="n">
-        <v>66.2</v>
+        <v>66.4</v>
       </c>
       <c r="R155" t="n">
-        <v>2050.7</v>
+        <v>2304.5</v>
       </c>
       <c r="S155" t="n">
-        <v>11.7</v>
+        <v>14.4</v>
       </c>
       <c r="T155" t="n">
         <v>1.5</v>
@@ -9070,46 +9068,36 @@
         <v>19</v>
       </c>
       <c r="F156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G156" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="H156"/>
       <c r="I156"/>
-      <c r="J156" t="n">
-        <v>13</v>
-      </c>
+      <c r="J156"/>
       <c r="K156" t="s">
         <v>52</v>
       </c>
-      <c r="L156" t="s">
-        <v>25</v>
-      </c>
-      <c r="M156" t="n">
-        <v>32</v>
-      </c>
-      <c r="N156" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="L156"/>
+      <c r="M156"/>
+      <c r="N156"/>
       <c r="O156" t="n">
-        <v>20.56</v>
+        <v>21.44</v>
       </c>
       <c r="P156" t="n">
-        <v>45.84</v>
+        <v>44.36</v>
       </c>
       <c r="Q156" t="n">
-        <v>66.4</v>
+        <v>65.8</v>
       </c>
       <c r="R156" t="n">
-        <v>2304.5</v>
+        <v>2234</v>
       </c>
       <c r="S156" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="T156" t="n">
-        <v>1.5</v>
-      </c>
+        <v>13.9</v>
+      </c>
+      <c r="T156"/>
       <c r="U156"/>
     </row>
     <row r="157">
@@ -9129,10 +9117,10 @@
         <v>19</v>
       </c>
       <c r="F157" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G157" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H157"/>
       <c r="I157"/>
@@ -9143,20 +9131,14 @@
       <c r="L157"/>
       <c r="M157"/>
       <c r="N157"/>
-      <c r="O157" t="n">
-        <v>21.44</v>
-      </c>
-      <c r="P157" t="n">
-        <v>44.36</v>
-      </c>
-      <c r="Q157" t="n">
-        <v>65.8</v>
-      </c>
+      <c r="O157"/>
+      <c r="P157"/>
+      <c r="Q157"/>
       <c r="R157" t="n">
-        <v>2234</v>
+        <v>1843.2</v>
       </c>
       <c r="S157" t="n">
-        <v>13.9</v>
+        <v>12.9</v>
       </c>
       <c r="T157"/>
       <c r="U157"/>
@@ -9172,36 +9154,52 @@
         <v>2021</v>
       </c>
       <c r="D158" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E158" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F158" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="H158"/>
       <c r="I158"/>
-      <c r="J158"/>
+      <c r="J158" t="n">
+        <v>16</v>
+      </c>
       <c r="K158" t="s">
-        <v>52</v>
-      </c>
-      <c r="L158"/>
-      <c r="M158"/>
-      <c r="N158"/>
-      <c r="O158"/>
-      <c r="P158"/>
-      <c r="Q158"/>
+        <v>51</v>
+      </c>
+      <c r="L158" t="s">
+        <v>28</v>
+      </c>
+      <c r="M158" t="n">
+        <v>44</v>
+      </c>
+      <c r="N158" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O158" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="P158" t="n">
+        <v>43.47</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>65.26</v>
+      </c>
       <c r="R158" t="n">
-        <v>1843.2</v>
+        <v>1934.4</v>
       </c>
       <c r="S158" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="T158"/>
+        <v>13.6</v>
+      </c>
+      <c r="T158" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U158"/>
     </row>
     <row r="159">
@@ -9221,15 +9219,15 @@
         <v>20</v>
       </c>
       <c r="F159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G159" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H159"/>
       <c r="I159"/>
       <c r="J159" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K159" t="s">
         <v>51</v>
@@ -9238,25 +9236,25 @@
         <v>28</v>
       </c>
       <c r="M159" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N159" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O159" t="n">
-        <v>21.79</v>
+        <v>22.22</v>
       </c>
       <c r="P159" t="n">
-        <v>43.47</v>
+        <v>42.84</v>
       </c>
       <c r="Q159" t="n">
-        <v>65.26</v>
+        <v>65.06</v>
       </c>
       <c r="R159" t="n">
-        <v>1934.4</v>
+        <v>1634.5</v>
       </c>
       <c r="S159" t="n">
-        <v>13.6</v>
+        <v>12.8</v>
       </c>
       <c r="T159" t="n">
         <v>1.5</v>
@@ -9280,46 +9278,36 @@
         <v>20</v>
       </c>
       <c r="F160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G160" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H160"/>
       <c r="I160"/>
-      <c r="J160" t="n">
-        <v>17</v>
-      </c>
+      <c r="J160"/>
       <c r="K160" t="s">
         <v>51</v>
       </c>
-      <c r="L160" t="s">
-        <v>28</v>
-      </c>
-      <c r="M160" t="n">
-        <v>45</v>
-      </c>
-      <c r="N160" t="n">
-        <v>2</v>
-      </c>
+      <c r="L160"/>
+      <c r="M160"/>
+      <c r="N160"/>
       <c r="O160" t="n">
-        <v>22.22</v>
+        <v>21.11</v>
       </c>
       <c r="P160" t="n">
-        <v>42.84</v>
+        <v>43.74</v>
       </c>
       <c r="Q160" t="n">
-        <v>65.06</v>
+        <v>64.85</v>
       </c>
       <c r="R160" t="n">
-        <v>1634.5</v>
+        <v>1603.5</v>
       </c>
       <c r="S160" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="T160" t="n">
-        <v>1.5</v>
-      </c>
+        <v>13.1</v>
+      </c>
+      <c r="T160"/>
       <c r="U160"/>
     </row>
     <row r="161">
@@ -9339,10 +9327,10 @@
         <v>20</v>
       </c>
       <c r="F161" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G161" t="n">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="H161"/>
       <c r="I161"/>
@@ -9353,66 +9341,17 @@
       <c r="L161"/>
       <c r="M161"/>
       <c r="N161"/>
-      <c r="O161" t="n">
-        <v>21.11</v>
-      </c>
-      <c r="P161" t="n">
-        <v>43.74</v>
-      </c>
-      <c r="Q161" t="n">
-        <v>64.85</v>
-      </c>
+      <c r="O161"/>
+      <c r="P161"/>
+      <c r="Q161"/>
       <c r="R161" t="n">
-        <v>1603.5</v>
+        <v>1864.5</v>
       </c>
       <c r="S161" t="n">
-        <v>13.1</v>
+        <v>11.4</v>
       </c>
       <c r="T161"/>
       <c r="U161"/>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>21</v>
-      </c>
-      <c r="B162" t="s">
-        <v>50</v>
-      </c>
-      <c r="C162" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D162" t="s">
-        <v>49</v>
-      </c>
-      <c r="E162" t="n">
-        <v>20</v>
-      </c>
-      <c r="F162" t="n">
-        <v>4</v>
-      </c>
-      <c r="G162" t="n">
-        <v>67</v>
-      </c>
-      <c r="H162"/>
-      <c r="I162"/>
-      <c r="J162"/>
-      <c r="K162" t="s">
-        <v>51</v>
-      </c>
-      <c r="L162"/>
-      <c r="M162"/>
-      <c r="N162"/>
-      <c r="O162"/>
-      <c r="P162"/>
-      <c r="Q162"/>
-      <c r="R162" t="n">
-        <v>1864.5</v>
-      </c>
-      <c r="S162" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="T162"/>
-      <c r="U162"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
